--- a/lang/el/headTags.xlsx
+++ b/lang/el/headTags.xlsx
@@ -10,19 +10,19 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1169</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1170">
   <si>
     <t>en</t>
   </si>
   <si>
-    <t>el</t>
+    <t>el (Greek)</t>
   </si>
   <si>
     <t>101 Dalmatians</t>
@@ -511,6 +511,9 @@
     <t>Charlie and the Chocolate Factory</t>
   </si>
   <si>
+    <t>Chase the Skies</t>
+  </si>
+  <si>
     <t>Cheese</t>
   </si>
   <si>
@@ -982,6 +985,9 @@
     <t>Fairy Tales</t>
   </si>
   <si>
+    <t>Fall Drop</t>
+  </si>
+  <si>
     <t>Fall Guys</t>
   </si>
   <si>
@@ -1747,6 +1753,9 @@
     <t>Hypixel</t>
   </si>
   <si>
+    <t>Hypixel (Attribute Shard)</t>
+  </si>
+  <si>
     <t>Hypixel (Dyes)</t>
   </si>
   <si>
@@ -2638,6 +2647,9 @@
     <t>Quake</t>
   </si>
   <si>
+    <t>R.E.P.O.</t>
+  </si>
+  <si>
     <t>Rabbit</t>
   </si>
   <si>
@@ -2959,6 +2971,9 @@
     <t>Spooky's Jump Scare Mansion</t>
   </si>
   <si>
+    <t>Spore</t>
+  </si>
+  <si>
     <t>Sport</t>
   </si>
   <si>
@@ -3047,9 +3062,6 @@
   </si>
   <si>
     <t>Summer</t>
-  </si>
-  <si>
-    <t>Summer Drop 2025</t>
   </si>
   <si>
     <t>Sunglasses</t>
@@ -3861,7 +3873,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1165"/>
+  <dimension ref="A1:B1169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -9702,8 +9714,28 @@
         <v>1165</v>
       </c>
     </row>
+    <row r="1166" spans="1:2">
+      <c r="A1166" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:2">
+      <c r="A1167" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:2">
+      <c r="A1168" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:2">
+      <c r="A1169" t="s">
+        <v>1169</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1165"/>
+  <autoFilter ref="A1:B1169"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/el/headTags.xlsx
+++ b/lang/el/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1169</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1170</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1864">
   <si>
     <t>en</t>
   </si>
@@ -1421,6 +1421,12 @@
   </si>
   <si>
     <t>Explosive</t>
+  </si>
+  <si>
+    <t>Eye</t>
+  </si>
+  <si>
+    <t>Μάτι</t>
   </si>
   <si>
     <t>Eyepatch</t>
@@ -5949,7 +5955,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1169"/>
+  <dimension ref="A1:B1170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -8479,156 +8485,156 @@
         <v>468</v>
       </c>
       <c r="B315" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B316" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B317" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B318" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B319" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B320" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B321" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B322" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B323" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B324" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B325" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B326" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B327" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B328" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B329" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B330" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B331" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B332" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B333" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B334" t="s">
         <v>488</v>
@@ -8679,12 +8685,12 @@
         <v>499</v>
       </c>
       <c r="B340" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B341" t="s">
         <v>501</v>
@@ -8711,12 +8717,12 @@
         <v>506</v>
       </c>
       <c r="B344" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B345" t="s">
         <v>508</v>
@@ -8727,12 +8733,12 @@
         <v>509</v>
       </c>
       <c r="B346" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B347" t="s">
         <v>511</v>
@@ -8831,20 +8837,20 @@
         <v>534</v>
       </c>
       <c r="B359" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B360" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B361" t="s">
         <v>537</v>
@@ -8863,12 +8869,12 @@
         <v>540</v>
       </c>
       <c r="B363" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B364" t="s">
         <v>542</v>
@@ -8895,12 +8901,12 @@
         <v>547</v>
       </c>
       <c r="B367" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B368" t="s">
         <v>549</v>
@@ -9391,20 +9397,20 @@
         <v>670</v>
       </c>
       <c r="B429" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B430" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B431" t="s">
         <v>673</v>
@@ -9415,20 +9421,20 @@
         <v>674</v>
       </c>
       <c r="B432" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B433" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B434" t="s">
         <v>677</v>
@@ -9503,12 +9509,12 @@
         <v>694</v>
       </c>
       <c r="B443" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B444" t="s">
         <v>696</v>
@@ -9519,12 +9525,12 @@
         <v>697</v>
       </c>
       <c r="B445" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B446" t="s">
         <v>699</v>
@@ -9535,12 +9541,12 @@
         <v>700</v>
       </c>
       <c r="B447" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B448" t="s">
         <v>702</v>
@@ -9551,12 +9557,12 @@
         <v>703</v>
       </c>
       <c r="B449" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B450" t="s">
         <v>705</v>
@@ -9575,20 +9581,20 @@
         <v>708</v>
       </c>
       <c r="B452" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B453" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B454" t="s">
         <v>711</v>
@@ -9647,28 +9653,28 @@
         <v>724</v>
       </c>
       <c r="B461" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B462" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B463" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B464" t="s">
         <v>728</v>
@@ -9679,12 +9685,12 @@
         <v>729</v>
       </c>
       <c r="B465" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B466" t="s">
         <v>731</v>
@@ -9695,47 +9701,47 @@
         <v>732</v>
       </c>
       <c r="B467" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B468" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B469" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B470" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B471" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B472" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -9743,12 +9749,12 @@
         <v>739</v>
       </c>
       <c r="B473" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B474" t="s">
         <v>741</v>
@@ -9759,12 +9765,12 @@
         <v>742</v>
       </c>
       <c r="B475" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B476" t="s">
         <v>744</v>
@@ -9783,12 +9789,12 @@
         <v>747</v>
       </c>
       <c r="B478" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B479" t="s">
         <v>749</v>
@@ -9799,12 +9805,12 @@
         <v>750</v>
       </c>
       <c r="B480" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B481" t="s">
         <v>752</v>
@@ -9823,12 +9829,12 @@
         <v>755</v>
       </c>
       <c r="B483" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B484" t="s">
         <v>757</v>
@@ -9839,20 +9845,20 @@
         <v>758</v>
       </c>
       <c r="B485" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B486" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B487" t="s">
         <v>761</v>
@@ -9863,12 +9869,12 @@
         <v>762</v>
       </c>
       <c r="B488" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B489" t="s">
         <v>764</v>
@@ -10023,12 +10029,12 @@
         <v>801</v>
       </c>
       <c r="B508" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B509" t="s">
         <v>803</v>
@@ -10047,12 +10053,12 @@
         <v>806</v>
       </c>
       <c r="B511" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B512" t="s">
         <v>808</v>
@@ -10063,12 +10069,12 @@
         <v>809</v>
       </c>
       <c r="B513" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B514" t="s">
         <v>811</v>
@@ -10199,12 +10205,12 @@
         <v>842</v>
       </c>
       <c r="B530" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B531" t="s">
         <v>844</v>
@@ -10223,20 +10229,20 @@
         <v>847</v>
       </c>
       <c r="B533" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B534" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B535" t="s">
         <v>850</v>
@@ -10255,28 +10261,28 @@
         <v>853</v>
       </c>
       <c r="B537" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B538" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B539" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B540" t="s">
         <v>857</v>
@@ -10295,12 +10301,12 @@
         <v>860</v>
       </c>
       <c r="B542" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B543" t="s">
         <v>862</v>
@@ -10311,12 +10317,12 @@
         <v>863</v>
       </c>
       <c r="B544" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B545" t="s">
         <v>865</v>
@@ -10335,36 +10341,36 @@
         <v>868</v>
       </c>
       <c r="B547" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B548" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B549" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B550" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B551" t="s">
         <v>873</v>
@@ -10383,20 +10389,20 @@
         <v>876</v>
       </c>
       <c r="B553" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B554" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B555" t="s">
         <v>879</v>
@@ -10447,28 +10453,28 @@
         <v>890</v>
       </c>
       <c r="B561" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B562" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B563" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B564" t="s">
         <v>894</v>
@@ -10535,52 +10541,52 @@
         <v>909</v>
       </c>
       <c r="B572" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B573" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B574" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B575" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B576" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B577" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B578" t="s">
         <v>916</v>
@@ -10607,12 +10613,12 @@
         <v>921</v>
       </c>
       <c r="B581" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B582" t="s">
         <v>923</v>
@@ -10623,12 +10629,12 @@
         <v>924</v>
       </c>
       <c r="B583" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B584" t="s">
         <v>926</v>
@@ -10655,12 +10661,12 @@
         <v>931</v>
       </c>
       <c r="B587" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B588" t="s">
         <v>933</v>
@@ -10687,12 +10693,12 @@
         <v>938</v>
       </c>
       <c r="B591" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B592" t="s">
         <v>940</v>
@@ -10759,20 +10765,20 @@
         <v>955</v>
       </c>
       <c r="B600" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B601" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B602" t="s">
         <v>958</v>
@@ -10831,20 +10837,20 @@
         <v>971</v>
       </c>
       <c r="B609" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B610" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B611" t="s">
         <v>974</v>
@@ -10863,12 +10869,12 @@
         <v>977</v>
       </c>
       <c r="B613" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B614" t="s">
         <v>979</v>
@@ -10935,28 +10941,28 @@
         <v>994</v>
       </c>
       <c r="B622" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B623" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B624" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B625" t="s">
         <v>998</v>
@@ -10975,36 +10981,36 @@
         <v>1001</v>
       </c>
       <c r="B627" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B628" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B629" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B630" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B631" t="s">
         <v>1006</v>
@@ -11015,52 +11021,52 @@
         <v>1007</v>
       </c>
       <c r="B632" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B633" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B634" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B635" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B636" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B637" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B638" t="s">
         <v>1014</v>
@@ -11071,36 +11077,36 @@
         <v>1015</v>
       </c>
       <c r="B639" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B640" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B641" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B642" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B643" t="s">
         <v>1020</v>
@@ -11135,28 +11141,28 @@
         <v>1027</v>
       </c>
       <c r="B647" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B648" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B649" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B650" t="s">
         <v>1031</v>
@@ -11167,12 +11173,12 @@
         <v>1032</v>
       </c>
       <c r="B651" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B652" t="s">
         <v>1034</v>
@@ -11199,12 +11205,12 @@
         <v>1039</v>
       </c>
       <c r="B655" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B656" t="s">
         <v>1041</v>
@@ -11279,12 +11285,12 @@
         <v>1058</v>
       </c>
       <c r="B665" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B666" t="s">
         <v>1060</v>
@@ -11295,12 +11301,12 @@
         <v>1061</v>
       </c>
       <c r="B667" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B668" t="s">
         <v>1063</v>
@@ -11319,12 +11325,12 @@
         <v>1066</v>
       </c>
       <c r="B670" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B671" t="s">
         <v>1068</v>
@@ -11335,20 +11341,20 @@
         <v>1069</v>
       </c>
       <c r="B672" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="673" spans="1:2">
       <c r="A673" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B673" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B674" t="s">
         <v>1072</v>
@@ -11367,12 +11373,12 @@
         <v>1075</v>
       </c>
       <c r="B676" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B677" t="s">
         <v>1077</v>
@@ -11399,20 +11405,20 @@
         <v>1082</v>
       </c>
       <c r="B680" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B681" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B682" t="s">
         <v>1085</v>
@@ -11471,20 +11477,20 @@
         <v>1098</v>
       </c>
       <c r="B689" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B690" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B691" t="s">
         <v>1101</v>
@@ -11495,12 +11501,12 @@
         <v>1102</v>
       </c>
       <c r="B692" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B693" t="s">
         <v>1104</v>
@@ -11543,36 +11549,36 @@
         <v>1113</v>
       </c>
       <c r="B698" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B699" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="B700" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B701" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="B702" t="s">
         <v>1118</v>
@@ -11583,28 +11589,28 @@
         <v>1119</v>
       </c>
       <c r="B703" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="B704" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B705" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B706" t="s">
         <v>1123</v>
@@ -11615,12 +11621,12 @@
         <v>1124</v>
       </c>
       <c r="B707" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B708" t="s">
         <v>1126</v>
@@ -11631,12 +11637,12 @@
         <v>1127</v>
       </c>
       <c r="B709" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B710" t="s">
         <v>1129</v>
@@ -11711,12 +11717,12 @@
         <v>1146</v>
       </c>
       <c r="B719" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="720" spans="1:2">
       <c r="A720" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B720" t="s">
         <v>1148</v>
@@ -11743,12 +11749,12 @@
         <v>1153</v>
       </c>
       <c r="B723" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="724" spans="1:2">
       <c r="A724" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="B724" t="s">
         <v>1155</v>
@@ -11791,12 +11797,12 @@
         <v>1164</v>
       </c>
       <c r="B729" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="B730" t="s">
         <v>1166</v>
@@ -11839,20 +11845,20 @@
         <v>1175</v>
       </c>
       <c r="B735" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="736" spans="1:2">
       <c r="A736" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="B736" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="B737" t="s">
         <v>1178</v>
@@ -11863,28 +11869,28 @@
         <v>1179</v>
       </c>
       <c r="B738" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="B739" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B740" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="B741" t="s">
         <v>1183</v>
@@ -11895,36 +11901,36 @@
         <v>1184</v>
       </c>
       <c r="B742" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="B743" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="B744" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="B745" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B746" t="s">
         <v>1189</v>
@@ -11983,20 +11989,20 @@
         <v>1202</v>
       </c>
       <c r="B753" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="754" spans="1:2">
       <c r="A754" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B754" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="B755" t="s">
         <v>1205</v>
@@ -12015,12 +12021,12 @@
         <v>1208</v>
       </c>
       <c r="B757" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="B758" t="s">
         <v>1210</v>
@@ -12031,20 +12037,20 @@
         <v>1211</v>
       </c>
       <c r="B759" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="B760" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B761" t="s">
         <v>1214</v>
@@ -12087,12 +12093,12 @@
         <v>1223</v>
       </c>
       <c r="B766" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B767" t="s">
         <v>1225</v>
@@ -12127,12 +12133,12 @@
         <v>1232</v>
       </c>
       <c r="B771" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="B772" t="s">
         <v>1234</v>
@@ -12199,28 +12205,28 @@
         <v>1249</v>
       </c>
       <c r="B780" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="B781" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="B782" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="B783" t="s">
         <v>1253</v>
@@ -12239,12 +12245,12 @@
         <v>1256</v>
       </c>
       <c r="B785" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="B786" t="s">
         <v>1258</v>
@@ -12255,60 +12261,60 @@
         <v>1259</v>
       </c>
       <c r="B787" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="B788" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="B789" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="B790" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="B791" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="B792" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="B793" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="B794" t="s">
         <v>1267</v>
@@ -12327,12 +12333,12 @@
         <v>1270</v>
       </c>
       <c r="B796" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="B797" t="s">
         <v>1272</v>
@@ -12383,36 +12389,36 @@
         <v>1283</v>
       </c>
       <c r="B803" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="804" spans="1:2">
       <c r="A804" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B804" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="B805" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="B806" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="B807" t="s">
         <v>1288</v>
@@ -12455,20 +12461,20 @@
         <v>1297</v>
       </c>
       <c r="B812" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="813" spans="1:2">
       <c r="A813" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="B813" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="814" spans="1:2">
       <c r="A814" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="B814" t="s">
         <v>1300</v>
@@ -12487,44 +12493,44 @@
         <v>1303</v>
       </c>
       <c r="B816" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="817" spans="1:2">
       <c r="A817" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="B817" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="818" spans="1:2">
       <c r="A818" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="B818" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="B819" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="820" spans="1:2">
       <c r="A820" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="B820" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="821" spans="1:2">
       <c r="A821" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="B821" t="s">
         <v>1309</v>
@@ -12535,12 +12541,12 @@
         <v>1310</v>
       </c>
       <c r="B822" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="823" spans="1:2">
       <c r="A823" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="B823" t="s">
         <v>1312</v>
@@ -12559,20 +12565,20 @@
         <v>1315</v>
       </c>
       <c r="B825" t="s">
-        <v>717</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="826" spans="1:2">
       <c r="A826" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="B826" t="s">
-        <v>1316</v>
+        <v>719</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B827" t="s">
         <v>1318</v>
@@ -12583,36 +12589,36 @@
         <v>1319</v>
       </c>
       <c r="B828" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="B829" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="B830" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="B831" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B832" t="s">
         <v>1324</v>
@@ -12679,100 +12685,100 @@
         <v>1339</v>
       </c>
       <c r="B840" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="B841" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="B842" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="B843" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="B844" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="845" spans="1:2">
       <c r="A845" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="B845" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="846" spans="1:2">
       <c r="A846" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="B846" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="847" spans="1:2">
       <c r="A847" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B847" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="848" spans="1:2">
       <c r="A848" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="B848" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="849" spans="1:2">
       <c r="A849" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="B849" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="850" spans="1:2">
       <c r="A850" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="B850" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="851" spans="1:2">
       <c r="A851" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B851" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="852" spans="1:2">
       <c r="A852" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="B852" t="s">
         <v>1352</v>
@@ -12807,20 +12813,20 @@
         <v>1359</v>
       </c>
       <c r="B856" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="857" spans="1:2">
       <c r="A857" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="B857" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="858" spans="1:2">
       <c r="A858" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="B858" t="s">
         <v>1362</v>
@@ -12831,28 +12837,28 @@
         <v>1363</v>
       </c>
       <c r="B859" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="B860" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="B861" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="B862" t="s">
         <v>1367</v>
@@ -12871,28 +12877,28 @@
         <v>1370</v>
       </c>
       <c r="B864" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="865" spans="1:2">
       <c r="A865" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="B865" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="866" spans="1:2">
       <c r="A866" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="B866" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="B867" t="s">
         <v>1374</v>
@@ -12967,12 +12973,12 @@
         <v>1391</v>
       </c>
       <c r="B876" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="B877" t="s">
         <v>1393</v>
@@ -12999,20 +13005,20 @@
         <v>1398</v>
       </c>
       <c r="B880" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="881" spans="1:2">
       <c r="A881" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="B881" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="B882" t="s">
         <v>1401</v>
@@ -13023,28 +13029,28 @@
         <v>1402</v>
       </c>
       <c r="B883" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="884" spans="1:2">
       <c r="A884" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="B884" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="885" spans="1:2">
       <c r="A885" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="B885" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="B886" t="s">
         <v>1406</v>
@@ -13055,12 +13061,12 @@
         <v>1407</v>
       </c>
       <c r="B887" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="B888" t="s">
         <v>1409</v>
@@ -13071,12 +13077,12 @@
         <v>1410</v>
       </c>
       <c r="B889" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="890" spans="1:2">
       <c r="A890" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="B890" t="s">
         <v>1412</v>
@@ -13103,20 +13109,20 @@
         <v>1417</v>
       </c>
       <c r="B893" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="894" spans="1:2">
       <c r="A894" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="B894" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="895" spans="1:2">
       <c r="A895" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="B895" t="s">
         <v>1420</v>
@@ -13135,12 +13141,12 @@
         <v>1423</v>
       </c>
       <c r="B897" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="898" spans="1:2">
       <c r="A898" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="B898" t="s">
         <v>1425</v>
@@ -13167,12 +13173,12 @@
         <v>1430</v>
       </c>
       <c r="B901" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="902" spans="1:2">
       <c r="A902" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="B902" t="s">
         <v>1432</v>
@@ -13183,20 +13189,20 @@
         <v>1433</v>
       </c>
       <c r="B903" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="B904" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="B905" t="s">
         <v>1436</v>
@@ -13207,20 +13213,20 @@
         <v>1437</v>
       </c>
       <c r="B906" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="B907" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="B908" t="s">
         <v>1440</v>
@@ -13247,28 +13253,28 @@
         <v>1445</v>
       </c>
       <c r="B911" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="912" spans="1:2">
       <c r="A912" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="B912" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="B913" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="B914" t="s">
         <v>1449</v>
@@ -13287,12 +13293,12 @@
         <v>1452</v>
       </c>
       <c r="B916" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="917" spans="1:2">
       <c r="A917" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="B917" t="s">
         <v>1454</v>
@@ -13311,20 +13317,20 @@
         <v>1457</v>
       </c>
       <c r="B919" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="920" spans="1:2">
       <c r="A920" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="B920" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="B921" t="s">
         <v>1460</v>
@@ -13359,12 +13365,12 @@
         <v>1467</v>
       </c>
       <c r="B925" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="926" spans="1:2">
       <c r="A926" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="B926" t="s">
         <v>1469</v>
@@ -13375,28 +13381,28 @@
         <v>1470</v>
       </c>
       <c r="B927" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="928" spans="1:2">
       <c r="A928" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="B928" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="929" spans="1:2">
       <c r="A929" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="B929" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="B930" t="s">
         <v>1474</v>
@@ -13423,12 +13429,12 @@
         <v>1479</v>
       </c>
       <c r="B933" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="934" spans="1:2">
       <c r="A934" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="B934" t="s">
         <v>1481</v>
@@ -13463,20 +13469,20 @@
         <v>1488</v>
       </c>
       <c r="B938" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="939" spans="1:2">
       <c r="A939" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="B939" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="B940" t="s">
         <v>1491</v>
@@ -13495,12 +13501,12 @@
         <v>1494</v>
       </c>
       <c r="B942" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="943" spans="1:2">
       <c r="A943" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="B943" t="s">
         <v>1496</v>
@@ -13511,36 +13517,36 @@
         <v>1497</v>
       </c>
       <c r="B944" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="B945" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="B946" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="B947" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="B948" t="s">
         <v>1502</v>
@@ -13575,20 +13581,20 @@
         <v>1509</v>
       </c>
       <c r="B952" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="953" spans="1:2">
       <c r="A953" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="B953" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="954" spans="1:2">
       <c r="A954" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="B954" t="s">
         <v>1512</v>
@@ -13623,12 +13629,12 @@
         <v>1519</v>
       </c>
       <c r="B958" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="959" spans="1:2">
       <c r="A959" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="B959" t="s">
         <v>1521</v>
@@ -13639,28 +13645,28 @@
         <v>1522</v>
       </c>
       <c r="B960" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="961" spans="1:2">
       <c r="A961" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B961" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="962" spans="1:2">
       <c r="A962" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="B962" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B963" t="s">
         <v>1526</v>
@@ -13719,12 +13725,12 @@
         <v>1539</v>
       </c>
       <c r="B970" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="971" spans="1:2">
       <c r="A971" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="B971" t="s">
         <v>1541</v>
@@ -13735,12 +13741,12 @@
         <v>1542</v>
       </c>
       <c r="B972" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="973" spans="1:2">
       <c r="A973" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="B973" t="s">
         <v>1544</v>
@@ -13759,20 +13765,20 @@
         <v>1547</v>
       </c>
       <c r="B975" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="976" spans="1:2">
       <c r="A976" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="B976" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="977" spans="1:2">
       <c r="A977" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="B977" t="s">
         <v>1550</v>
@@ -13791,28 +13797,28 @@
         <v>1553</v>
       </c>
       <c r="B979" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="980" spans="1:2">
       <c r="A980" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="B980" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="981" spans="1:2">
       <c r="A981" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="B981" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="B982" t="s">
         <v>1557</v>
@@ -13871,12 +13877,12 @@
         <v>1570</v>
       </c>
       <c r="B989" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="990" spans="1:2">
       <c r="A990" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="B990" t="s">
         <v>1572</v>
@@ -13895,28 +13901,28 @@
         <v>1575</v>
       </c>
       <c r="B992" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="B993" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="994" spans="1:2">
       <c r="A994" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B994" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="B995" t="s">
         <v>1579</v>
@@ -13951,36 +13957,36 @@
         <v>1586</v>
       </c>
       <c r="B999" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
       <c r="A1000" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="B1000" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
       <c r="A1001" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="B1001" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="B1002" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="B1003" t="s">
         <v>1591</v>
@@ -13991,36 +13997,36 @@
         <v>1592</v>
       </c>
       <c r="B1004" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="B1005" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="B1006" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="B1007" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B1008" t="s">
         <v>1597</v>
@@ -14039,12 +14045,12 @@
         <v>1600</v>
       </c>
       <c r="B1010" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
       <c r="A1011" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="B1011" t="s">
         <v>1602</v>
@@ -14055,20 +14061,20 @@
         <v>1603</v>
       </c>
       <c r="B1012" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="B1013" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="B1014" t="s">
         <v>1606</v>
@@ -14087,12 +14093,12 @@
         <v>1609</v>
       </c>
       <c r="B1016" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="B1017" t="s">
         <v>1611</v>
@@ -14119,12 +14125,12 @@
         <v>1616</v>
       </c>
       <c r="B1020" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
       <c r="A1021" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="B1021" t="s">
         <v>1618</v>
@@ -14135,36 +14141,36 @@
         <v>1619</v>
       </c>
       <c r="B1022" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="B1023" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="B1024" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="B1025" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="B1026" t="s">
         <v>1624</v>
@@ -14175,36 +14181,36 @@
         <v>1625</v>
       </c>
       <c r="B1027" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="B1028" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="B1029" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B1030" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B1031" t="s">
         <v>1630</v>
@@ -14223,12 +14229,12 @@
         <v>1633</v>
       </c>
       <c r="B1033" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="B1034" t="s">
         <v>1635</v>
@@ -14303,12 +14309,12 @@
         <v>1652</v>
       </c>
       <c r="B1043" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
       <c r="A1044" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="B1044" t="s">
         <v>1654</v>
@@ -14319,12 +14325,12 @@
         <v>1655</v>
       </c>
       <c r="B1045" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
       <c r="A1046" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="B1046" t="s">
         <v>1657</v>
@@ -14399,12 +14405,12 @@
         <v>1674</v>
       </c>
       <c r="B1055" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
       <c r="A1056" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="B1056" t="s">
         <v>1676</v>
@@ -14495,20 +14501,20 @@
         <v>1697</v>
       </c>
       <c r="B1067" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
       <c r="A1068" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="B1068" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="B1069" t="s">
         <v>1700</v>
@@ -14519,28 +14525,28 @@
         <v>1701</v>
       </c>
       <c r="B1070" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="B1071" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="B1072" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="B1073" t="s">
         <v>1705</v>
@@ -14551,12 +14557,12 @@
         <v>1706</v>
       </c>
       <c r="B1074" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="B1075" t="s">
         <v>1708</v>
@@ -14575,12 +14581,12 @@
         <v>1711</v>
       </c>
       <c r="B1077" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="B1078" t="s">
         <v>1713</v>
@@ -14591,12 +14597,12 @@
         <v>1714</v>
       </c>
       <c r="B1079" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
       <c r="A1080" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="B1080" t="s">
         <v>1716</v>
@@ -14607,12 +14613,12 @@
         <v>1717</v>
       </c>
       <c r="B1081" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="B1082" t="s">
         <v>1719</v>
@@ -14655,12 +14661,12 @@
         <v>1728</v>
       </c>
       <c r="B1087" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
       <c r="A1088" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="B1088" t="s">
         <v>1730</v>
@@ -14703,12 +14709,12 @@
         <v>1739</v>
       </c>
       <c r="B1093" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
       <c r="A1094" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="B1094" t="s">
         <v>1741</v>
@@ -14727,12 +14733,12 @@
         <v>1744</v>
       </c>
       <c r="B1096" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="B1097" t="s">
         <v>1746</v>
@@ -14743,20 +14749,20 @@
         <v>1747</v>
       </c>
       <c r="B1098" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
       <c r="A1099" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="B1099" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="B1100" t="s">
         <v>1750</v>
@@ -14775,12 +14781,12 @@
         <v>1753</v>
       </c>
       <c r="B1102" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="B1103" t="s">
         <v>1755</v>
@@ -14791,12 +14797,12 @@
         <v>1756</v>
       </c>
       <c r="B1104" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="B1105" t="s">
         <v>1758</v>
@@ -14807,12 +14813,12 @@
         <v>1759</v>
       </c>
       <c r="B1106" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="B1107" t="s">
         <v>1761</v>
@@ -14855,20 +14861,20 @@
         <v>1770</v>
       </c>
       <c r="B1112" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
       <c r="A1113" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="B1113" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
       <c r="A1114" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="B1114" t="s">
         <v>1773</v>
@@ -14967,44 +14973,44 @@
         <v>1796</v>
       </c>
       <c r="B1126" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
       <c r="A1127" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="B1127" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="B1128" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="B1129" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="B1130" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="B1131" t="s">
         <v>1802</v>
@@ -15023,28 +15029,28 @@
         <v>1805</v>
       </c>
       <c r="B1133" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="B1134" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="B1135" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="B1136" t="s">
         <v>1809</v>
@@ -15111,12 +15117,12 @@
         <v>1824</v>
       </c>
       <c r="B1144" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
       <c r="A1145" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="B1145" t="s">
         <v>1826</v>
@@ -15127,12 +15133,12 @@
         <v>1827</v>
       </c>
       <c r="B1146" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="B1147" t="s">
         <v>1829</v>
@@ -15167,44 +15173,44 @@
         <v>1836</v>
       </c>
       <c r="B1151" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="B1152" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
       <c r="A1153" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B1153" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="B1154" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="B1155" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="B1156" t="s">
         <v>1842</v>
@@ -15223,20 +15229,20 @@
         <v>1845</v>
       </c>
       <c r="B1158" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="B1159" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="B1160" t="s">
         <v>1848</v>
@@ -15247,36 +15253,36 @@
         <v>1849</v>
       </c>
       <c r="B1161" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="B1162" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="B1163" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="B1164" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="B1165" t="s">
         <v>1854</v>
@@ -15311,11 +15317,19 @@
         <v>1861</v>
       </c>
       <c r="B1169" t="s">
-        <v>1861</v>
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:2">
+      <c r="A1170" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>1863</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1169"/>
+  <autoFilter ref="A1:B1170"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/el/headTags.xlsx
+++ b/lang/el/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1171</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1866">
   <si>
     <t>en</t>
   </si>
@@ -4469,6 +4469,12 @@
   </si>
   <si>
     <t>Επτά θανάσιμα αμαρτήματα</t>
+  </si>
+  <si>
+    <t>Shadow of the Colossus</t>
+  </si>
+  <si>
+    <t>Η σκιά του Κολοσσού</t>
   </si>
   <si>
     <t>Shadows of Mordor</t>
@@ -5955,7 +5961,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1170"/>
+  <dimension ref="A1:B1171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -13477,20 +13483,20 @@
         <v>1490</v>
       </c>
       <c r="B939" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="B940" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="B941" t="s">
         <v>1493</v>
@@ -13509,12 +13515,12 @@
         <v>1496</v>
       </c>
       <c r="B943" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="944" spans="1:2">
       <c r="A944" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="B944" t="s">
         <v>1498</v>
@@ -13525,36 +13531,36 @@
         <v>1499</v>
       </c>
       <c r="B945" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="B946" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="B947" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="B948" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="B949" t="s">
         <v>1504</v>
@@ -13589,20 +13595,20 @@
         <v>1511</v>
       </c>
       <c r="B953" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="954" spans="1:2">
       <c r="A954" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="B954" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="955" spans="1:2">
       <c r="A955" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="B955" t="s">
         <v>1514</v>
@@ -13637,12 +13643,12 @@
         <v>1521</v>
       </c>
       <c r="B959" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="960" spans="1:2">
       <c r="A960" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="B960" t="s">
         <v>1523</v>
@@ -13653,28 +13659,28 @@
         <v>1524</v>
       </c>
       <c r="B961" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="962" spans="1:2">
       <c r="A962" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B962" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="B963" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="B964" t="s">
         <v>1528</v>
@@ -13733,12 +13739,12 @@
         <v>1541</v>
       </c>
       <c r="B971" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="972" spans="1:2">
       <c r="A972" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="B972" t="s">
         <v>1543</v>
@@ -13749,12 +13755,12 @@
         <v>1544</v>
       </c>
       <c r="B973" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="974" spans="1:2">
       <c r="A974" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="B974" t="s">
         <v>1546</v>
@@ -13773,20 +13779,20 @@
         <v>1549</v>
       </c>
       <c r="B976" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="977" spans="1:2">
       <c r="A977" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="B977" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="978" spans="1:2">
       <c r="A978" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="B978" t="s">
         <v>1552</v>
@@ -13805,28 +13811,28 @@
         <v>1555</v>
       </c>
       <c r="B980" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="981" spans="1:2">
       <c r="A981" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="B981" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="B982" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B983" t="s">
         <v>1559</v>
@@ -13885,12 +13891,12 @@
         <v>1572</v>
       </c>
       <c r="B990" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="991" spans="1:2">
       <c r="A991" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="B991" t="s">
         <v>1574</v>
@@ -13909,28 +13915,28 @@
         <v>1577</v>
       </c>
       <c r="B993" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="994" spans="1:2">
       <c r="A994" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="B994" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="B995" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="B996" t="s">
         <v>1581</v>
@@ -13965,36 +13971,36 @@
         <v>1588</v>
       </c>
       <c r="B1000" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
       <c r="A1001" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="B1001" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="B1002" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="B1003" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="B1004" t="s">
         <v>1593</v>
@@ -14005,36 +14011,36 @@
         <v>1594</v>
       </c>
       <c r="B1005" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="B1006" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B1007" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="B1008" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="B1009" t="s">
         <v>1599</v>
@@ -14053,12 +14059,12 @@
         <v>1602</v>
       </c>
       <c r="B1011" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
       <c r="A1012" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="B1012" t="s">
         <v>1604</v>
@@ -14069,20 +14075,20 @@
         <v>1605</v>
       </c>
       <c r="B1013" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="B1014" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="B1015" t="s">
         <v>1608</v>
@@ -14101,12 +14107,12 @@
         <v>1611</v>
       </c>
       <c r="B1017" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
       <c r="A1018" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="B1018" t="s">
         <v>1613</v>
@@ -14133,12 +14139,12 @@
         <v>1618</v>
       </c>
       <c r="B1021" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
       <c r="A1022" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="B1022" t="s">
         <v>1620</v>
@@ -14149,36 +14155,36 @@
         <v>1621</v>
       </c>
       <c r="B1023" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="B1024" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="B1025" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="B1026" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="B1027" t="s">
         <v>1626</v>
@@ -14189,36 +14195,36 @@
         <v>1627</v>
       </c>
       <c r="B1028" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B1029" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B1030" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="B1031" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="B1032" t="s">
         <v>1632</v>
@@ -14237,12 +14243,12 @@
         <v>1635</v>
       </c>
       <c r="B1034" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
       <c r="A1035" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="B1035" t="s">
         <v>1637</v>
@@ -14317,12 +14323,12 @@
         <v>1654</v>
       </c>
       <c r="B1044" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
       <c r="A1045" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="B1045" t="s">
         <v>1656</v>
@@ -14333,12 +14339,12 @@
         <v>1657</v>
       </c>
       <c r="B1046" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
       <c r="A1047" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="B1047" t="s">
         <v>1659</v>
@@ -14413,12 +14419,12 @@
         <v>1676</v>
       </c>
       <c r="B1056" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
       <c r="A1057" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="B1057" t="s">
         <v>1678</v>
@@ -14509,20 +14515,20 @@
         <v>1699</v>
       </c>
       <c r="B1068" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="B1069" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
       <c r="A1070" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="B1070" t="s">
         <v>1702</v>
@@ -14533,28 +14539,28 @@
         <v>1703</v>
       </c>
       <c r="B1071" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="B1072" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="B1073" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
       <c r="A1074" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="B1074" t="s">
         <v>1707</v>
@@ -14565,12 +14571,12 @@
         <v>1708</v>
       </c>
       <c r="B1075" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="B1076" t="s">
         <v>1710</v>
@@ -14589,12 +14595,12 @@
         <v>1713</v>
       </c>
       <c r="B1078" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="B1079" t="s">
         <v>1715</v>
@@ -14605,12 +14611,12 @@
         <v>1716</v>
       </c>
       <c r="B1080" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="B1081" t="s">
         <v>1718</v>
@@ -14621,12 +14627,12 @@
         <v>1719</v>
       </c>
       <c r="B1082" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
       <c r="A1083" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="B1083" t="s">
         <v>1721</v>
@@ -14669,12 +14675,12 @@
         <v>1730</v>
       </c>
       <c r="B1088" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
       <c r="A1089" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="B1089" t="s">
         <v>1732</v>
@@ -14717,12 +14723,12 @@
         <v>1741</v>
       </c>
       <c r="B1094" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
       <c r="A1095" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="B1095" t="s">
         <v>1743</v>
@@ -14741,12 +14747,12 @@
         <v>1746</v>
       </c>
       <c r="B1097" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
       <c r="A1098" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="B1098" t="s">
         <v>1748</v>
@@ -14757,20 +14763,20 @@
         <v>1749</v>
       </c>
       <c r="B1099" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="B1100" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B1101" t="s">
         <v>1752</v>
@@ -14789,12 +14795,12 @@
         <v>1755</v>
       </c>
       <c r="B1103" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="B1104" t="s">
         <v>1757</v>
@@ -14805,12 +14811,12 @@
         <v>1758</v>
       </c>
       <c r="B1105" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="B1106" t="s">
         <v>1760</v>
@@ -14821,12 +14827,12 @@
         <v>1761</v>
       </c>
       <c r="B1107" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="B1108" t="s">
         <v>1763</v>
@@ -14869,20 +14875,20 @@
         <v>1772</v>
       </c>
       <c r="B1113" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
       <c r="A1114" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="B1114" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
       <c r="A1115" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="B1115" t="s">
         <v>1775</v>
@@ -14981,44 +14987,44 @@
         <v>1798</v>
       </c>
       <c r="B1127" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="B1128" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="B1129" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="B1130" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="B1131" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="B1132" t="s">
         <v>1804</v>
@@ -15037,28 +15043,28 @@
         <v>1807</v>
       </c>
       <c r="B1134" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="B1135" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="B1136" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="B1137" t="s">
         <v>1811</v>
@@ -15125,12 +15131,12 @@
         <v>1826</v>
       </c>
       <c r="B1145" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
       <c r="A1146" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="B1146" t="s">
         <v>1828</v>
@@ -15141,12 +15147,12 @@
         <v>1829</v>
       </c>
       <c r="B1147" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
       <c r="A1148" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="B1148" t="s">
         <v>1831</v>
@@ -15181,44 +15187,44 @@
         <v>1838</v>
       </c>
       <c r="B1152" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
       <c r="A1153" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="B1153" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="B1154" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="B1155" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="B1156" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="B1157" t="s">
         <v>1844</v>
@@ -15237,20 +15243,20 @@
         <v>1847</v>
       </c>
       <c r="B1159" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="B1160" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="B1161" t="s">
         <v>1850</v>
@@ -15261,36 +15267,36 @@
         <v>1851</v>
       </c>
       <c r="B1162" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="B1163" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="B1164" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="B1165" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="B1166" t="s">
         <v>1856</v>
@@ -15325,11 +15331,19 @@
         <v>1863</v>
       </c>
       <c r="B1170" t="s">
-        <v>1863</v>
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:2">
+      <c r="A1171" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>1865</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1170"/>
+  <autoFilter ref="A1:B1171"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/el/headTags.xlsx
+++ b/lang/el/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1172</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1173</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1870">
   <si>
     <t>en</t>
   </si>
@@ -3566,6 +3566,12 @@
   </si>
   <si>
     <t>Mortal Kombat</t>
+  </si>
+  <si>
+    <t>Mounts of Mayhem</t>
+  </si>
+  <si>
+    <t>Τα βουνά του χάους</t>
   </si>
   <si>
     <t>Mouthwashing</t>
@@ -5967,7 +5973,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1172"/>
+  <dimension ref="A1:B1173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -11913,36 +11919,36 @@
         <v>1185</v>
       </c>
       <c r="B742" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="B743" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="B744" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B745" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B746" t="s">
         <v>1190</v>
@@ -12001,20 +12007,20 @@
         <v>1203</v>
       </c>
       <c r="B753" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="754" spans="1:2">
       <c r="A754" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="B754" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="B755" t="s">
         <v>1206</v>
@@ -12033,12 +12039,12 @@
         <v>1209</v>
       </c>
       <c r="B757" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="B758" t="s">
         <v>1211</v>
@@ -12049,20 +12055,20 @@
         <v>1212</v>
       </c>
       <c r="B759" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B760" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B761" t="s">
         <v>1215</v>
@@ -12105,12 +12111,12 @@
         <v>1224</v>
       </c>
       <c r="B766" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B767" t="s">
         <v>1226</v>
@@ -12145,12 +12151,12 @@
         <v>1233</v>
       </c>
       <c r="B771" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="B772" t="s">
         <v>1235</v>
@@ -12217,28 +12223,28 @@
         <v>1250</v>
       </c>
       <c r="B780" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="B781" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="B782" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B783" t="s">
         <v>1254</v>
@@ -12257,12 +12263,12 @@
         <v>1257</v>
       </c>
       <c r="B785" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="B786" t="s">
         <v>1259</v>
@@ -12273,60 +12279,60 @@
         <v>1260</v>
       </c>
       <c r="B787" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="B788" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="B789" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="B790" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="B791" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="B792" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="B793" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="B794" t="s">
         <v>1268</v>
@@ -12345,12 +12351,12 @@
         <v>1271</v>
       </c>
       <c r="B796" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B797" t="s">
         <v>1273</v>
@@ -12401,36 +12407,36 @@
         <v>1284</v>
       </c>
       <c r="B803" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="804" spans="1:2">
       <c r="A804" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="B804" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="B805" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="B806" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="B807" t="s">
         <v>1289</v>
@@ -12473,20 +12479,20 @@
         <v>1298</v>
       </c>
       <c r="B812" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="813" spans="1:2">
       <c r="A813" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="B813" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="814" spans="1:2">
       <c r="A814" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="B814" t="s">
         <v>1301</v>
@@ -12505,44 +12511,44 @@
         <v>1304</v>
       </c>
       <c r="B816" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="817" spans="1:2">
       <c r="A817" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="B817" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="818" spans="1:2">
       <c r="A818" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="B818" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="B819" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="820" spans="1:2">
       <c r="A820" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="B820" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="821" spans="1:2">
       <c r="A821" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="B821" t="s">
         <v>1310</v>
@@ -12553,12 +12559,12 @@
         <v>1311</v>
       </c>
       <c r="B822" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="823" spans="1:2">
       <c r="A823" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="B823" t="s">
         <v>1313</v>
@@ -12577,20 +12583,20 @@
         <v>1316</v>
       </c>
       <c r="B825" t="s">
-        <v>718</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="826" spans="1:2">
       <c r="A826" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B826" t="s">
-        <v>1317</v>
+        <v>718</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="B827" t="s">
         <v>1319</v>
@@ -12601,36 +12607,36 @@
         <v>1320</v>
       </c>
       <c r="B828" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="B829" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="B830" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B831" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="B832" t="s">
         <v>1325</v>
@@ -12697,100 +12703,100 @@
         <v>1340</v>
       </c>
       <c r="B840" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="B841" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="B842" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="B843" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="B844" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="845" spans="1:2">
       <c r="A845" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="B845" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="846" spans="1:2">
       <c r="A846" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B846" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="847" spans="1:2">
       <c r="A847" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="B847" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="848" spans="1:2">
       <c r="A848" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="B848" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="849" spans="1:2">
       <c r="A849" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="B849" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="850" spans="1:2">
       <c r="A850" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B850" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="851" spans="1:2">
       <c r="A851" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="B851" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="852" spans="1:2">
       <c r="A852" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B852" t="s">
         <v>1353</v>
@@ -12825,20 +12831,20 @@
         <v>1360</v>
       </c>
       <c r="B856" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="857" spans="1:2">
       <c r="A857" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="B857" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="858" spans="1:2">
       <c r="A858" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="B858" t="s">
         <v>1363</v>
@@ -12849,28 +12855,28 @@
         <v>1364</v>
       </c>
       <c r="B859" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="B860" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="B861" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="B862" t="s">
         <v>1368</v>
@@ -12889,28 +12895,28 @@
         <v>1371</v>
       </c>
       <c r="B864" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="865" spans="1:2">
       <c r="A865" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="B865" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="866" spans="1:2">
       <c r="A866" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="B866" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="B867" t="s">
         <v>1375</v>
@@ -12985,12 +12991,12 @@
         <v>1392</v>
       </c>
       <c r="B876" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="B877" t="s">
         <v>1394</v>
@@ -13017,20 +13023,20 @@
         <v>1399</v>
       </c>
       <c r="B880" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="881" spans="1:2">
       <c r="A881" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="B881" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="B882" t="s">
         <v>1402</v>
@@ -13041,28 +13047,28 @@
         <v>1403</v>
       </c>
       <c r="B883" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="884" spans="1:2">
       <c r="A884" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="B884" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="885" spans="1:2">
       <c r="A885" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="B885" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B886" t="s">
         <v>1407</v>
@@ -13073,12 +13079,12 @@
         <v>1408</v>
       </c>
       <c r="B887" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B888" t="s">
         <v>1410</v>
@@ -13089,12 +13095,12 @@
         <v>1411</v>
       </c>
       <c r="B889" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="890" spans="1:2">
       <c r="A890" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="B890" t="s">
         <v>1413</v>
@@ -13121,20 +13127,20 @@
         <v>1418</v>
       </c>
       <c r="B893" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="894" spans="1:2">
       <c r="A894" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="B894" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="895" spans="1:2">
       <c r="A895" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="B895" t="s">
         <v>1421</v>
@@ -13153,12 +13159,12 @@
         <v>1424</v>
       </c>
       <c r="B897" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="898" spans="1:2">
       <c r="A898" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="B898" t="s">
         <v>1426</v>
@@ -13185,12 +13191,12 @@
         <v>1431</v>
       </c>
       <c r="B901" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="902" spans="1:2">
       <c r="A902" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="B902" t="s">
         <v>1433</v>
@@ -13201,20 +13207,20 @@
         <v>1434</v>
       </c>
       <c r="B903" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="B904" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="B905" t="s">
         <v>1437</v>
@@ -13225,20 +13231,20 @@
         <v>1438</v>
       </c>
       <c r="B906" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="B907" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="B908" t="s">
         <v>1441</v>
@@ -13265,28 +13271,28 @@
         <v>1446</v>
       </c>
       <c r="B911" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="912" spans="1:2">
       <c r="A912" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="B912" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="B913" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="B914" t="s">
         <v>1450</v>
@@ -13305,12 +13311,12 @@
         <v>1453</v>
       </c>
       <c r="B916" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="917" spans="1:2">
       <c r="A917" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="B917" t="s">
         <v>1455</v>
@@ -13329,20 +13335,20 @@
         <v>1458</v>
       </c>
       <c r="B919" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="920" spans="1:2">
       <c r="A920" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="B920" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="B921" t="s">
         <v>1461</v>
@@ -13377,12 +13383,12 @@
         <v>1468</v>
       </c>
       <c r="B925" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="926" spans="1:2">
       <c r="A926" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="B926" t="s">
         <v>1470</v>
@@ -13393,28 +13399,28 @@
         <v>1471</v>
       </c>
       <c r="B927" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="928" spans="1:2">
       <c r="A928" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="B928" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="929" spans="1:2">
       <c r="A929" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="B929" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="B930" t="s">
         <v>1475</v>
@@ -13441,12 +13447,12 @@
         <v>1480</v>
       </c>
       <c r="B933" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="934" spans="1:2">
       <c r="A934" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="B934" t="s">
         <v>1482</v>
@@ -13489,20 +13495,20 @@
         <v>1491</v>
       </c>
       <c r="B939" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="B940" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="B941" t="s">
         <v>1494</v>
@@ -13521,12 +13527,12 @@
         <v>1497</v>
       </c>
       <c r="B943" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="944" spans="1:2">
       <c r="A944" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="B944" t="s">
         <v>1499</v>
@@ -13537,36 +13543,36 @@
         <v>1500</v>
       </c>
       <c r="B945" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="B946" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="B947" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="B948" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="B949" t="s">
         <v>1505</v>
@@ -13601,20 +13607,20 @@
         <v>1512</v>
       </c>
       <c r="B953" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="954" spans="1:2">
       <c r="A954" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="B954" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="955" spans="1:2">
       <c r="A955" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="B955" t="s">
         <v>1515</v>
@@ -13649,12 +13655,12 @@
         <v>1522</v>
       </c>
       <c r="B959" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="960" spans="1:2">
       <c r="A960" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B960" t="s">
         <v>1524</v>
@@ -13665,28 +13671,28 @@
         <v>1525</v>
       </c>
       <c r="B961" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="962" spans="1:2">
       <c r="A962" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="B962" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="B963" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="B964" t="s">
         <v>1529</v>
@@ -13745,12 +13751,12 @@
         <v>1542</v>
       </c>
       <c r="B971" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="972" spans="1:2">
       <c r="A972" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="B972" t="s">
         <v>1544</v>
@@ -13761,12 +13767,12 @@
         <v>1545</v>
       </c>
       <c r="B973" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="974" spans="1:2">
       <c r="A974" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="B974" t="s">
         <v>1547</v>
@@ -13785,20 +13791,20 @@
         <v>1550</v>
       </c>
       <c r="B976" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="977" spans="1:2">
       <c r="A977" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="B977" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="978" spans="1:2">
       <c r="A978" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="B978" t="s">
         <v>1553</v>
@@ -13817,28 +13823,28 @@
         <v>1556</v>
       </c>
       <c r="B980" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="981" spans="1:2">
       <c r="A981" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="B981" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B982" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="B983" t="s">
         <v>1560</v>
@@ -13897,12 +13903,12 @@
         <v>1573</v>
       </c>
       <c r="B990" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="991" spans="1:2">
       <c r="A991" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="B991" t="s">
         <v>1575</v>
@@ -13921,28 +13927,28 @@
         <v>1578</v>
       </c>
       <c r="B993" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="994" spans="1:2">
       <c r="A994" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="B994" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="B995" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="B996" t="s">
         <v>1582</v>
@@ -13977,36 +13983,36 @@
         <v>1589</v>
       </c>
       <c r="B1000" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
       <c r="A1001" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="B1001" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="B1002" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="B1003" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="B1004" t="s">
         <v>1594</v>
@@ -14017,36 +14023,36 @@
         <v>1595</v>
       </c>
       <c r="B1005" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B1006" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="B1007" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="B1008" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="B1009" t="s">
         <v>1600</v>
@@ -14065,12 +14071,12 @@
         <v>1603</v>
       </c>
       <c r="B1011" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
       <c r="A1012" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="B1012" t="s">
         <v>1605</v>
@@ -14081,20 +14087,20 @@
         <v>1606</v>
       </c>
       <c r="B1013" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="B1014" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="B1015" t="s">
         <v>1609</v>
@@ -14113,12 +14119,12 @@
         <v>1612</v>
       </c>
       <c r="B1017" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
       <c r="A1018" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="B1018" t="s">
         <v>1614</v>
@@ -14145,12 +14151,12 @@
         <v>1619</v>
       </c>
       <c r="B1021" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
       <c r="A1022" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="B1022" t="s">
         <v>1621</v>
@@ -14161,36 +14167,36 @@
         <v>1622</v>
       </c>
       <c r="B1023" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="B1024" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="B1025" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="B1026" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="B1027" t="s">
         <v>1627</v>
@@ -14201,36 +14207,36 @@
         <v>1628</v>
       </c>
       <c r="B1028" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B1029" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="B1030" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="B1031" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="B1032" t="s">
         <v>1633</v>
@@ -14249,12 +14255,12 @@
         <v>1636</v>
       </c>
       <c r="B1034" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
       <c r="A1035" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="B1035" t="s">
         <v>1638</v>
@@ -14337,12 +14343,12 @@
         <v>1657</v>
       </c>
       <c r="B1045" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
       <c r="A1046" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="B1046" t="s">
         <v>1659</v>
@@ -14353,12 +14359,12 @@
         <v>1660</v>
       </c>
       <c r="B1047" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
       <c r="A1048" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="B1048" t="s">
         <v>1662</v>
@@ -14433,12 +14439,12 @@
         <v>1679</v>
       </c>
       <c r="B1057" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
       <c r="A1058" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="B1058" t="s">
         <v>1681</v>
@@ -14529,20 +14535,20 @@
         <v>1702</v>
       </c>
       <c r="B1069" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
       <c r="A1070" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="B1070" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="B1071" t="s">
         <v>1705</v>
@@ -14553,28 +14559,28 @@
         <v>1706</v>
       </c>
       <c r="B1072" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="B1073" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
       <c r="A1074" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="B1074" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="B1075" t="s">
         <v>1710</v>
@@ -14585,12 +14591,12 @@
         <v>1711</v>
       </c>
       <c r="B1076" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="B1077" t="s">
         <v>1713</v>
@@ -14609,12 +14615,12 @@
         <v>1716</v>
       </c>
       <c r="B1079" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
       <c r="A1080" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="B1080" t="s">
         <v>1718</v>
@@ -14625,12 +14631,12 @@
         <v>1719</v>
       </c>
       <c r="B1081" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="B1082" t="s">
         <v>1721</v>
@@ -14641,12 +14647,12 @@
         <v>1722</v>
       </c>
       <c r="B1083" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
       <c r="A1084" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="B1084" t="s">
         <v>1724</v>
@@ -14689,12 +14695,12 @@
         <v>1733</v>
       </c>
       <c r="B1089" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
       <c r="A1090" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="B1090" t="s">
         <v>1735</v>
@@ -14737,12 +14743,12 @@
         <v>1744</v>
       </c>
       <c r="B1095" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
       <c r="A1096" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="B1096" t="s">
         <v>1746</v>
@@ -14761,12 +14767,12 @@
         <v>1749</v>
       </c>
       <c r="B1098" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
       <c r="A1099" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="B1099" t="s">
         <v>1751</v>
@@ -14777,20 +14783,20 @@
         <v>1752</v>
       </c>
       <c r="B1100" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="B1101" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="B1102" t="s">
         <v>1755</v>
@@ -14809,12 +14815,12 @@
         <v>1758</v>
       </c>
       <c r="B1104" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="B1105" t="s">
         <v>1760</v>
@@ -14825,12 +14831,12 @@
         <v>1761</v>
       </c>
       <c r="B1106" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="B1107" t="s">
         <v>1763</v>
@@ -14841,12 +14847,12 @@
         <v>1764</v>
       </c>
       <c r="B1108" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
       <c r="A1109" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="B1109" t="s">
         <v>1766</v>
@@ -14889,20 +14895,20 @@
         <v>1775</v>
       </c>
       <c r="B1114" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
       <c r="A1115" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="B1115" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
       <c r="A1116" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="B1116" t="s">
         <v>1778</v>
@@ -15001,44 +15007,44 @@
         <v>1801</v>
       </c>
       <c r="B1128" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="B1129" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="B1130" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="B1131" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="B1132" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="B1133" t="s">
         <v>1807</v>
@@ -15057,28 +15063,28 @@
         <v>1810</v>
       </c>
       <c r="B1135" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="B1136" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="B1137" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="B1138" t="s">
         <v>1814</v>
@@ -15145,12 +15151,12 @@
         <v>1829</v>
       </c>
       <c r="B1146" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="B1147" t="s">
         <v>1831</v>
@@ -15161,12 +15167,12 @@
         <v>1832</v>
       </c>
       <c r="B1148" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
       <c r="A1149" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="B1149" t="s">
         <v>1834</v>
@@ -15201,44 +15207,44 @@
         <v>1841</v>
       </c>
       <c r="B1153" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="B1154" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="B1155" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="B1156" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="B1157" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="B1158" t="s">
         <v>1847</v>
@@ -15257,20 +15263,20 @@
         <v>1850</v>
       </c>
       <c r="B1160" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="B1161" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="B1162" t="s">
         <v>1853</v>
@@ -15281,36 +15287,36 @@
         <v>1854</v>
       </c>
       <c r="B1163" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="B1164" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="B1165" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="B1166" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="B1167" t="s">
         <v>1859</v>
@@ -15345,19 +15351,27 @@
         <v>1866</v>
       </c>
       <c r="B1171" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
       <c r="A1172" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B1172" t="s">
-        <v>1867</v>
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:2">
+      <c r="A1173" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>1869</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1172"/>
+  <autoFilter ref="A1:B1173"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/el/headTags.xlsx
+++ b/lang/el/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1173</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1174</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1872">
   <si>
     <t>en</t>
   </si>
@@ -1952,6 +1952,12 @@
   </si>
   <si>
     <t>Γραμματοσειρά (Rainbow)</t>
+  </si>
+  <si>
+    <t>Font (Red Chiseled Sandstone)</t>
+  </si>
+  <si>
+    <t>Γραμματοσειρά (Κόκκινος σμιλευμένος ψαμμίτης)</t>
   </si>
   <si>
     <t>Font (Red)</t>
@@ -5973,7 +5979,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1173"/>
+  <dimension ref="A1:B1174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -9415,20 +9421,20 @@
         <v>671</v>
       </c>
       <c r="B429" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B430" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B431" t="s">
         <v>674</v>
@@ -9439,20 +9445,20 @@
         <v>675</v>
       </c>
       <c r="B432" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B433" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B434" t="s">
         <v>678</v>
@@ -9527,12 +9533,12 @@
         <v>695</v>
       </c>
       <c r="B443" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B444" t="s">
         <v>697</v>
@@ -9543,12 +9549,12 @@
         <v>698</v>
       </c>
       <c r="B445" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B446" t="s">
         <v>700</v>
@@ -9559,12 +9565,12 @@
         <v>701</v>
       </c>
       <c r="B447" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B448" t="s">
         <v>703</v>
@@ -9575,12 +9581,12 @@
         <v>704</v>
       </c>
       <c r="B449" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B450" t="s">
         <v>706</v>
@@ -9599,20 +9605,20 @@
         <v>709</v>
       </c>
       <c r="B452" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B453" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B454" t="s">
         <v>712</v>
@@ -9671,28 +9677,28 @@
         <v>725</v>
       </c>
       <c r="B461" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B462" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B463" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B464" t="s">
         <v>729</v>
@@ -9703,12 +9709,12 @@
         <v>730</v>
       </c>
       <c r="B465" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B466" t="s">
         <v>732</v>
@@ -9719,47 +9725,47 @@
         <v>733</v>
       </c>
       <c r="B467" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B468" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B469" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B470" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B471" t="s">
-        <v>729</v>
+        <v>738</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B472" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -9767,12 +9773,12 @@
         <v>740</v>
       </c>
       <c r="B473" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B474" t="s">
         <v>742</v>
@@ -9783,12 +9789,12 @@
         <v>743</v>
       </c>
       <c r="B475" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B476" t="s">
         <v>745</v>
@@ -9807,12 +9813,12 @@
         <v>748</v>
       </c>
       <c r="B478" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B479" t="s">
         <v>750</v>
@@ -9823,12 +9829,12 @@
         <v>751</v>
       </c>
       <c r="B480" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B481" t="s">
         <v>753</v>
@@ -9847,12 +9853,12 @@
         <v>756</v>
       </c>
       <c r="B483" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B484" t="s">
         <v>758</v>
@@ -9863,20 +9869,20 @@
         <v>759</v>
       </c>
       <c r="B485" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B486" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B487" t="s">
         <v>762</v>
@@ -9887,12 +9893,12 @@
         <v>763</v>
       </c>
       <c r="B488" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B489" t="s">
         <v>765</v>
@@ -10047,12 +10053,12 @@
         <v>802</v>
       </c>
       <c r="B508" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B509" t="s">
         <v>804</v>
@@ -10071,12 +10077,12 @@
         <v>807</v>
       </c>
       <c r="B511" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B512" t="s">
         <v>809</v>
@@ -10087,12 +10093,12 @@
         <v>810</v>
       </c>
       <c r="B513" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B514" t="s">
         <v>812</v>
@@ -10223,12 +10229,12 @@
         <v>843</v>
       </c>
       <c r="B530" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B531" t="s">
         <v>845</v>
@@ -10247,20 +10253,20 @@
         <v>848</v>
       </c>
       <c r="B533" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B534" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B535" t="s">
         <v>851</v>
@@ -10279,28 +10285,28 @@
         <v>854</v>
       </c>
       <c r="B537" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B538" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B539" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B540" t="s">
         <v>858</v>
@@ -10319,12 +10325,12 @@
         <v>861</v>
       </c>
       <c r="B542" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B543" t="s">
         <v>863</v>
@@ -10335,12 +10341,12 @@
         <v>864</v>
       </c>
       <c r="B544" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B545" t="s">
         <v>866</v>
@@ -10359,36 +10365,36 @@
         <v>869</v>
       </c>
       <c r="B547" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B548" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B549" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B550" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B551" t="s">
         <v>874</v>
@@ -10407,20 +10413,20 @@
         <v>877</v>
       </c>
       <c r="B553" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B554" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B555" t="s">
         <v>880</v>
@@ -10471,28 +10477,28 @@
         <v>891</v>
       </c>
       <c r="B561" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B562" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B563" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B564" t="s">
         <v>895</v>
@@ -10559,52 +10565,52 @@
         <v>910</v>
       </c>
       <c r="B572" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B573" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B574" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B575" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B576" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B577" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B578" t="s">
         <v>917</v>
@@ -10631,12 +10637,12 @@
         <v>922</v>
       </c>
       <c r="B581" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B582" t="s">
         <v>924</v>
@@ -10647,12 +10653,12 @@
         <v>925</v>
       </c>
       <c r="B583" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B584" t="s">
         <v>927</v>
@@ -10679,12 +10685,12 @@
         <v>932</v>
       </c>
       <c r="B587" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B588" t="s">
         <v>934</v>
@@ -10711,12 +10717,12 @@
         <v>939</v>
       </c>
       <c r="B591" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B592" t="s">
         <v>941</v>
@@ -10783,20 +10789,20 @@
         <v>956</v>
       </c>
       <c r="B600" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B601" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B602" t="s">
         <v>959</v>
@@ -10855,20 +10861,20 @@
         <v>972</v>
       </c>
       <c r="B609" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B610" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B611" t="s">
         <v>975</v>
@@ -10887,12 +10893,12 @@
         <v>978</v>
       </c>
       <c r="B613" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B614" t="s">
         <v>980</v>
@@ -10959,28 +10965,28 @@
         <v>995</v>
       </c>
       <c r="B622" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B623" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B624" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B625" t="s">
         <v>999</v>
@@ -10999,36 +11005,36 @@
         <v>1002</v>
       </c>
       <c r="B627" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B628" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B629" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B630" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B631" t="s">
         <v>1007</v>
@@ -11039,52 +11045,52 @@
         <v>1008</v>
       </c>
       <c r="B632" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B633" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B634" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B635" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B636" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B637" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B638" t="s">
         <v>1015</v>
@@ -11095,36 +11101,36 @@
         <v>1016</v>
       </c>
       <c r="B639" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B640" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B641" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B642" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B643" t="s">
         <v>1021</v>
@@ -11159,28 +11165,28 @@
         <v>1028</v>
       </c>
       <c r="B647" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B648" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B649" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B650" t="s">
         <v>1032</v>
@@ -11191,12 +11197,12 @@
         <v>1033</v>
       </c>
       <c r="B651" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B652" t="s">
         <v>1035</v>
@@ -11223,12 +11229,12 @@
         <v>1040</v>
       </c>
       <c r="B655" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B656" t="s">
         <v>1042</v>
@@ -11303,12 +11309,12 @@
         <v>1059</v>
       </c>
       <c r="B665" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B666" t="s">
         <v>1061</v>
@@ -11319,12 +11325,12 @@
         <v>1062</v>
       </c>
       <c r="B667" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B668" t="s">
         <v>1064</v>
@@ -11343,12 +11349,12 @@
         <v>1067</v>
       </c>
       <c r="B670" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B671" t="s">
         <v>1069</v>
@@ -11359,20 +11365,20 @@
         <v>1070</v>
       </c>
       <c r="B672" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="673" spans="1:2">
       <c r="A673" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B673" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B674" t="s">
         <v>1073</v>
@@ -11391,12 +11397,12 @@
         <v>1076</v>
       </c>
       <c r="B676" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B677" t="s">
         <v>1078</v>
@@ -11423,20 +11429,20 @@
         <v>1083</v>
       </c>
       <c r="B680" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B681" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B682" t="s">
         <v>1086</v>
@@ -11495,20 +11501,20 @@
         <v>1099</v>
       </c>
       <c r="B689" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B690" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B691" t="s">
         <v>1102</v>
@@ -11519,12 +11525,12 @@
         <v>1103</v>
       </c>
       <c r="B692" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B693" t="s">
         <v>1105</v>
@@ -11567,36 +11573,36 @@
         <v>1114</v>
       </c>
       <c r="B698" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="B699" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B700" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="B701" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B702" t="s">
         <v>1119</v>
@@ -11607,28 +11613,28 @@
         <v>1120</v>
       </c>
       <c r="B703" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B704" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B705" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B706" t="s">
         <v>1124</v>
@@ -11639,12 +11645,12 @@
         <v>1125</v>
       </c>
       <c r="B707" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="B708" t="s">
         <v>1127</v>
@@ -11655,12 +11661,12 @@
         <v>1128</v>
       </c>
       <c r="B709" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="B710" t="s">
         <v>1130</v>
@@ -11735,12 +11741,12 @@
         <v>1147</v>
       </c>
       <c r="B719" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="720" spans="1:2">
       <c r="A720" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B720" t="s">
         <v>1149</v>
@@ -11767,12 +11773,12 @@
         <v>1154</v>
       </c>
       <c r="B723" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="724" spans="1:2">
       <c r="A724" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="B724" t="s">
         <v>1156</v>
@@ -11815,12 +11821,12 @@
         <v>1165</v>
       </c>
       <c r="B729" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="B730" t="s">
         <v>1167</v>
@@ -11863,20 +11869,20 @@
         <v>1176</v>
       </c>
       <c r="B735" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="736" spans="1:2">
       <c r="A736" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="B736" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="B737" t="s">
         <v>1179</v>
@@ -11887,28 +11893,28 @@
         <v>1180</v>
       </c>
       <c r="B738" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B739" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="B740" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="B741" t="s">
         <v>1184</v>
@@ -11927,36 +11933,36 @@
         <v>1187</v>
       </c>
       <c r="B743" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B744" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B745" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="B746" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="B747" t="s">
         <v>1192</v>
@@ -12015,20 +12021,20 @@
         <v>1205</v>
       </c>
       <c r="B754" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="B755" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="756" spans="1:2">
       <c r="A756" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="B756" t="s">
         <v>1208</v>
@@ -12047,12 +12053,12 @@
         <v>1211</v>
       </c>
       <c r="B758" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="B759" t="s">
         <v>1213</v>
@@ -12063,20 +12069,20 @@
         <v>1214</v>
       </c>
       <c r="B760" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B761" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B762" t="s">
         <v>1217</v>
@@ -12119,12 +12125,12 @@
         <v>1226</v>
       </c>
       <c r="B767" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="768" spans="1:2">
       <c r="A768" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B768" t="s">
         <v>1228</v>
@@ -12159,12 +12165,12 @@
         <v>1235</v>
       </c>
       <c r="B772" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="B773" t="s">
         <v>1237</v>
@@ -12231,28 +12237,28 @@
         <v>1252</v>
       </c>
       <c r="B781" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B782" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="B783" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B784" t="s">
         <v>1256</v>
@@ -12271,12 +12277,12 @@
         <v>1259</v>
       </c>
       <c r="B786" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="787" spans="1:2">
       <c r="A787" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="B787" t="s">
         <v>1261</v>
@@ -12287,60 +12293,60 @@
         <v>1262</v>
       </c>
       <c r="B788" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="B789" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="B790" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="B791" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="B792" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="B793" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="B794" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="B795" t="s">
         <v>1270</v>
@@ -12359,12 +12365,12 @@
         <v>1273</v>
       </c>
       <c r="B797" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B798" t="s">
         <v>1275</v>
@@ -12415,36 +12421,36 @@
         <v>1286</v>
       </c>
       <c r="B804" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="B805" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="B806" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="B807" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="B808" t="s">
         <v>1291</v>
@@ -12487,20 +12493,20 @@
         <v>1300</v>
       </c>
       <c r="B813" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="814" spans="1:2">
       <c r="A814" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="B814" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="815" spans="1:2">
       <c r="A815" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="B815" t="s">
         <v>1303</v>
@@ -12519,44 +12525,44 @@
         <v>1306</v>
       </c>
       <c r="B817" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="818" spans="1:2">
       <c r="A818" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="B818" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="B819" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="820" spans="1:2">
       <c r="A820" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="B820" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="821" spans="1:2">
       <c r="A821" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="B821" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="822" spans="1:2">
       <c r="A822" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="B822" t="s">
         <v>1312</v>
@@ -12567,12 +12573,12 @@
         <v>1313</v>
       </c>
       <c r="B823" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="824" spans="1:2">
       <c r="A824" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="B824" t="s">
         <v>1315</v>
@@ -12591,20 +12597,20 @@
         <v>1318</v>
       </c>
       <c r="B826" t="s">
-        <v>718</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="B827" t="s">
-        <v>1319</v>
+        <v>720</v>
       </c>
     </row>
     <row r="828" spans="1:2">
       <c r="A828" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="B828" t="s">
         <v>1321</v>
@@ -12615,36 +12621,36 @@
         <v>1322</v>
       </c>
       <c r="B829" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B830" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="B831" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="B832" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="B833" t="s">
         <v>1327</v>
@@ -12711,100 +12717,100 @@
         <v>1342</v>
       </c>
       <c r="B841" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="B842" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="B843" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="B844" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="845" spans="1:2">
       <c r="A845" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B845" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="846" spans="1:2">
       <c r="A846" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="B846" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="847" spans="1:2">
       <c r="A847" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="B847" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="848" spans="1:2">
       <c r="A848" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="B848" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="849" spans="1:2">
       <c r="A849" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B849" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="850" spans="1:2">
       <c r="A850" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="B850" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="851" spans="1:2">
       <c r="A851" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B851" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="852" spans="1:2">
       <c r="A852" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="B852" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="853" spans="1:2">
       <c r="A853" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="B853" t="s">
         <v>1355</v>
@@ -12839,20 +12845,20 @@
         <v>1362</v>
       </c>
       <c r="B857" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="858" spans="1:2">
       <c r="A858" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="B858" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="B859" t="s">
         <v>1365</v>
@@ -12863,28 +12869,28 @@
         <v>1366</v>
       </c>
       <c r="B860" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="B861" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="B862" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="B863" t="s">
         <v>1370</v>
@@ -12903,28 +12909,28 @@
         <v>1373</v>
       </c>
       <c r="B865" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="866" spans="1:2">
       <c r="A866" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="B866" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="B867" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="868" spans="1:2">
       <c r="A868" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="B868" t="s">
         <v>1377</v>
@@ -12999,12 +13005,12 @@
         <v>1394</v>
       </c>
       <c r="B877" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="878" spans="1:2">
       <c r="A878" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="B878" t="s">
         <v>1396</v>
@@ -13031,20 +13037,20 @@
         <v>1401</v>
       </c>
       <c r="B881" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="B882" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="883" spans="1:2">
       <c r="A883" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="B883" t="s">
         <v>1404</v>
@@ -13055,28 +13061,28 @@
         <v>1405</v>
       </c>
       <c r="B884" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="885" spans="1:2">
       <c r="A885" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B885" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="B886" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="887" spans="1:2">
       <c r="A887" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="B887" t="s">
         <v>1409</v>
@@ -13087,12 +13093,12 @@
         <v>1410</v>
       </c>
       <c r="B888" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="889" spans="1:2">
       <c r="A889" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="B889" t="s">
         <v>1412</v>
@@ -13103,12 +13109,12 @@
         <v>1413</v>
       </c>
       <c r="B890" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="891" spans="1:2">
       <c r="A891" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="B891" t="s">
         <v>1415</v>
@@ -13135,20 +13141,20 @@
         <v>1420</v>
       </c>
       <c r="B894" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="895" spans="1:2">
       <c r="A895" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="B895" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="896" spans="1:2">
       <c r="A896" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="B896" t="s">
         <v>1423</v>
@@ -13167,12 +13173,12 @@
         <v>1426</v>
       </c>
       <c r="B898" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="899" spans="1:2">
       <c r="A899" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="B899" t="s">
         <v>1428</v>
@@ -13199,12 +13205,12 @@
         <v>1433</v>
       </c>
       <c r="B902" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="903" spans="1:2">
       <c r="A903" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="B903" t="s">
         <v>1435</v>
@@ -13215,20 +13221,20 @@
         <v>1436</v>
       </c>
       <c r="B904" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="B905" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="B906" t="s">
         <v>1439</v>
@@ -13239,20 +13245,20 @@
         <v>1440</v>
       </c>
       <c r="B907" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="B908" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="909" spans="1:2">
       <c r="A909" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="B909" t="s">
         <v>1443</v>
@@ -13279,28 +13285,28 @@
         <v>1448</v>
       </c>
       <c r="B912" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="B913" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="B914" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="B915" t="s">
         <v>1452</v>
@@ -13319,12 +13325,12 @@
         <v>1455</v>
       </c>
       <c r="B917" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="918" spans="1:2">
       <c r="A918" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="B918" t="s">
         <v>1457</v>
@@ -13343,20 +13349,20 @@
         <v>1460</v>
       </c>
       <c r="B920" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="B921" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="922" spans="1:2">
       <c r="A922" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B922" t="s">
         <v>1463</v>
@@ -13391,12 +13397,12 @@
         <v>1470</v>
       </c>
       <c r="B926" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="927" spans="1:2">
       <c r="A927" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="B927" t="s">
         <v>1472</v>
@@ -13407,28 +13413,28 @@
         <v>1473</v>
       </c>
       <c r="B928" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="929" spans="1:2">
       <c r="A929" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="B929" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B930" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="931" spans="1:2">
       <c r="A931" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="B931" t="s">
         <v>1477</v>
@@ -13455,12 +13461,12 @@
         <v>1482</v>
       </c>
       <c r="B934" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="935" spans="1:2">
       <c r="A935" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="B935" t="s">
         <v>1484</v>
@@ -13503,20 +13509,20 @@
         <v>1493</v>
       </c>
       <c r="B940" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="B941" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="B942" t="s">
         <v>1496</v>
@@ -13535,12 +13541,12 @@
         <v>1499</v>
       </c>
       <c r="B944" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="B945" t="s">
         <v>1501</v>
@@ -13551,36 +13557,36 @@
         <v>1502</v>
       </c>
       <c r="B946" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="B947" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="B948" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="B949" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="950" spans="1:2">
       <c r="A950" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="B950" t="s">
         <v>1507</v>
@@ -13615,20 +13621,20 @@
         <v>1514</v>
       </c>
       <c r="B954" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="955" spans="1:2">
       <c r="A955" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="B955" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="B956" t="s">
         <v>1517</v>
@@ -13663,12 +13669,12 @@
         <v>1524</v>
       </c>
       <c r="B960" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="961" spans="1:2">
       <c r="A961" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B961" t="s">
         <v>1526</v>
@@ -13679,28 +13685,28 @@
         <v>1527</v>
       </c>
       <c r="B962" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="B963" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="B964" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="B965" t="s">
         <v>1531</v>
@@ -13759,12 +13765,12 @@
         <v>1544</v>
       </c>
       <c r="B972" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="973" spans="1:2">
       <c r="A973" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="B973" t="s">
         <v>1546</v>
@@ -13775,12 +13781,12 @@
         <v>1547</v>
       </c>
       <c r="B974" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="975" spans="1:2">
       <c r="A975" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="B975" t="s">
         <v>1549</v>
@@ -13799,20 +13805,20 @@
         <v>1552</v>
       </c>
       <c r="B977" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="978" spans="1:2">
       <c r="A978" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="B978" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="B979" t="s">
         <v>1555</v>
@@ -13831,28 +13837,28 @@
         <v>1558</v>
       </c>
       <c r="B981" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="B982" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="B983" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="B984" t="s">
         <v>1562</v>
@@ -13911,12 +13917,12 @@
         <v>1575</v>
       </c>
       <c r="B991" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="992" spans="1:2">
       <c r="A992" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="B992" t="s">
         <v>1577</v>
@@ -13935,28 +13941,28 @@
         <v>1580</v>
       </c>
       <c r="B994" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="B995" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="B996" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="997" spans="1:2">
       <c r="A997" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="B997" t="s">
         <v>1584</v>
@@ -13991,36 +13997,36 @@
         <v>1591</v>
       </c>
       <c r="B1001" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="B1002" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="B1003" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="B1004" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="B1005" t="s">
         <v>1596</v>
@@ -14031,36 +14037,36 @@
         <v>1597</v>
       </c>
       <c r="B1006" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="B1007" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="B1008" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="B1009" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="B1010" t="s">
         <v>1602</v>
@@ -14079,12 +14085,12 @@
         <v>1605</v>
       </c>
       <c r="B1012" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="B1013" t="s">
         <v>1607</v>
@@ -14095,20 +14101,20 @@
         <v>1608</v>
       </c>
       <c r="B1014" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="B1015" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="B1016" t="s">
         <v>1611</v>
@@ -14127,12 +14133,12 @@
         <v>1614</v>
       </c>
       <c r="B1018" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
       <c r="A1019" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="B1019" t="s">
         <v>1616</v>
@@ -14159,12 +14165,12 @@
         <v>1621</v>
       </c>
       <c r="B1022" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="B1023" t="s">
         <v>1623</v>
@@ -14175,36 +14181,36 @@
         <v>1624</v>
       </c>
       <c r="B1024" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="B1025" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="B1026" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="B1027" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B1028" t="s">
         <v>1629</v>
@@ -14215,36 +14221,36 @@
         <v>1630</v>
       </c>
       <c r="B1029" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="B1030" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="B1031" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="B1032" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="B1033" t="s">
         <v>1635</v>
@@ -14263,12 +14269,12 @@
         <v>1638</v>
       </c>
       <c r="B1035" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
       <c r="A1036" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="B1036" t="s">
         <v>1640</v>
@@ -14351,12 +14357,12 @@
         <v>1659</v>
       </c>
       <c r="B1046" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
       <c r="A1047" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="B1047" t="s">
         <v>1661</v>
@@ -14367,12 +14373,12 @@
         <v>1662</v>
       </c>
       <c r="B1048" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
       <c r="A1049" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B1049" t="s">
         <v>1664</v>
@@ -14447,12 +14453,12 @@
         <v>1681</v>
       </c>
       <c r="B1058" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
       <c r="A1059" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="B1059" t="s">
         <v>1683</v>
@@ -14543,20 +14549,20 @@
         <v>1704</v>
       </c>
       <c r="B1070" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="B1071" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="B1072" t="s">
         <v>1707</v>
@@ -14567,28 +14573,28 @@
         <v>1708</v>
       </c>
       <c r="B1073" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
       <c r="A1074" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="B1074" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="B1075" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="B1076" t="s">
         <v>1712</v>
@@ -14599,12 +14605,12 @@
         <v>1713</v>
       </c>
       <c r="B1077" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="B1078" t="s">
         <v>1715</v>
@@ -14623,12 +14629,12 @@
         <v>1718</v>
       </c>
       <c r="B1080" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="B1081" t="s">
         <v>1720</v>
@@ -14639,12 +14645,12 @@
         <v>1721</v>
       </c>
       <c r="B1082" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
       <c r="A1083" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="B1083" t="s">
         <v>1723</v>
@@ -14655,12 +14661,12 @@
         <v>1724</v>
       </c>
       <c r="B1084" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
       <c r="A1085" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B1085" t="s">
         <v>1726</v>
@@ -14703,12 +14709,12 @@
         <v>1735</v>
       </c>
       <c r="B1090" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="B1091" t="s">
         <v>1737</v>
@@ -14751,12 +14757,12 @@
         <v>1746</v>
       </c>
       <c r="B1096" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="B1097" t="s">
         <v>1748</v>
@@ -14775,12 +14781,12 @@
         <v>1751</v>
       </c>
       <c r="B1099" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="B1100" t="s">
         <v>1753</v>
@@ -14791,20 +14797,20 @@
         <v>1754</v>
       </c>
       <c r="B1101" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B1102" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="B1103" t="s">
         <v>1757</v>
@@ -14823,12 +14829,12 @@
         <v>1760</v>
       </c>
       <c r="B1105" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B1106" t="s">
         <v>1762</v>
@@ -14839,12 +14845,12 @@
         <v>1763</v>
       </c>
       <c r="B1107" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="B1108" t="s">
         <v>1765</v>
@@ -14855,12 +14861,12 @@
         <v>1766</v>
       </c>
       <c r="B1109" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="B1110" t="s">
         <v>1768</v>
@@ -14903,20 +14909,20 @@
         <v>1777</v>
       </c>
       <c r="B1115" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
       <c r="A1116" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="B1116" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
       <c r="A1117" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="B1117" t="s">
         <v>1780</v>
@@ -15015,44 +15021,44 @@
         <v>1803</v>
       </c>
       <c r="B1129" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="B1130" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="B1131" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="B1132" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="B1133" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="B1134" t="s">
         <v>1809</v>
@@ -15071,28 +15077,28 @@
         <v>1812</v>
       </c>
       <c r="B1136" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="B1137" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="B1138" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="B1139" t="s">
         <v>1816</v>
@@ -15159,12 +15165,12 @@
         <v>1831</v>
       </c>
       <c r="B1147" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
       <c r="A1148" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="B1148" t="s">
         <v>1833</v>
@@ -15175,12 +15181,12 @@
         <v>1834</v>
       </c>
       <c r="B1149" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="B1150" t="s">
         <v>1836</v>
@@ -15215,44 +15221,44 @@
         <v>1843</v>
       </c>
       <c r="B1154" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="B1155" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="B1156" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="B1157" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="B1158" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="B1159" t="s">
         <v>1849</v>
@@ -15271,20 +15277,20 @@
         <v>1852</v>
       </c>
       <c r="B1161" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="B1162" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="B1163" t="s">
         <v>1855</v>
@@ -15295,36 +15301,36 @@
         <v>1856</v>
       </c>
       <c r="B1164" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="B1165" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="B1166" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="B1167" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="B1168" t="s">
         <v>1861</v>
@@ -15359,19 +15365,27 @@
         <v>1868</v>
       </c>
       <c r="B1172" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="B1173" t="s">
-        <v>1869</v>
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:2">
+      <c r="A1174" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>1871</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1173"/>
+  <autoFilter ref="A1:B1174"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/el/headTags.xlsx
+++ b/lang/el/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1174</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1175</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1873">
   <si>
     <t>en</t>
   </si>
@@ -5276,6 +5276,9 @@
   </si>
   <si>
     <t>Δάσος λυκόφωτος</t>
+  </si>
+  <si>
+    <t>Twisted Wonderland</t>
   </si>
   <si>
     <t>Ultrakill</t>
@@ -5979,7 +5982,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1174"/>
+  <dimension ref="A1:B1175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -14797,12 +14800,12 @@
         <v>1754</v>
       </c>
       <c r="B1101" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B1102" t="s">
         <v>1756</v>
@@ -14821,20 +14824,20 @@
         <v>1758</v>
       </c>
       <c r="B1104" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B1105" t="s">
         <v>1760</v>
-      </c>
-      <c r="B1105" t="s">
-        <v>1761</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B1106" t="s">
         <v>1762</v>
@@ -14845,12 +14848,12 @@
         <v>1763</v>
       </c>
       <c r="B1107" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="B1108" t="s">
         <v>1765</v>
@@ -14861,12 +14864,12 @@
         <v>1766</v>
       </c>
       <c r="B1109" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="B1110" t="s">
         <v>1768</v>
@@ -14877,44 +14880,44 @@
         <v>1769</v>
       </c>
       <c r="B1111" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
       <c r="A1112" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B1112" t="s">
         <v>1771</v>
-      </c>
-      <c r="B1112" t="s">
-        <v>1772</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
       <c r="A1113" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B1113" t="s">
         <v>1773</v>
-      </c>
-      <c r="B1113" t="s">
-        <v>1774</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
       <c r="A1114" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B1114" t="s">
         <v>1775</v>
-      </c>
-      <c r="B1114" t="s">
-        <v>1776</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
       <c r="A1115" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B1115" t="s">
         <v>1777</v>
-      </c>
-      <c r="B1115" t="s">
-        <v>1778</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
       <c r="A1116" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="B1116" t="s">
         <v>1779</v>
@@ -14933,100 +14936,100 @@
         <v>1781</v>
       </c>
       <c r="B1118" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
       <c r="A1119" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B1119" t="s">
         <v>1783</v>
-      </c>
-      <c r="B1119" t="s">
-        <v>1784</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
       <c r="A1120" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B1120" t="s">
         <v>1785</v>
-      </c>
-      <c r="B1120" t="s">
-        <v>1786</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
       <c r="A1121" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B1121" t="s">
         <v>1787</v>
-      </c>
-      <c r="B1121" t="s">
-        <v>1788</v>
       </c>
     </row>
     <row r="1122" spans="1:2">
       <c r="A1122" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B1122" t="s">
         <v>1789</v>
-      </c>
-      <c r="B1122" t="s">
-        <v>1790</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
       <c r="A1123" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1123" t="s">
         <v>1791</v>
-      </c>
-      <c r="B1123" t="s">
-        <v>1792</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
       <c r="A1124" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B1124" t="s">
         <v>1793</v>
-      </c>
-      <c r="B1124" t="s">
-        <v>1794</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
       <c r="A1125" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B1125" t="s">
         <v>1795</v>
-      </c>
-      <c r="B1125" t="s">
-        <v>1796</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
       <c r="A1126" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B1126" t="s">
         <v>1797</v>
-      </c>
-      <c r="B1126" t="s">
-        <v>1798</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
       <c r="A1127" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1127" t="s">
         <v>1799</v>
-      </c>
-      <c r="B1127" t="s">
-        <v>1800</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1128" t="s">
         <v>1801</v>
-      </c>
-      <c r="B1128" t="s">
-        <v>1802</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B1129" t="s">
         <v>1803</v>
-      </c>
-      <c r="B1129" t="s">
-        <v>1804</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="B1130" t="s">
         <v>1805</v>
@@ -15069,20 +15072,20 @@
         <v>1810</v>
       </c>
       <c r="B1135" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B1136" t="s">
         <v>1812</v>
-      </c>
-      <c r="B1136" t="s">
-        <v>1813</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="B1137" t="s">
         <v>1814</v>
@@ -15109,68 +15112,68 @@
         <v>1817</v>
       </c>
       <c r="B1140" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B1141" t="s">
         <v>1819</v>
-      </c>
-      <c r="B1141" t="s">
-        <v>1820</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
       <c r="A1142" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B1142" t="s">
         <v>1821</v>
-      </c>
-      <c r="B1142" t="s">
-        <v>1822</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
       <c r="A1143" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B1143" t="s">
         <v>1823</v>
-      </c>
-      <c r="B1143" t="s">
-        <v>1824</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
       <c r="A1144" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B1144" t="s">
         <v>1825</v>
-      </c>
-      <c r="B1144" t="s">
-        <v>1826</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
       <c r="A1145" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B1145" t="s">
         <v>1827</v>
-      </c>
-      <c r="B1145" t="s">
-        <v>1828</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
       <c r="A1146" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B1146" t="s">
         <v>1829</v>
-      </c>
-      <c r="B1146" t="s">
-        <v>1830</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B1147" t="s">
         <v>1831</v>
-      </c>
-      <c r="B1147" t="s">
-        <v>1832</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
       <c r="A1148" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="B1148" t="s">
         <v>1833</v>
@@ -15181,12 +15184,12 @@
         <v>1834</v>
       </c>
       <c r="B1149" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="B1150" t="s">
         <v>1836</v>
@@ -15197,36 +15200,36 @@
         <v>1837</v>
       </c>
       <c r="B1151" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B1152" t="s">
         <v>1839</v>
-      </c>
-      <c r="B1152" t="s">
-        <v>1840</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
       <c r="A1153" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B1153" t="s">
         <v>1841</v>
-      </c>
-      <c r="B1153" t="s">
-        <v>1842</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B1154" t="s">
         <v>1843</v>
-      </c>
-      <c r="B1154" t="s">
-        <v>1844</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="B1155" t="s">
         <v>1845</v>
@@ -15269,20 +15272,20 @@
         <v>1850</v>
       </c>
       <c r="B1160" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B1161" t="s">
         <v>1852</v>
-      </c>
-      <c r="B1161" t="s">
-        <v>1853</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="B1162" t="s">
         <v>1854</v>
@@ -15301,12 +15304,12 @@
         <v>1856</v>
       </c>
       <c r="B1164" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="B1165" t="s">
         <v>1858</v>
@@ -15341,36 +15344,36 @@
         <v>1862</v>
       </c>
       <c r="B1169" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B1170" t="s">
         <v>1864</v>
-      </c>
-      <c r="B1170" t="s">
-        <v>1865</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
       <c r="A1171" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B1171" t="s">
         <v>1866</v>
-      </c>
-      <c r="B1171" t="s">
-        <v>1867</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
       <c r="A1172" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B1172" t="s">
         <v>1868</v>
-      </c>
-      <c r="B1172" t="s">
-        <v>1869</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B1173" t="s">
         <v>1870</v>
@@ -15384,8 +15387,16 @@
         <v>1871</v>
       </c>
     </row>
+    <row r="1175" spans="1:2">
+      <c r="A1175" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>1872</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1174"/>
+  <autoFilter ref="A1:B1175"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/el/headTags.xlsx
+++ b/lang/el/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1175</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1176</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1875">
   <si>
     <t>en</t>
   </si>
@@ -2798,6 +2798,12 @@
   </si>
   <si>
     <t>Hypixel (Μινιόν)</t>
+  </si>
+  <si>
+    <t>Hypixel (Mutations) Tag</t>
+  </si>
+  <si>
+    <t>Ετικέτα Hypixel (μεταλλάξεις)</t>
   </si>
   <si>
     <t>Hypixel (NPC)</t>
@@ -5982,7 +5988,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1175"/>
+  <dimension ref="A1:B1176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -10664,12 +10670,12 @@
         <v>927</v>
       </c>
       <c r="B584" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B585" t="s">
         <v>929</v>
@@ -10696,12 +10702,12 @@
         <v>934</v>
       </c>
       <c r="B588" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B589" t="s">
         <v>936</v>
@@ -10728,12 +10734,12 @@
         <v>941</v>
       </c>
       <c r="B592" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B593" t="s">
         <v>943</v>
@@ -10800,20 +10806,20 @@
         <v>958</v>
       </c>
       <c r="B601" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B602" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B603" t="s">
         <v>961</v>
@@ -10872,20 +10878,20 @@
         <v>974</v>
       </c>
       <c r="B610" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B611" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B612" t="s">
         <v>977</v>
@@ -10904,12 +10910,12 @@
         <v>980</v>
       </c>
       <c r="B614" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B615" t="s">
         <v>982</v>
@@ -10976,28 +10982,28 @@
         <v>997</v>
       </c>
       <c r="B623" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B624" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B625" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B626" t="s">
         <v>1001</v>
@@ -11016,36 +11022,36 @@
         <v>1004</v>
       </c>
       <c r="B628" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B629" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B630" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B631" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B632" t="s">
         <v>1009</v>
@@ -11056,52 +11062,52 @@
         <v>1010</v>
       </c>
       <c r="B633" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B634" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B635" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B636" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B637" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B638" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B639" t="s">
         <v>1017</v>
@@ -11112,36 +11118,36 @@
         <v>1018</v>
       </c>
       <c r="B640" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B641" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B642" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B643" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="644" spans="1:2">
       <c r="A644" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B644" t="s">
         <v>1023</v>
@@ -11176,28 +11182,28 @@
         <v>1030</v>
       </c>
       <c r="B648" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B649" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B650" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="651" spans="1:2">
       <c r="A651" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B651" t="s">
         <v>1034</v>
@@ -11208,12 +11214,12 @@
         <v>1035</v>
       </c>
       <c r="B652" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B653" t="s">
         <v>1037</v>
@@ -11240,12 +11246,12 @@
         <v>1042</v>
       </c>
       <c r="B656" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B657" t="s">
         <v>1044</v>
@@ -11320,12 +11326,12 @@
         <v>1061</v>
       </c>
       <c r="B666" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B667" t="s">
         <v>1063</v>
@@ -11336,12 +11342,12 @@
         <v>1064</v>
       </c>
       <c r="B668" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B669" t="s">
         <v>1066</v>
@@ -11360,12 +11366,12 @@
         <v>1069</v>
       </c>
       <c r="B671" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B672" t="s">
         <v>1071</v>
@@ -11376,20 +11382,20 @@
         <v>1072</v>
       </c>
       <c r="B673" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B674" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B675" t="s">
         <v>1075</v>
@@ -11408,12 +11414,12 @@
         <v>1078</v>
       </c>
       <c r="B677" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B678" t="s">
         <v>1080</v>
@@ -11440,20 +11446,20 @@
         <v>1085</v>
       </c>
       <c r="B681" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B682" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B683" t="s">
         <v>1088</v>
@@ -11512,20 +11518,20 @@
         <v>1101</v>
       </c>
       <c r="B690" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B691" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="692" spans="1:2">
       <c r="A692" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B692" t="s">
         <v>1104</v>
@@ -11536,12 +11542,12 @@
         <v>1105</v>
       </c>
       <c r="B693" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="694" spans="1:2">
       <c r="A694" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B694" t="s">
         <v>1107</v>
@@ -11584,36 +11590,36 @@
         <v>1116</v>
       </c>
       <c r="B699" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="B700" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B701" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B702" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="703" spans="1:2">
       <c r="A703" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="B703" t="s">
         <v>1121</v>
@@ -11624,28 +11630,28 @@
         <v>1122</v>
       </c>
       <c r="B704" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B705" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B706" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B707" t="s">
         <v>1126</v>
@@ -11656,12 +11662,12 @@
         <v>1127</v>
       </c>
       <c r="B708" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B709" t="s">
         <v>1129</v>
@@ -11672,12 +11678,12 @@
         <v>1130</v>
       </c>
       <c r="B710" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="B711" t="s">
         <v>1132</v>
@@ -11752,12 +11758,12 @@
         <v>1149</v>
       </c>
       <c r="B720" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="721" spans="1:2">
       <c r="A721" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="B721" t="s">
         <v>1151</v>
@@ -11784,12 +11790,12 @@
         <v>1156</v>
       </c>
       <c r="B724" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="725" spans="1:2">
       <c r="A725" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="B725" t="s">
         <v>1158</v>
@@ -11832,12 +11838,12 @@
         <v>1167</v>
       </c>
       <c r="B730" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="731" spans="1:2">
       <c r="A731" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="B731" t="s">
         <v>1169</v>
@@ -11880,20 +11886,20 @@
         <v>1178</v>
       </c>
       <c r="B736" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="B737" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="B738" t="s">
         <v>1181</v>
@@ -11904,28 +11910,28 @@
         <v>1182</v>
       </c>
       <c r="B739" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="B740" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B741" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="B742" t="s">
         <v>1186</v>
@@ -11944,36 +11950,36 @@
         <v>1189</v>
       </c>
       <c r="B744" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="B745" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="B746" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B747" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="748" spans="1:2">
       <c r="A748" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B748" t="s">
         <v>1194</v>
@@ -12032,20 +12038,20 @@
         <v>1207</v>
       </c>
       <c r="B755" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="756" spans="1:2">
       <c r="A756" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="B756" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="757" spans="1:2">
       <c r="A757" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="B757" t="s">
         <v>1210</v>
@@ -12064,12 +12070,12 @@
         <v>1213</v>
       </c>
       <c r="B759" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B760" t="s">
         <v>1215</v>
@@ -12080,20 +12086,20 @@
         <v>1216</v>
       </c>
       <c r="B761" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B762" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B763" t="s">
         <v>1219</v>
@@ -12136,12 +12142,12 @@
         <v>1228</v>
       </c>
       <c r="B768" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="769" spans="1:2">
       <c r="A769" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B769" t="s">
         <v>1230</v>
@@ -12176,12 +12182,12 @@
         <v>1237</v>
       </c>
       <c r="B773" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="774" spans="1:2">
       <c r="A774" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="B774" t="s">
         <v>1239</v>
@@ -12248,28 +12254,28 @@
         <v>1254</v>
       </c>
       <c r="B782" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B783" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="B784" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="785" spans="1:2">
       <c r="A785" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="B785" t="s">
         <v>1258</v>
@@ -12288,12 +12294,12 @@
         <v>1261</v>
       </c>
       <c r="B787" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="B788" t="s">
         <v>1263</v>
@@ -12304,60 +12310,60 @@
         <v>1264</v>
       </c>
       <c r="B789" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="B790" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="B791" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="B792" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="B793" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="B794" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="B795" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="B796" t="s">
         <v>1272</v>
@@ -12376,12 +12382,12 @@
         <v>1275</v>
       </c>
       <c r="B798" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="799" spans="1:2">
       <c r="A799" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="B799" t="s">
         <v>1277</v>
@@ -12432,36 +12438,36 @@
         <v>1288</v>
       </c>
       <c r="B805" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="B806" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="B807" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="B808" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="809" spans="1:2">
       <c r="A809" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="B809" t="s">
         <v>1293</v>
@@ -12504,20 +12510,20 @@
         <v>1302</v>
       </c>
       <c r="B814" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="815" spans="1:2">
       <c r="A815" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="B815" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="816" spans="1:2">
       <c r="A816" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="B816" t="s">
         <v>1305</v>
@@ -12536,44 +12542,44 @@
         <v>1308</v>
       </c>
       <c r="B818" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="B819" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="820" spans="1:2">
       <c r="A820" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="B820" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="821" spans="1:2">
       <c r="A821" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="B821" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="822" spans="1:2">
       <c r="A822" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="B822" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="823" spans="1:2">
       <c r="A823" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="B823" t="s">
         <v>1314</v>
@@ -12584,12 +12590,12 @@
         <v>1315</v>
       </c>
       <c r="B824" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="825" spans="1:2">
       <c r="A825" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="B825" t="s">
         <v>1317</v>
@@ -12608,20 +12614,20 @@
         <v>1320</v>
       </c>
       <c r="B827" t="s">
-        <v>720</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="828" spans="1:2">
       <c r="A828" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="B828" t="s">
-        <v>1321</v>
+        <v>720</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="B829" t="s">
         <v>1323</v>
@@ -12632,36 +12638,36 @@
         <v>1324</v>
       </c>
       <c r="B830" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="B831" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="B832" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B833" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="834" spans="1:2">
       <c r="A834" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="B834" t="s">
         <v>1329</v>
@@ -12728,100 +12734,100 @@
         <v>1344</v>
       </c>
       <c r="B842" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="B843" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B844" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="845" spans="1:2">
       <c r="A845" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="B845" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="846" spans="1:2">
       <c r="A846" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="B846" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="847" spans="1:2">
       <c r="A847" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="B847" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="848" spans="1:2">
       <c r="A848" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B848" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="849" spans="1:2">
       <c r="A849" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="B849" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="850" spans="1:2">
       <c r="A850" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B850" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="851" spans="1:2">
       <c r="A851" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="B851" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="852" spans="1:2">
       <c r="A852" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="B852" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="853" spans="1:2">
       <c r="A853" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="B853" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="854" spans="1:2">
       <c r="A854" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="B854" t="s">
         <v>1357</v>
@@ -12856,20 +12862,20 @@
         <v>1364</v>
       </c>
       <c r="B858" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="B859" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="B860" t="s">
         <v>1367</v>
@@ -12880,28 +12886,28 @@
         <v>1368</v>
       </c>
       <c r="B861" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="B862" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="B863" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="864" spans="1:2">
       <c r="A864" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="B864" t="s">
         <v>1372</v>
@@ -12920,28 +12926,28 @@
         <v>1375</v>
       </c>
       <c r="B866" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="B867" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="868" spans="1:2">
       <c r="A868" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="B868" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="869" spans="1:2">
       <c r="A869" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="B869" t="s">
         <v>1379</v>
@@ -13016,12 +13022,12 @@
         <v>1396</v>
       </c>
       <c r="B878" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="879" spans="1:2">
       <c r="A879" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="B879" t="s">
         <v>1398</v>
@@ -13048,20 +13054,20 @@
         <v>1403</v>
       </c>
       <c r="B882" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="883" spans="1:2">
       <c r="A883" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="B883" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="884" spans="1:2">
       <c r="A884" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="B884" t="s">
         <v>1406</v>
@@ -13072,28 +13078,28 @@
         <v>1407</v>
       </c>
       <c r="B885" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="B886" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="887" spans="1:2">
       <c r="A887" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B887" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="B888" t="s">
         <v>1411</v>
@@ -13104,12 +13110,12 @@
         <v>1412</v>
       </c>
       <c r="B889" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="890" spans="1:2">
       <c r="A890" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="B890" t="s">
         <v>1414</v>
@@ -13120,12 +13126,12 @@
         <v>1415</v>
       </c>
       <c r="B891" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="892" spans="1:2">
       <c r="A892" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B892" t="s">
         <v>1417</v>
@@ -13152,20 +13158,20 @@
         <v>1422</v>
       </c>
       <c r="B895" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="896" spans="1:2">
       <c r="A896" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="B896" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="897" spans="1:2">
       <c r="A897" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="B897" t="s">
         <v>1425</v>
@@ -13184,12 +13190,12 @@
         <v>1428</v>
       </c>
       <c r="B899" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="900" spans="1:2">
       <c r="A900" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="B900" t="s">
         <v>1430</v>
@@ -13216,12 +13222,12 @@
         <v>1435</v>
       </c>
       <c r="B903" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="B904" t="s">
         <v>1437</v>
@@ -13232,20 +13238,20 @@
         <v>1438</v>
       </c>
       <c r="B905" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="B906" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="B907" t="s">
         <v>1441</v>
@@ -13256,20 +13262,20 @@
         <v>1442</v>
       </c>
       <c r="B908" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="909" spans="1:2">
       <c r="A909" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="B909" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="910" spans="1:2">
       <c r="A910" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="B910" t="s">
         <v>1445</v>
@@ -13296,28 +13302,28 @@
         <v>1450</v>
       </c>
       <c r="B913" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="B914" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="B915" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="916" spans="1:2">
       <c r="A916" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="B916" t="s">
         <v>1454</v>
@@ -13336,12 +13342,12 @@
         <v>1457</v>
       </c>
       <c r="B918" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="919" spans="1:2">
       <c r="A919" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="B919" t="s">
         <v>1459</v>
@@ -13360,20 +13366,20 @@
         <v>1462</v>
       </c>
       <c r="B921" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="922" spans="1:2">
       <c r="A922" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B922" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="923" spans="1:2">
       <c r="A923" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="B923" t="s">
         <v>1465</v>
@@ -13408,12 +13414,12 @@
         <v>1472</v>
       </c>
       <c r="B927" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="928" spans="1:2">
       <c r="A928" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="B928" t="s">
         <v>1474</v>
@@ -13424,28 +13430,28 @@
         <v>1475</v>
       </c>
       <c r="B929" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="B930" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="931" spans="1:2">
       <c r="A931" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="B931" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="932" spans="1:2">
       <c r="A932" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="B932" t="s">
         <v>1479</v>
@@ -13472,12 +13478,12 @@
         <v>1484</v>
       </c>
       <c r="B935" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="936" spans="1:2">
       <c r="A936" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="B936" t="s">
         <v>1486</v>
@@ -13520,20 +13526,20 @@
         <v>1495</v>
       </c>
       <c r="B941" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="B942" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="943" spans="1:2">
       <c r="A943" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="B943" t="s">
         <v>1498</v>
@@ -13552,12 +13558,12 @@
         <v>1501</v>
       </c>
       <c r="B945" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="B946" t="s">
         <v>1503</v>
@@ -13568,36 +13574,36 @@
         <v>1504</v>
       </c>
       <c r="B947" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="B948" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="B949" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="950" spans="1:2">
       <c r="A950" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="B950" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="951" spans="1:2">
       <c r="A951" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="B951" t="s">
         <v>1509</v>
@@ -13632,20 +13638,20 @@
         <v>1516</v>
       </c>
       <c r="B955" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="B956" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="957" spans="1:2">
       <c r="A957" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="B957" t="s">
         <v>1519</v>
@@ -13680,12 +13686,12 @@
         <v>1526</v>
       </c>
       <c r="B961" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="962" spans="1:2">
       <c r="A962" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="B962" t="s">
         <v>1528</v>
@@ -13696,28 +13702,28 @@
         <v>1529</v>
       </c>
       <c r="B963" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="B964" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="B965" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="966" spans="1:2">
       <c r="A966" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="B966" t="s">
         <v>1533</v>
@@ -13776,12 +13782,12 @@
         <v>1546</v>
       </c>
       <c r="B973" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="974" spans="1:2">
       <c r="A974" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="B974" t="s">
         <v>1548</v>
@@ -13792,12 +13798,12 @@
         <v>1549</v>
       </c>
       <c r="B975" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="976" spans="1:2">
       <c r="A976" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="B976" t="s">
         <v>1551</v>
@@ -13816,20 +13822,20 @@
         <v>1554</v>
       </c>
       <c r="B978" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="B979" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="980" spans="1:2">
       <c r="A980" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="B980" t="s">
         <v>1557</v>
@@ -13848,28 +13854,28 @@
         <v>1560</v>
       </c>
       <c r="B982" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="B983" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="B984" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="B985" t="s">
         <v>1564</v>
@@ -13928,12 +13934,12 @@
         <v>1577</v>
       </c>
       <c r="B992" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="B993" t="s">
         <v>1579</v>
@@ -13952,28 +13958,28 @@
         <v>1582</v>
       </c>
       <c r="B995" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="B996" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="997" spans="1:2">
       <c r="A997" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="B997" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="998" spans="1:2">
       <c r="A998" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="B998" t="s">
         <v>1586</v>
@@ -14008,36 +14014,36 @@
         <v>1593</v>
       </c>
       <c r="B1002" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="B1003" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="B1004" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B1005" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="B1006" t="s">
         <v>1598</v>
@@ -14048,36 +14054,36 @@
         <v>1599</v>
       </c>
       <c r="B1007" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="B1008" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="B1009" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="B1010" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
       <c r="A1011" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="B1011" t="s">
         <v>1604</v>
@@ -14096,12 +14102,12 @@
         <v>1607</v>
       </c>
       <c r="B1013" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="B1014" t="s">
         <v>1609</v>
@@ -14112,20 +14118,20 @@
         <v>1610</v>
       </c>
       <c r="B1015" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="B1016" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="B1017" t="s">
         <v>1613</v>
@@ -14144,12 +14150,12 @@
         <v>1616</v>
       </c>
       <c r="B1019" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
       <c r="A1020" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="B1020" t="s">
         <v>1618</v>
@@ -14176,12 +14182,12 @@
         <v>1623</v>
       </c>
       <c r="B1023" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="B1024" t="s">
         <v>1625</v>
@@ -14192,36 +14198,36 @@
         <v>1626</v>
       </c>
       <c r="B1025" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="B1026" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B1027" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B1028" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="B1029" t="s">
         <v>1631</v>
@@ -14232,36 +14238,36 @@
         <v>1632</v>
       </c>
       <c r="B1030" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="B1031" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="B1032" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="B1033" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="B1034" t="s">
         <v>1637</v>
@@ -14280,12 +14286,12 @@
         <v>1640</v>
       </c>
       <c r="B1036" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
       <c r="A1037" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="B1037" t="s">
         <v>1642</v>
@@ -14368,12 +14374,12 @@
         <v>1661</v>
       </c>
       <c r="B1047" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
       <c r="A1048" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="B1048" t="s">
         <v>1663</v>
@@ -14384,12 +14390,12 @@
         <v>1664</v>
       </c>
       <c r="B1049" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
       <c r="A1050" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="B1050" t="s">
         <v>1666</v>
@@ -14464,12 +14470,12 @@
         <v>1683</v>
       </c>
       <c r="B1059" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
       <c r="A1060" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B1060" t="s">
         <v>1685</v>
@@ -14560,20 +14566,20 @@
         <v>1706</v>
       </c>
       <c r="B1071" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="B1072" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="B1073" t="s">
         <v>1709</v>
@@ -14584,28 +14590,28 @@
         <v>1710</v>
       </c>
       <c r="B1074" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="B1075" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="B1076" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="B1077" t="s">
         <v>1714</v>
@@ -14616,12 +14622,12 @@
         <v>1715</v>
       </c>
       <c r="B1078" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="B1079" t="s">
         <v>1717</v>
@@ -14640,12 +14646,12 @@
         <v>1720</v>
       </c>
       <c r="B1081" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="B1082" t="s">
         <v>1722</v>
@@ -14656,12 +14662,12 @@
         <v>1723</v>
       </c>
       <c r="B1083" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
       <c r="A1084" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="B1084" t="s">
         <v>1725</v>
@@ -14672,12 +14678,12 @@
         <v>1726</v>
       </c>
       <c r="B1085" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
       <c r="A1086" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="B1086" t="s">
         <v>1728</v>
@@ -14720,12 +14726,12 @@
         <v>1737</v>
       </c>
       <c r="B1091" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
       <c r="A1092" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="B1092" t="s">
         <v>1739</v>
@@ -14768,12 +14774,12 @@
         <v>1748</v>
       </c>
       <c r="B1097" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
       <c r="A1098" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="B1098" t="s">
         <v>1750</v>
@@ -14792,20 +14798,20 @@
         <v>1753</v>
       </c>
       <c r="B1100" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="B1101" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B1102" t="s">
         <v>1756</v>
@@ -14816,20 +14822,20 @@
         <v>1757</v>
       </c>
       <c r="B1103" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="B1104" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="B1105" t="s">
         <v>1760</v>
@@ -14848,12 +14854,12 @@
         <v>1763</v>
       </c>
       <c r="B1107" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="B1108" t="s">
         <v>1765</v>
@@ -14864,12 +14870,12 @@
         <v>1766</v>
       </c>
       <c r="B1109" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="B1110" t="s">
         <v>1768</v>
@@ -14880,12 +14886,12 @@
         <v>1769</v>
       </c>
       <c r="B1111" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
       <c r="A1112" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="B1112" t="s">
         <v>1771</v>
@@ -14928,20 +14934,20 @@
         <v>1780</v>
       </c>
       <c r="B1117" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
       <c r="A1118" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="B1118" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
       <c r="A1119" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="B1119" t="s">
         <v>1783</v>
@@ -15040,44 +15046,44 @@
         <v>1806</v>
       </c>
       <c r="B1131" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="B1132" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="B1133" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="B1134" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="B1135" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="B1136" t="s">
         <v>1812</v>
@@ -15096,28 +15102,28 @@
         <v>1815</v>
       </c>
       <c r="B1138" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="B1139" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="B1140" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B1141" t="s">
         <v>1819</v>
@@ -15184,12 +15190,12 @@
         <v>1834</v>
       </c>
       <c r="B1149" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="B1150" t="s">
         <v>1836</v>
@@ -15200,12 +15206,12 @@
         <v>1837</v>
       </c>
       <c r="B1151" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B1152" t="s">
         <v>1839</v>
@@ -15240,44 +15246,44 @@
         <v>1846</v>
       </c>
       <c r="B1156" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="B1157" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="B1158" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="B1159" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="B1160" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="B1161" t="s">
         <v>1852</v>
@@ -15296,20 +15302,20 @@
         <v>1855</v>
       </c>
       <c r="B1163" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="B1164" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="B1165" t="s">
         <v>1858</v>
@@ -15320,36 +15326,36 @@
         <v>1859</v>
       </c>
       <c r="B1166" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="B1167" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="B1168" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="B1169" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="B1170" t="s">
         <v>1864</v>
@@ -15384,19 +15390,27 @@
         <v>1871</v>
       </c>
       <c r="B1174" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
       <c r="A1175" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="B1175" t="s">
-        <v>1872</v>
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:2">
+      <c r="A1176" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>1874</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1175"/>
+  <autoFilter ref="A1:B1176"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/el/headTags.xlsx
+++ b/lang/el/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1176</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1177</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1877">
   <si>
     <t>en</t>
   </si>
@@ -2800,2845 +2800,2851 @@
     <t>Hypixel (Μινιόν)</t>
   </si>
   <si>
+    <t>Hypixel (Mutations)</t>
+  </si>
+  <si>
+    <t>Hypixel (Μεταλλάξεις)</t>
+  </si>
+  <si>
+    <t>Hypixel (NPC)</t>
+  </si>
+  <si>
+    <t>Hypixel (Pets)</t>
+  </si>
+  <si>
+    <t>Hypixel (Κατοικίδια)</t>
+  </si>
+  <si>
+    <t>Hypixel (Reforge Stone)</t>
+  </si>
+  <si>
+    <t>Hypixel (πέτρα επανασφυρηλάτησης)</t>
+  </si>
+  <si>
+    <t>Hypixel (Sacks)</t>
+  </si>
+  <si>
+    <t>Hypixel (Σάκοι)</t>
+  </si>
+  <si>
+    <t>Hypixel (Skins)</t>
+  </si>
+  <si>
+    <t>Hypixel (Talismans)</t>
+  </si>
+  <si>
+    <t>Hypixel (Ταλισμάν)</t>
+  </si>
+  <si>
+    <t>Hypixel (Trophy Fish)</t>
+  </si>
+  <si>
+    <t>Hypixel (Ψάρι τρόπαιο)</t>
+  </si>
+  <si>
+    <t>Hōseki no Kuni (Land of the Lustrous)</t>
+  </si>
+  <si>
+    <t>Hōseki no Kuni (Γη της Λάμψης)</t>
+  </si>
+  <si>
+    <t>Ib</t>
+  </si>
+  <si>
+    <t>Ice Age</t>
+  </si>
+  <si>
+    <t>Εποχή των Παγετώνων</t>
+  </si>
+  <si>
+    <t>Ice Climber</t>
+  </si>
+  <si>
+    <t>Ορειβάτης πάγου</t>
+  </si>
+  <si>
+    <t>Ice Cream</t>
+  </si>
+  <si>
+    <t>Παγωτό</t>
+  </si>
+  <si>
+    <t>Icons (GUI)</t>
+  </si>
+  <si>
+    <t>Εικονίδια (GUI)</t>
+  </si>
+  <si>
+    <t>Icons (Ironblock)</t>
+  </si>
+  <si>
+    <t>Εικόνες (Ironblock)</t>
+  </si>
+  <si>
+    <t>Icons (Other)</t>
+  </si>
+  <si>
+    <t>Εικονίδια (άλλα)</t>
+  </si>
+  <si>
+    <t>Icons (white background)</t>
+  </si>
+  <si>
+    <t>Εικονίδια (λευκό φόντο)</t>
+  </si>
+  <si>
+    <t>Identity V</t>
+  </si>
+  <si>
+    <t>Ταυτότητα V</t>
+  </si>
+  <si>
+    <t>Illager</t>
+  </si>
+  <si>
+    <t>Inazuma Eleven</t>
+  </si>
+  <si>
+    <t>Incredibles</t>
+  </si>
+  <si>
+    <t>Απίθανοι</t>
+  </si>
+  <si>
+    <t>Indiana Jones</t>
+  </si>
+  <si>
+    <t>Ιντιάνα Τζόουνς</t>
+  </si>
+  <si>
+    <t>Indigo Park</t>
+  </si>
+  <si>
+    <t>Πάρκο Indigo</t>
+  </si>
+  <si>
+    <t>Injuries</t>
+  </si>
+  <si>
+    <t>Τραυματισμοί</t>
+  </si>
+  <si>
+    <t>Inner Layer Block</t>
+  </si>
+  <si>
+    <t>Μπλοκ εσωτερικού στρώματος</t>
+  </si>
+  <si>
+    <t>Inscryption</t>
+  </si>
+  <si>
+    <t>Κρυπτογράφηση</t>
+  </si>
+  <si>
+    <t>Insect</t>
+  </si>
+  <si>
+    <t>Έντομο</t>
+  </si>
+  <si>
+    <t>Inside Out</t>
+  </si>
+  <si>
+    <t>Inu Yasha</t>
+  </si>
+  <si>
+    <t>Invader Zim</t>
+  </si>
+  <si>
+    <t>Εισβολέας Zim</t>
+  </si>
+  <si>
+    <t>Invincible</t>
+  </si>
+  <si>
+    <t>Αήττητος</t>
+  </si>
+  <si>
+    <t>Iron Man</t>
+  </si>
+  <si>
+    <t>It</t>
+  </si>
+  <si>
+    <t>Είναι</t>
+  </si>
+  <si>
+    <t>Jak and Daxter</t>
+  </si>
+  <si>
+    <t>Jak και Daxter</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Ιαπωνία</t>
+  </si>
+  <si>
+    <t>Jar</t>
+  </si>
+  <si>
+    <t>Βάζο</t>
+  </si>
+  <si>
+    <t>Jewelry</t>
+  </si>
+  <si>
+    <t>Κοσμήματα</t>
+  </si>
+  <si>
+    <t>JoJo's Bizarre Adventure</t>
+  </si>
+  <si>
+    <t>Η παράξενη περιπέτεια του JoJo</t>
+  </si>
+  <si>
+    <t>JoJo's Bizarre Adventure (Stand)</t>
+  </si>
+  <si>
+    <t>Η παράξενη περιπέτεια του JoJo (Stand)</t>
+  </si>
+  <si>
+    <t>Journey</t>
+  </si>
+  <si>
+    <t>Ταξίδι</t>
+  </si>
+  <si>
+    <t>Jujutsu Kaisen</t>
+  </si>
+  <si>
+    <t>Jump King</t>
+  </si>
+  <si>
+    <t>Jurassic Park</t>
+  </si>
+  <si>
+    <t>Justice League</t>
+  </si>
+  <si>
+    <t>Λεγεώνα της Δικαιοσύνης</t>
+  </si>
+  <si>
+    <t>Kaiju Paradise</t>
+  </si>
+  <si>
+    <t>Παράδεισος Kaiju</t>
+  </si>
+  <si>
+    <t>Kakegurui</t>
+  </si>
+  <si>
+    <t>Karate Kid</t>
+  </si>
+  <si>
+    <t>Katamari Damacy</t>
+  </si>
+  <si>
+    <t>Kid Icarus</t>
+  </si>
+  <si>
+    <t>Kiki's Delivery Service</t>
+  </si>
+  <si>
+    <t>Υπηρεσία παράδοσης της Kiki</t>
+  </si>
+  <si>
+    <t>Kill la Kill</t>
+  </si>
+  <si>
+    <t>Killzone</t>
+  </si>
+  <si>
+    <t>Kim Possible</t>
+  </si>
+  <si>
+    <t>Kimetsu no Yaiba</t>
+  </si>
+  <si>
+    <t>Kingdom Hearts</t>
+  </si>
+  <si>
+    <t>Kirby</t>
+  </si>
+  <si>
+    <t>Kitchen</t>
+  </si>
+  <si>
+    <t>Κουζίνα</t>
+  </si>
+  <si>
+    <t>KonoSuba</t>
+  </si>
+  <si>
+    <t>Koopalings</t>
+  </si>
+  <si>
+    <t>Kung Fu Panda</t>
+  </si>
+  <si>
+    <t>Kuroko no Basuke</t>
+  </si>
+  <si>
+    <t>Lamp Shade</t>
+  </si>
+  <si>
+    <t>Σκέπαστρο λάμπας</t>
+  </si>
+  <si>
+    <t>Landscape</t>
+  </si>
+  <si>
+    <t>Τοπίο</t>
+  </si>
+  <si>
+    <t>Lantern</t>
+  </si>
+  <si>
+    <t>Φανάρι</t>
+  </si>
+  <si>
+    <t>Laputa: Castle in the Sky</t>
+  </si>
+  <si>
+    <t>Laputa: Κάστρο στον ουρανό</t>
+  </si>
+  <si>
+    <t>LazyTown</t>
+  </si>
+  <si>
+    <t>League of Legends</t>
+  </si>
+  <si>
+    <t>Left 4 Dead</t>
+  </si>
+  <si>
+    <t>Legendary Pokemon</t>
+  </si>
+  <si>
+    <t>Θρυλικό Pokemon</t>
+  </si>
+  <si>
+    <t>Lego</t>
+  </si>
+  <si>
+    <t>Lethal League</t>
+  </si>
+  <si>
+    <t>Θανατηφόρος Σύνδεσμος</t>
+  </si>
+  <si>
+    <t>Library of Ruina</t>
+  </si>
+  <si>
+    <t>Βιβλιοθήκη της Ruina</t>
+  </si>
+  <si>
+    <t>Life is Strange</t>
+  </si>
+  <si>
+    <t>Η ζωή είναι παράξενη</t>
+  </si>
+  <si>
+    <t>Lilo &amp; Stitch</t>
+  </si>
+  <si>
+    <t>Limbus Company</t>
+  </si>
+  <si>
+    <t>Εταιρεία Limbus</t>
+  </si>
+  <si>
+    <t>Lion King</t>
+  </si>
+  <si>
+    <t>Βασιλιάς των Λιονταριών</t>
+  </si>
+  <si>
+    <t>Little Big Planet</t>
+  </si>
+  <si>
+    <t>Μικρός μεγάλος πλανήτης</t>
+  </si>
+  <si>
+    <t>Little Mermaid</t>
+  </si>
+  <si>
+    <t>Μικρή γοργόνα</t>
+  </si>
+  <si>
+    <t>Little Nightmares</t>
+  </si>
+  <si>
+    <t>Μικροί εφιάλτες</t>
+  </si>
+  <si>
+    <t>Little Shop of Horrors</t>
+  </si>
+  <si>
+    <t>Μικρό μαγαζί του τρόμου</t>
+  </si>
+  <si>
+    <t>Little Witch Academia</t>
+  </si>
+  <si>
+    <t>Μικρή μάγισσα Academia</t>
+  </si>
+  <si>
+    <t>Llama</t>
+  </si>
+  <si>
+    <t>Λάμα</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Λογότυπο</t>
+  </si>
+  <si>
+    <t>Looney Tunes</t>
+  </si>
+  <si>
+    <t>Lord of the Rings</t>
+  </si>
+  <si>
+    <t>Ο Άρχοντας των Δαχτυλιδιών</t>
+  </si>
+  <si>
+    <t>Love Live!</t>
+  </si>
+  <si>
+    <t>Lovestruck Creature</t>
+  </si>
+  <si>
+    <t>Ερωτευμένο πλάσμα</t>
+  </si>
+  <si>
+    <t>Lovestruck Person</t>
+  </si>
+  <si>
+    <t>Ερωτευμένο άτομο</t>
+  </si>
+  <si>
+    <t>Lucky Luke</t>
+  </si>
+  <si>
+    <t>Machine Part</t>
+  </si>
+  <si>
+    <t>Μέρος μηχανής</t>
+  </si>
+  <si>
+    <t>Mad Father</t>
+  </si>
+  <si>
+    <t>Mad Max</t>
+  </si>
+  <si>
+    <t>Made in Abyss</t>
+  </si>
+  <si>
+    <t>Κατασκευασμένο στην Άβυσσο</t>
+  </si>
+  <si>
+    <t>Madness Combat</t>
+  </si>
+  <si>
+    <t>Τρέλα Combat</t>
+  </si>
+  <si>
+    <t>Madoka Magica</t>
+  </si>
+  <si>
+    <t>Makeup</t>
+  </si>
+  <si>
+    <t>Μακιγιάζ</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Αρσενικό</t>
+  </si>
+  <si>
+    <t>Mao Mao Heroes of Pure Heart</t>
+  </si>
+  <si>
+    <t>Μάο Μάο Ήρωες της αγνής καρδιάς</t>
+  </si>
+  <si>
+    <t>MapleStory</t>
+  </si>
+  <si>
+    <t>Marvel</t>
+  </si>
+  <si>
+    <t>Mary and the Witch's Flower</t>
+  </si>
+  <si>
+    <t>Η Μαρία και το λουλούδι της μάγισσας</t>
+  </si>
+  <si>
+    <t>Mascot</t>
+  </si>
+  <si>
+    <t>Μασκότ</t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>Μάσκα</t>
+  </si>
+  <si>
+    <t>Mask (full)</t>
+  </si>
+  <si>
+    <t>Μάσκα (πλήρης)</t>
+  </si>
+  <si>
+    <t>Mask (functional)</t>
+  </si>
+  <si>
+    <t>Μάσκα (λειτουργική)</t>
+  </si>
+  <si>
+    <t>Mask (health)</t>
+  </si>
+  <si>
+    <t>Μάσκα (υγεία)</t>
+  </si>
+  <si>
+    <t>Mask (Minecraft mob)</t>
+  </si>
+  <si>
+    <t>Μάσκα (Minecraft mob)</t>
+  </si>
+  <si>
+    <t>Mass Effect</t>
+  </si>
+  <si>
+    <t>Masters of the Universe</t>
+  </si>
+  <si>
+    <t>Mathematical Symbol</t>
+  </si>
+  <si>
+    <t>Μαθηματικό σύμβολο</t>
+  </si>
+  <si>
+    <t>Mc Donalds</t>
+  </si>
+  <si>
+    <t>Meal</t>
+  </si>
+  <si>
+    <t>Γεύμα</t>
+  </si>
+  <si>
+    <t>Meat</t>
+  </si>
+  <si>
+    <t>Κρέας</t>
+  </si>
+  <si>
+    <t>Medieval</t>
+  </si>
+  <si>
+    <t>Μεσαιωνικό</t>
+  </si>
+  <si>
+    <t>Medieval Tavern</t>
+  </si>
+  <si>
+    <t>Μεσαιωνική ταβέρνα</t>
+  </si>
+  <si>
+    <t>Medieval Warfare Helmet</t>
+  </si>
+  <si>
+    <t>Μεσαιωνική πολεμική περικεφαλαία</t>
+  </si>
+  <si>
+    <t>MediEvil</t>
+  </si>
+  <si>
+    <t>Mega Evolution</t>
+  </si>
+  <si>
+    <t>Megaman</t>
+  </si>
+  <si>
+    <t>Megami Tensei</t>
+  </si>
+  <si>
+    <t>Mekakucity Actors</t>
+  </si>
+  <si>
+    <t>Mekakucity Ηθοποιοί</t>
+  </si>
+  <si>
+    <t>Meme</t>
+  </si>
+  <si>
+    <t>Meme (Doge)</t>
+  </si>
+  <si>
+    <t>Meme (Pepe)</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>Μέταλλο</t>
+  </si>
+  <si>
+    <t>Metal Gear</t>
+  </si>
+  <si>
+    <t>Metro</t>
+  </si>
+  <si>
+    <t>Μετρό</t>
+  </si>
+  <si>
+    <t>Metroid</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Μεξικό</t>
+  </si>
+  <si>
+    <t>Mickey Mouse</t>
+  </si>
+  <si>
+    <t>Μίκυ Μάους</t>
+  </si>
+  <si>
+    <t>Military Equipment</t>
+  </si>
+  <si>
+    <t>Στρατιωτικός εξοπλισμός</t>
+  </si>
+  <si>
+    <t>Minecraft April Fools</t>
+  </si>
+  <si>
+    <t>Minecraft Πρωταπριλιά</t>
+  </si>
+  <si>
+    <t>Minecraft Bedrock Edition</t>
+  </si>
+  <si>
+    <t>Έκδοση Minecraft Bedrock</t>
+  </si>
+  <si>
+    <t>Minecraft Dungeons</t>
+  </si>
+  <si>
+    <t>Μπουντρούμια Minecraft</t>
+  </si>
+  <si>
+    <t>Minecraft Earth</t>
+  </si>
+  <si>
+    <t>Minecraft Γη</t>
+  </si>
+  <si>
+    <t>Minecraft Education Edition</t>
+  </si>
+  <si>
+    <t>Εκπαιδευτική έκδοση Minecraft</t>
+  </si>
+  <si>
+    <t>Minecraft Legends</t>
+  </si>
+  <si>
+    <t>Θρύλοι του Minecraft</t>
+  </si>
+  <si>
+    <t>Minecraft Live</t>
+  </si>
+  <si>
+    <t>Minecraft Movie</t>
+  </si>
+  <si>
+    <t>Ταινία Minecraft</t>
+  </si>
+  <si>
+    <t>Minecraft Story Mode</t>
+  </si>
+  <si>
+    <t>Λειτουργία ιστορίας Minecraft</t>
+  </si>
+  <si>
+    <t>Miner</t>
+  </si>
+  <si>
+    <t>Μεταλλωρύχος</t>
+  </si>
+  <si>
+    <t>Minesweeper</t>
+  </si>
+  <si>
+    <t>Miraculous: Tales of Ladybug &amp; Cat Noir</t>
+  </si>
+  <si>
+    <t>Θαυματουργό: Cat Noir</t>
+  </si>
+  <si>
+    <t>Mirai Nikki (Future Diary)</t>
+  </si>
+  <si>
+    <t>Mirai Nikki (Μελλοντικό ημερολόγιο)</t>
+  </si>
+  <si>
+    <t>Mirror's Edge</t>
+  </si>
+  <si>
+    <t>Η άκρη του καθρέφτη</t>
+  </si>
+  <si>
+    <t>Miss Kobayashi's Dragon Maid</t>
+  </si>
+  <si>
+    <t>Η υπηρέτρια του δράκου της δεσποινίδας Kobayashi</t>
+  </si>
+  <si>
+    <t>Mizuno's Resource Pack</t>
+  </si>
+  <si>
+    <t>Πακέτο πόρων της Mizuno</t>
+  </si>
+  <si>
+    <t>Moana</t>
+  </si>
+  <si>
+    <t>Modern Warfare Helmet</t>
+  </si>
+  <si>
+    <t>Κράνος Modern Warfare</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>Χρήματα</t>
+  </si>
+  <si>
+    <t>Money Heist</t>
+  </si>
+  <si>
+    <t>Ληστεία χρημάτων</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Οθόνη</t>
+  </si>
+  <si>
+    <t>Monkey Island</t>
+  </si>
+  <si>
+    <t>Νησί μαϊμού</t>
+  </si>
+  <si>
+    <t>Monocle</t>
+  </si>
+  <si>
+    <t>Monster High</t>
+  </si>
+  <si>
+    <t>Monster Hunter</t>
+  </si>
+  <si>
+    <t>Κυνηγός τεράτων</t>
+  </si>
+  <si>
+    <t>Monsters Inc</t>
+  </si>
+  <si>
+    <t>Moomin</t>
+  </si>
+  <si>
+    <t>Mortal Kombat</t>
+  </si>
+  <si>
+    <t>Mounts of Mayhem</t>
+  </si>
+  <si>
+    <t>Τα βουνά του χάους</t>
+  </si>
+  <si>
+    <t>Mouthwashing</t>
+  </si>
+  <si>
+    <t>Στοματικό διάλυμα</t>
+  </si>
+  <si>
+    <t>Mr. Bean</t>
+  </si>
+  <si>
+    <t>Mulan</t>
+  </si>
+  <si>
+    <t>Mundo Gaturro</t>
+  </si>
+  <si>
+    <t>Muppets</t>
+  </si>
+  <si>
+    <t>Murder Drones</t>
+  </si>
+  <si>
+    <t>Κηφήνες δολοφονίας</t>
+  </si>
+  <si>
+    <t>Mushroom</t>
+  </si>
+  <si>
+    <t>Μανιτάρια</t>
+  </si>
+  <si>
+    <t>Mushroom (Biome)</t>
+  </si>
+  <si>
+    <t>Μανιτάρια (Biome)</t>
+  </si>
+  <si>
+    <t>Mushroom (Headwear)</t>
+  </si>
+  <si>
+    <t>Μανιτάρι (Headwear)</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Μουσική</t>
+  </si>
+  <si>
+    <t>Mustache</t>
+  </si>
+  <si>
+    <t>Μουστάκι</t>
+  </si>
+  <si>
+    <t>My Deer Friend Nokotan</t>
+  </si>
+  <si>
+    <t>Ο φίλος μου το ελάφι Nokotan</t>
+  </si>
+  <si>
+    <t>My Hero Academia</t>
+  </si>
+  <si>
+    <t>My Little Pony</t>
+  </si>
+  <si>
+    <t>My Neighbor Totoro</t>
+  </si>
+  <si>
+    <t>Ο γείτονάς μου ο Τότορο</t>
+  </si>
+  <si>
+    <t>My Singing Monsters</t>
+  </si>
+  <si>
+    <t>Τα τραγουδιστικά μου τέρατα</t>
+  </si>
+  <si>
+    <t>Naruto</t>
+  </si>
+  <si>
+    <t>Nausicaä of the Valley of the Wind</t>
+  </si>
+  <si>
+    <t>Η Nausicaä της Κοιλάδας του Ανέμου</t>
+  </si>
+  <si>
+    <t>Nekopara</t>
+  </si>
+  <si>
+    <t>Neon Genesis Evangelion</t>
+  </si>
+  <si>
+    <t>Nether (inspired)</t>
+  </si>
+  <si>
+    <t>Nether (εμπνευσμένο)</t>
+  </si>
+  <si>
+    <t>Nether (vanilla)</t>
+  </si>
+  <si>
+    <t>Nether (βανίλια)</t>
+  </si>
+  <si>
+    <t>Neutral Creature</t>
+  </si>
+  <si>
+    <t>Ουδέτερο πλάσμα</t>
+  </si>
+  <si>
+    <t>Neutral Person</t>
+  </si>
+  <si>
+    <t>Ουδέτερο πρόσωπο</t>
+  </si>
+  <si>
+    <t>New Year's Eve</t>
+  </si>
+  <si>
+    <t>Παραμονή Πρωτοχρονιάς</t>
+  </si>
+  <si>
+    <t>NieR: Automata</t>
+  </si>
+  <si>
+    <t>Night in the Woods</t>
+  </si>
+  <si>
+    <t>Νύχτα στο δάσος</t>
+  </si>
+  <si>
+    <t>Nightmare Before Christmas</t>
+  </si>
+  <si>
+    <t>Εφιάλτης πριν από τα Χριστούγεννα</t>
+  </si>
+  <si>
+    <t>Ninja Turtles</t>
+  </si>
+  <si>
+    <t>Χελώνες Νίντζα</t>
+  </si>
+  <si>
+    <t>No Game No Life</t>
+  </si>
+  <si>
+    <t>Χωρίς παιχνίδι δεν υπάρχει ζωή</t>
+  </si>
+  <si>
+    <t>No Man's Sky</t>
+  </si>
+  <si>
+    <t>Noel's House Party</t>
+  </si>
+  <si>
+    <t>House Party του Noel</t>
+  </si>
+  <si>
+    <t>Norse Mythology</t>
+  </si>
+  <si>
+    <t>Σκανδιναβική μυθολογία</t>
+  </si>
+  <si>
+    <t>NPC (Education Edition)</t>
+  </si>
+  <si>
+    <t>NPC (Εκπαιδευτική έκδοση)</t>
+  </si>
+  <si>
+    <t>Nuclear Fallout</t>
+  </si>
+  <si>
+    <t>Πυρηνική πτώση</t>
+  </si>
+  <si>
+    <t>Nuclear Throne</t>
+  </si>
+  <si>
+    <t>Πυρηνικός θρόνος</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Αριθμός</t>
+  </si>
+  <si>
+    <t>Nut</t>
+  </si>
+  <si>
+    <t>Παξιμάδι</t>
+  </si>
+  <si>
+    <t>Ocean</t>
+  </si>
+  <si>
+    <t>Ωκεανός</t>
+  </si>
+  <si>
+    <t>Octodad</t>
+  </si>
+  <si>
+    <t>Oddworld</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>Officer Cap</t>
+  </si>
+  <si>
+    <t>Καπέλο αξιωματικού</t>
+  </si>
+  <si>
+    <t>Oggy and the Cockroaches</t>
+  </si>
+  <si>
+    <t>Oggy και οι κατσαρίδες</t>
+  </si>
+  <si>
+    <t>Okegom</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+  <si>
+    <t>Παλιό</t>
+  </si>
+  <si>
+    <t>Oliver &amp; Co</t>
+  </si>
+  <si>
+    <t>Omori</t>
+  </si>
+  <si>
+    <t>One Piece</t>
+  </si>
+  <si>
+    <t>One Punch Man</t>
+  </si>
+  <si>
+    <t>OneShot</t>
+  </si>
+  <si>
+    <t>Ongezellig</t>
+  </si>
+  <si>
+    <t>Onii-chan wa Oshimai</t>
+  </si>
+  <si>
+    <t>Open Source Objects</t>
+  </si>
+  <si>
+    <t>Αντικείμενα ανοικτού κώδικα</t>
+  </si>
+  <si>
+    <t>Orb</t>
+  </si>
+  <si>
+    <t>Σφαίρα</t>
+  </si>
+  <si>
+    <t>Orc</t>
+  </si>
+  <si>
+    <t>Ore</t>
+  </si>
+  <si>
+    <t>Μεταλλεύματα</t>
+  </si>
+  <si>
+    <t>Organs and Bodyparts</t>
+  </si>
+  <si>
+    <t>Όργανα και μέρη του σώματος</t>
+  </si>
+  <si>
+    <t>Other Headgear</t>
+  </si>
+  <si>
+    <t>Άλλα καλύμματα κεφαλής</t>
+  </si>
+  <si>
+    <t>Other Illumination</t>
+  </si>
+  <si>
+    <t>Άλλος φωτισμός</t>
+  </si>
+  <si>
+    <t>Other Mystic Creature</t>
+  </si>
+  <si>
+    <t>Άλλο μυστικιστικό πλάσμα</t>
+  </si>
+  <si>
+    <t>Outer Layer Block</t>
+  </si>
+  <si>
+    <t>Μπλοκ εξωτερικού στρώματος</t>
+  </si>
+  <si>
+    <t>Overlord</t>
+  </si>
+  <si>
+    <t>Overwatch</t>
+  </si>
+  <si>
+    <t>Pac-Man</t>
+  </si>
+  <si>
+    <t>Pacific Rim</t>
+  </si>
+  <si>
+    <t>Pacifier</t>
+  </si>
+  <si>
+    <t>Πιπίλα</t>
+  </si>
+  <si>
+    <t>Painted Face</t>
+  </si>
+  <si>
+    <t>Ζωγραφισμένο πρόσωπο</t>
+  </si>
+  <si>
+    <t>Pale Garden (inspired)</t>
+  </si>
+  <si>
+    <t>Pale Garden (εμπνευσμένο)</t>
+  </si>
+  <si>
+    <t>Panda Bear</t>
+  </si>
+  <si>
+    <t>Αρκούδα Πάντα</t>
+  </si>
+  <si>
+    <t>Pans Labyrinth</t>
+  </si>
+  <si>
+    <t>Λαβύρινθος Pans</t>
+  </si>
+  <si>
+    <t>Papers Please</t>
+  </si>
+  <si>
+    <t>PaRappa the Rapper</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>Κόμμα</t>
+  </si>
+  <si>
+    <t>Pastries and Sweets</t>
+  </si>
+  <si>
+    <t>Ζαχαρωτά και γλυκά</t>
+  </si>
+  <si>
+    <t>Paw Patrol</t>
+  </si>
+  <si>
+    <t>Payday</t>
+  </si>
+  <si>
+    <t>Peanuts (Snoopy)</t>
+  </si>
+  <si>
+    <t>Penguin</t>
+  </si>
+  <si>
+    <t>Peppa Pig</t>
+  </si>
+  <si>
+    <t>Periodic Table of Elements</t>
+  </si>
+  <si>
+    <t>Περιοδικός Πίνακας των Στοιχείων</t>
+  </si>
+  <si>
+    <t>Persona</t>
+  </si>
+  <si>
+    <t>Pet Equipment</t>
+  </si>
+  <si>
+    <t>Εξοπλισμός κατοικίδιων ζώων</t>
+  </si>
+  <si>
+    <t>Peter Pan</t>
+  </si>
+  <si>
+    <t>Πίτερ Παν</t>
+  </si>
+  <si>
+    <t>Phantom</t>
+  </si>
+  <si>
+    <t>Phineas &amp; Ferb</t>
+  </si>
+  <si>
+    <t>Pig</t>
+  </si>
+  <si>
+    <t>Χοίρος</t>
+  </si>
+  <si>
+    <t>Piglin</t>
+  </si>
+  <si>
+    <t>Pigman</t>
+  </si>
+  <si>
+    <t>Pikmin</t>
+  </si>
+  <si>
+    <t>Pingu</t>
+  </si>
+  <si>
+    <t>Pink Panther</t>
+  </si>
+  <si>
+    <t>Ροζ Πάνθηρας</t>
+  </si>
+  <si>
+    <t>Pinky and the Brain</t>
+  </si>
+  <si>
+    <t>Ο Pinky και ο εγκέφαλος</t>
+  </si>
+  <si>
+    <t>Pinocchio</t>
+  </si>
+  <si>
+    <t>Πινόκιο</t>
+  </si>
+  <si>
+    <t>Pirates of the Caribbean</t>
+  </si>
+  <si>
+    <t>Οι Πειρατές της Καραϊβικής</t>
+  </si>
+  <si>
+    <t>Pizza Tower</t>
+  </si>
+  <si>
+    <t>Πύργος πίτσας</t>
+  </si>
+  <si>
+    <t>Planet</t>
+  </si>
+  <si>
+    <t>Πλανήτης</t>
+  </si>
+  <si>
+    <t>Plants vs. Zombies</t>
+  </si>
+  <si>
+    <t>Φυτά εναντίον ζόμπι</t>
+  </si>
+  <si>
+    <t>Playerunknown's Battlegrounds</t>
+  </si>
+  <si>
+    <t>Battlegrounds του Playerunknown</t>
+  </si>
+  <si>
+    <t>Pocahontas</t>
+  </si>
+  <si>
+    <t>Pokeball</t>
+  </si>
+  <si>
+    <t>Pokemon</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 1</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 2</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 3</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 4</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 5</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 6</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 7</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 8</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 9</t>
+  </si>
+  <si>
+    <t>Pokemon Items</t>
+  </si>
+  <si>
+    <t>Αντικείμενα Pokemon</t>
+  </si>
+  <si>
+    <t>Pokemon Trainer</t>
+  </si>
+  <si>
+    <t>Εκπαιδευτής Pokemon</t>
+  </si>
+  <si>
+    <t>Polar Bear</t>
+  </si>
+  <si>
+    <t>Πολική αρκούδα</t>
+  </si>
+  <si>
+    <t>Police</t>
+  </si>
+  <si>
+    <t>Αστυνομία</t>
+  </si>
+  <si>
+    <t>Pom Poko</t>
+  </si>
+  <si>
+    <t>Ponyo</t>
+  </si>
+  <si>
+    <t>Pop Team Epic</t>
+  </si>
+  <si>
+    <t>Pop ομάδα Epic</t>
+  </si>
+  <si>
+    <t>POPGOES</t>
+  </si>
+  <si>
+    <t>Poppy Playtime</t>
+  </si>
+  <si>
+    <t>Porco Rosso</t>
+  </si>
+  <si>
+    <t>Portal</t>
+  </si>
+  <si>
+    <t>Πύλη</t>
+  </si>
+  <si>
+    <t>Postman Pat</t>
+  </si>
+  <si>
+    <t>Ο ταχυδρόμος Pat</t>
+  </si>
+  <si>
+    <t>Power Rangers</t>
+  </si>
+  <si>
+    <t>Powerpuff Girls</t>
+  </si>
+  <si>
+    <t>Predator</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>Παρόν</t>
+  </si>
+  <si>
+    <t>Pride</t>
+  </si>
+  <si>
+    <t>Υπερηφάνεια</t>
+  </si>
+  <si>
+    <t>Primate</t>
+  </si>
+  <si>
+    <t>Πρωτεύοντες</t>
+  </si>
+  <si>
+    <t>Princess Mononoke</t>
+  </si>
+  <si>
+    <t>Πριγκίπισσα Mononoke</t>
+  </si>
+  <si>
+    <t>Prof Layton</t>
+  </si>
+  <si>
+    <t>Καθηγητής Layton</t>
+  </si>
+  <si>
+    <t>Pumpkin</t>
+  </si>
+  <si>
+    <t>Κολοκύθα</t>
+  </si>
+  <si>
+    <t>Pumpkin (Lit)</t>
+  </si>
+  <si>
+    <t>Κολοκύθα (Lit)</t>
+  </si>
+  <si>
+    <t>Punctuation Mark</t>
+  </si>
+  <si>
+    <t>Σημείο στίξης</t>
+  </si>
+  <si>
+    <t>Quake</t>
+  </si>
+  <si>
+    <t>Σεισμός</t>
+  </si>
+  <si>
+    <t>R.E.P.O.</t>
+  </si>
+  <si>
+    <t>Rabbit</t>
+  </si>
+  <si>
+    <t>Κουνέλι</t>
+  </si>
+  <si>
+    <t>Railway</t>
+  </si>
+  <si>
+    <t>Σιδηροδρομικός</t>
+  </si>
+  <si>
+    <t>Rain World</t>
+  </si>
+  <si>
+    <t>Κόσμος της βροχής</t>
+  </si>
+  <si>
+    <t>Ratatouille</t>
+  </si>
+  <si>
+    <t>Ratchet &amp; Clank</t>
+  </si>
+  <si>
+    <t>Re:Creators</t>
+  </si>
+  <si>
+    <t>Re:Δημιουργοί</t>
+  </si>
+  <si>
+    <t>Re:Zero</t>
+  </si>
+  <si>
+    <t>Realm of the Mad God</t>
+  </si>
+  <si>
+    <t>Red Dead Redemption</t>
+  </si>
+  <si>
+    <t>Red Riding Hood</t>
+  </si>
+  <si>
+    <t>Κοκκινοσκουφίτσα</t>
+  </si>
+  <si>
+    <t>Redstone</t>
+  </si>
+  <si>
+    <t>Regional Form Pokemon</t>
+  </si>
+  <si>
+    <t>Pokemon περιφερειακής μορφής</t>
+  </si>
+  <si>
+    <t>Regretavator</t>
+  </si>
+  <si>
+    <t>Regular Show</t>
+  </si>
+  <si>
+    <t>Κανονική εκπομπή</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>Θρησκεία</t>
+  </si>
+  <si>
+    <t>Reptile</t>
+  </si>
+  <si>
+    <t>Ερπετά</t>
+  </si>
+  <si>
+    <t>Rescue Rangers</t>
+  </si>
+  <si>
+    <t>Resident Evil</t>
+  </si>
+  <si>
+    <t>Rhythm Heaven</t>
+  </si>
+  <si>
+    <t>Ρυθμός Heaven</t>
+  </si>
+  <si>
+    <t>Ribbon</t>
+  </si>
+  <si>
+    <t>Κορδέλα</t>
+  </si>
+  <si>
+    <t>Rick and Morty</t>
+  </si>
+  <si>
+    <t>Risk of Rain</t>
+  </si>
+  <si>
+    <t>Κίνδυνος βροχής</t>
+  </si>
+  <si>
+    <t>Rival of Aether</t>
+  </si>
+  <si>
+    <t>Αντίπαλος του Αιθέρα</t>
+  </si>
+  <si>
+    <t>River</t>
+  </si>
+  <si>
+    <t>Ποταμός</t>
+  </si>
+  <si>
+    <t>Riverdale</t>
+  </si>
+  <si>
+    <t>Robin Hood</t>
+  </si>
+  <si>
+    <t>Ρομπέν των Δασών</t>
+  </si>
+  <si>
+    <t>Roblox</t>
+  </si>
+  <si>
+    <t>RoboCop</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>Ρομπότ</t>
+  </si>
+  <si>
+    <t>Rocky</t>
+  </si>
+  <si>
+    <t>Rocky Horror Picture Show</t>
+  </si>
+  <si>
+    <t>Rodent</t>
+  </si>
+  <si>
+    <t>Τρωκτικά</t>
+  </si>
+  <si>
+    <t>Rotated Entity</t>
+  </si>
+  <si>
+    <t>Περιστρεφόμενη οντότητα</t>
+  </si>
+  <si>
+    <t>Royal Headgear</t>
+  </si>
+  <si>
+    <t>Βασιλικό κάλυμμα κεφαλής</t>
+  </si>
+  <si>
+    <t>Rune</t>
+  </si>
+  <si>
+    <t>Runescape</t>
+  </si>
+  <si>
+    <t>RWBY</t>
+  </si>
+  <si>
+    <t>Sackboy: A Big Adventure</t>
+  </si>
+  <si>
+    <t>Sackboy: Sackboy: Μια μεγάλη περιπέτεια</t>
+  </si>
+  <si>
+    <t>Sad Creature</t>
+  </si>
+  <si>
+    <t>Θλιβερό πλάσμα</t>
+  </si>
+  <si>
+    <t>Sad Person</t>
+  </si>
+  <si>
+    <t>Safari (Other)</t>
+  </si>
+  <si>
+    <t>Σαφάρι (άλλο)</t>
+  </si>
+  <si>
+    <t>Saga of Tanya the Evil</t>
+  </si>
+  <si>
+    <t>Το έπος της Τάνιας της Κακιάς</t>
+  </si>
+  <si>
+    <t>Sailor Moon</t>
+  </si>
+  <si>
+    <t>Sakurasou no Pet na Kanojo</t>
+  </si>
+  <si>
+    <t>Samurai Helmet</t>
+  </si>
+  <si>
+    <t>Κράνος σαμουράι</t>
+  </si>
+  <si>
+    <t>Satisfactory</t>
+  </si>
+  <si>
+    <t>Ικανοποιητικό</t>
+  </si>
+  <si>
+    <t>Saw</t>
+  </si>
+  <si>
+    <t>Πριόνι</t>
+  </si>
+  <si>
+    <t>Scarf</t>
+  </si>
+  <si>
+    <t>Φουλάρι</t>
+  </si>
+  <si>
+    <t>Scooby-Doo</t>
+  </si>
+  <si>
+    <t>SCP Containment Breach</t>
+  </si>
+  <si>
+    <t>Παραβίαση περιορισμού SCP</t>
+  </si>
+  <si>
+    <t>Scream</t>
+  </si>
+  <si>
+    <t>Scribblenauts</t>
+  </si>
+  <si>
+    <t>Sea of Thieves</t>
+  </si>
+  <si>
+    <t>Seafarer</t>
+  </si>
+  <si>
+    <t>Ναυτικός</t>
+  </si>
+  <si>
+    <t>Seraph of the End</t>
+  </si>
+  <si>
+    <t>Σεραφείμ του τέλους</t>
+  </si>
+  <si>
+    <t>Serial Experiments Lain</t>
+  </si>
+  <si>
+    <t>Σειριακά πειράματα Lain</t>
+  </si>
+  <si>
+    <t>Sesame Street</t>
+  </si>
+  <si>
+    <t>Seven Deadly Sins</t>
+  </si>
+  <si>
+    <t>Επτά θανάσιμα αμαρτήματα</t>
+  </si>
+  <si>
+    <t>Shadow of the Colossus</t>
+  </si>
+  <si>
+    <t>Η σκιά του Κολοσσού</t>
+  </si>
+  <si>
+    <t>Shadows of Mordor</t>
+  </si>
+  <si>
+    <t>Σκιές της Μόρντορ</t>
+  </si>
+  <si>
+    <t>Sheep</t>
+  </si>
+  <si>
+    <t>Πρόβατα</t>
+  </si>
+  <si>
+    <t>Sherlock Holmes</t>
+  </si>
+  <si>
+    <t>Σέρλοκ Χολμς</t>
+  </si>
+  <si>
+    <t>Shigatsu wa Kimi no Uso</t>
+  </si>
+  <si>
+    <t>Shimoneta</t>
+  </si>
+  <si>
+    <t>Shiny Pokemon</t>
+  </si>
+  <si>
+    <t>Λαμπερό Pokemon</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>Αποστολή</t>
+  </si>
+  <si>
+    <t>Shovel Knight</t>
+  </si>
+  <si>
+    <t>Shrek</t>
+  </si>
+  <si>
+    <t>Σρεκ</t>
+  </si>
+  <si>
+    <t>Shulker</t>
+  </si>
+  <si>
+    <t>Silent Hill</t>
+  </si>
+  <si>
+    <t>SilvaGunner</t>
+  </si>
+  <si>
+    <t>Simpsons</t>
+  </si>
+  <si>
+    <t>Skeleton</t>
+  </si>
+  <si>
+    <t>Σκελετός</t>
+  </si>
+  <si>
+    <t>Skeleton (Vanilla)</t>
+  </si>
+  <si>
+    <t>Σκελετός (βανίλια)</t>
+  </si>
+  <si>
+    <t>Skeptical Creature</t>
+  </si>
+  <si>
+    <t>Σκεπτικό πλάσμα</t>
+  </si>
+  <si>
+    <t>Skeptical Person</t>
+  </si>
+  <si>
+    <t>Σκεπτικιστής</t>
+  </si>
+  <si>
+    <t>Skullgirls</t>
+  </si>
+  <si>
+    <t>Skyrim</t>
+  </si>
+  <si>
+    <t>Sleeping Beauty</t>
+  </si>
+  <si>
+    <t>Ωραία Κοιμωμένη</t>
+  </si>
+  <si>
+    <t>Sleeping Creature</t>
+  </si>
+  <si>
+    <t>Κοιμώμενο πλάσμα</t>
+  </si>
+  <si>
+    <t>Sleeping Person</t>
+  </si>
+  <si>
+    <t>Κοιμώμενο άτομο</t>
+  </si>
+  <si>
+    <t>Sliced</t>
+  </si>
+  <si>
+    <t>Φέτες</t>
+  </si>
+  <si>
+    <t>Slime</t>
+  </si>
+  <si>
+    <t>Slime (Vanilla)</t>
+  </si>
+  <si>
+    <t>Slime (βανίλια)</t>
+  </si>
+  <si>
+    <t>Slime Rancher</t>
+  </si>
+  <si>
+    <t>Slimefun</t>
+  </si>
+  <si>
+    <t>Sly Cooper</t>
+  </si>
+  <si>
+    <t>Smite Gods</t>
+  </si>
+  <si>
+    <t>Smite Θεοί</t>
+  </si>
+  <si>
+    <t>Smoking</t>
+  </si>
+  <si>
+    <t>Κάπνισμα</t>
+  </si>
+  <si>
+    <t>Smurfs</t>
+  </si>
+  <si>
+    <t>Στρουμφάκια</t>
+  </si>
+  <si>
+    <t>Snow Fight</t>
+  </si>
+  <si>
+    <t>Καταπολέμηση χιονιού</t>
+  </si>
+  <si>
+    <t>Snow Sculpture</t>
+  </si>
+  <si>
+    <t>Γλυπτό χιονιού</t>
+  </si>
+  <si>
+    <t>Snow White and the Seven Dwarfs</t>
+  </si>
+  <si>
+    <t>Η Χιονάτη και οι Επτά Νάνοι</t>
+  </si>
+  <si>
+    <t>Songs of War</t>
+  </si>
+  <si>
+    <t>Τραγούδια του πολέμου</t>
+  </si>
+  <si>
+    <t>Sonic the Hedgehog</t>
+  </si>
+  <si>
+    <t>Soul Knight</t>
+  </si>
+  <si>
+    <t>Ιππότης ψυχής</t>
+  </si>
+  <si>
+    <t>South Park</t>
+  </si>
+  <si>
+    <t>Space Travel</t>
+  </si>
+  <si>
+    <t>Διαστημικά ταξίδια</t>
+  </si>
+  <si>
+    <t>Spawn Egg</t>
+  </si>
+  <si>
+    <t>Αυγό αναπαραγωγής</t>
+  </si>
+  <si>
+    <t>Spawner</t>
+  </si>
+  <si>
+    <t>Spelunky</t>
+  </si>
+  <si>
+    <t>Spider</t>
+  </si>
+  <si>
+    <t>Αράχνη</t>
+  </si>
+  <si>
+    <t>Spider (Vanilla)</t>
+  </si>
+  <si>
+    <t>Αράχνη (βανίλια)</t>
+  </si>
+  <si>
+    <t>Spiderman</t>
+  </si>
+  <si>
+    <t>Spirited Away</t>
+  </si>
+  <si>
+    <t>Splatoon</t>
+  </si>
+  <si>
+    <t>Spongebob Squarepants</t>
+  </si>
+  <si>
+    <t>Μπομπ Σφουγγαράκης</t>
+  </si>
+  <si>
+    <t>Spooky's Jump Scare Mansion</t>
+  </si>
+  <si>
+    <t>Έπαυλη τρόμου άλματος του Spooky</t>
+  </si>
+  <si>
+    <t>Spore</t>
+  </si>
+  <si>
+    <t>Σπόροι</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>Αθλητισμός</t>
+  </si>
+  <si>
+    <t>Spreads</t>
+  </si>
+  <si>
+    <t>Διασπάσματα</t>
+  </si>
+  <si>
+    <t>Spring to Life</t>
+  </si>
+  <si>
+    <t>Άνοιξη στη ζωή</t>
+  </si>
+  <si>
+    <t>Spy x Family</t>
+  </si>
+  <si>
+    <t>Κατάσκοπος x Οικογένεια</t>
+  </si>
+  <si>
+    <t>Spyro</t>
+  </si>
+  <si>
+    <t>Squid Game</t>
+  </si>
+  <si>
+    <t>Παιχνίδι καλαμάρι</t>
+  </si>
+  <si>
+    <t>St. Patrick's Day</t>
+  </si>
+  <si>
+    <t>Ημέρα του Αγίου Πατρικίου</t>
+  </si>
+  <si>
+    <t>StackUp</t>
+  </si>
+  <si>
+    <t>Star Fox</t>
+  </si>
+  <si>
+    <t>Star Trek</t>
+  </si>
+  <si>
+    <t>Star vs the Forces of Evil</t>
+  </si>
+  <si>
+    <t>Το αστέρι εναντίον των δυνάμεων του κακού</t>
+  </si>
+  <si>
+    <t>Star Wars</t>
+  </si>
+  <si>
+    <t>Πόλεμος των Άστρων</t>
+  </si>
+  <si>
+    <t>Star Wars Helmet</t>
+  </si>
+  <si>
+    <t>Κράνος Star Wars</t>
+  </si>
+  <si>
+    <t>Star Wars Trooper Helmet</t>
+  </si>
+  <si>
+    <t>Κράνος στρατιώτη Star Wars</t>
+  </si>
+  <si>
+    <t>Starbucks</t>
+  </si>
+  <si>
+    <t>StarCraft</t>
+  </si>
+  <si>
+    <t>Stardew Valley</t>
+  </si>
+  <si>
+    <t>Starter Pokemon</t>
+  </si>
+  <si>
+    <t>Stationery</t>
+  </si>
+  <si>
+    <t>Χαρτικά</t>
+  </si>
+  <si>
+    <t>Steampunk</t>
+  </si>
+  <si>
+    <t>Steins;Gate</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Steven Universe</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>Πέτρα</t>
+  </si>
+  <si>
+    <t>Storage (other)</t>
+  </si>
+  <si>
+    <t>Αποθήκευση (άλλο)</t>
+  </si>
+  <si>
+    <t>Stranger Things</t>
+  </si>
+  <si>
+    <t>Street Fighter</t>
+  </si>
+  <si>
+    <t>Μαχητής του δρόμου</t>
+  </si>
+  <si>
+    <t>Strider</t>
+  </si>
+  <si>
+    <t>Subnautica</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Καλοκαίρι</t>
+  </si>
+  <si>
+    <t>Sunglasses</t>
+  </si>
+  <si>
+    <t>Γυαλιά ηλίου</t>
+  </si>
+  <si>
+    <t>Super Mario</t>
+  </si>
+  <si>
+    <t>Supernatural</t>
+  </si>
+  <si>
+    <t>Υπερφυσικό</t>
+  </si>
+  <si>
+    <t>Surprised Creature</t>
+  </si>
+  <si>
+    <t>Έκπληκτο πλάσμα</t>
+  </si>
+  <si>
+    <t>Surprised Person</t>
+  </si>
+  <si>
+    <t>Έκπληκτος άνθρωπος</t>
+  </si>
+  <si>
+    <t>Sushi</t>
+  </si>
+  <si>
+    <t>Swamp</t>
+  </si>
+  <si>
+    <t>Βάλτος</t>
+  </si>
+  <si>
+    <t>Sword Art Online</t>
+  </si>
+  <si>
+    <t>TaleSpin</t>
+  </si>
+  <si>
+    <t>Tangled</t>
+  </si>
+  <si>
+    <t>Tattletail</t>
+  </si>
+  <si>
+    <t>Team Fortress 2</t>
+  </si>
+  <si>
+    <t>Ομάδα Fortress 2</t>
+  </si>
+  <si>
+    <t>Teletubbies</t>
+  </si>
+  <si>
+    <t>Terraria</t>
+  </si>
+  <si>
+    <t>Terraria (Calamity)</t>
+  </si>
+  <si>
+    <t>Tetris</t>
+  </si>
+  <si>
+    <t>Thanksgiving</t>
+  </si>
+  <si>
+    <t>Ημέρα των Ευχαριστιών</t>
+  </si>
+  <si>
+    <t>That Time I Got Reincarnated as a Slime</t>
+  </si>
+  <si>
+    <t>Εκείνη τη φορά που μετενσαρκώθηκα ως γλίτσα</t>
+  </si>
+  <si>
+    <t>Thaumcraft</t>
+  </si>
+  <si>
+    <t>The Adventures of Tintin</t>
+  </si>
+  <si>
+    <t>Οι περιπέτειες του Τεντέν</t>
+  </si>
+  <si>
+    <t>The Amazing Digital Circus</t>
+  </si>
+  <si>
+    <t>Το καταπληκτικό ψηφιακό τσίρκο</t>
+  </si>
+  <si>
+    <t>The Amazing World of Gumball</t>
+  </si>
+  <si>
+    <t>Ο καταπληκτικός κόσμος του Gumball</t>
+  </si>
+  <si>
+    <t>The Binding of Isaac</t>
+  </si>
+  <si>
+    <t>Το Binding of Isaac</t>
+  </si>
+  <si>
+    <t>The Boys</t>
+  </si>
+  <si>
+    <t>Τα αγόρια</t>
+  </si>
+  <si>
+    <t>The Cat Returns</t>
+  </si>
+  <si>
+    <t>Η γάτα επιστρέφει</t>
+  </si>
+  <si>
+    <t>The Conjuring</t>
+  </si>
+  <si>
+    <t>Το Conjuring</t>
+  </si>
+  <si>
+    <t>The Copper Age</t>
+  </si>
+  <si>
+    <t>Η εποχή του χαλκού</t>
+  </si>
+  <si>
+    <t>The Emperor's New Groove</t>
+  </si>
+  <si>
+    <t>Το νέο αυλάκι του αυτοκράτορα</t>
+  </si>
+  <si>
+    <t>The English Ensemble Stars</t>
+  </si>
+  <si>
+    <t>Οι πρωταγωνιστές του αγγλικού Ensemble</t>
+  </si>
+  <si>
+    <t>The Fairly OddParents</t>
+  </si>
+  <si>
+    <t>The Finals</t>
+  </si>
+  <si>
+    <t>Οι τελικοί</t>
+  </si>
+  <si>
+    <t>The Flash</t>
+  </si>
+  <si>
+    <t>The Flintstones</t>
+  </si>
+  <si>
+    <t>Οι Flintstones</t>
+  </si>
+  <si>
+    <t>The Fly</t>
+  </si>
+  <si>
+    <t>Η μύγα</t>
+  </si>
+  <si>
+    <t>The Garden Awakens</t>
+  </si>
+  <si>
+    <t>Ο κήπος ξυπνάει</t>
+  </si>
+  <si>
+    <t>The Good Dinosaur</t>
+  </si>
+  <si>
+    <t>Ο καλός δεινόσαυρος</t>
+  </si>
+  <si>
+    <t>The Great Mouse Detective</t>
+  </si>
+  <si>
+    <t>Ο μεγάλος ντετέκτιβ ποντικιών</t>
+  </si>
+  <si>
+    <t>The Grim Adventures of Billy &amp; Mandy</t>
+  </si>
+  <si>
+    <t>Οι ζοφερές περιπέτειες του Billy &amp; Mandy</t>
+  </si>
+  <si>
+    <t>The Hunchback of Notre Dame</t>
+  </si>
+  <si>
+    <t>Ο καμπούρης της Παναγίας των Παρισίων</t>
+  </si>
+  <si>
+    <t>The Iron Giant</t>
+  </si>
+  <si>
+    <t>Ο σιδερένιος γίγαντας</t>
+  </si>
+  <si>
+    <t>The Last Guardian</t>
+  </si>
+  <si>
+    <t>Ο Τελευταίος Φύλακας</t>
+  </si>
+  <si>
+    <t>The Last of Us</t>
+  </si>
+  <si>
+    <t>The Legend of Zelda</t>
+  </si>
+  <si>
+    <t>Ο θρύλος του Zelda</t>
+  </si>
+  <si>
+    <t>The Lorax</t>
+  </si>
+  <si>
+    <t>Ο Λόραξ</t>
+  </si>
+  <si>
+    <t>The Neverhood</t>
+  </si>
+  <si>
+    <t>Το Neverhood</t>
+  </si>
+  <si>
+    <t>The Owl House</t>
+  </si>
+  <si>
+    <t>Το σπίτι της κουκουβάγιας</t>
+  </si>
+  <si>
+    <t>The Princess and the Frog</t>
+  </si>
+  <si>
+    <t>Η πριγκίπισσα και ο βάτραχος</t>
+  </si>
+  <si>
+    <t>The Ren &amp; Stimpy Show</t>
+  </si>
+  <si>
+    <t>Η εκπομπή Ren &amp; Stimpy Show</t>
+  </si>
+  <si>
+    <t>The Road to El Dorado</t>
+  </si>
+  <si>
+    <t>Ο δρόμος προς το El Dorado</t>
+  </si>
+  <si>
+    <t>The Texas Chainsaw Massacre</t>
+  </si>
+  <si>
+    <t>Η σφαγή με το αλυσοπρίονο του Τέξας</t>
+  </si>
+  <si>
+    <t>The Three Caballeros</t>
+  </si>
+  <si>
+    <t>Οι τρεις καμπαλέρος</t>
+  </si>
+  <si>
+    <t>The Walten Files</t>
+  </si>
+  <si>
+    <t>Τα αρχεία Walten</t>
+  </si>
+  <si>
+    <t>The Woody Woodpecker Show</t>
+  </si>
+  <si>
+    <t>Το σόου του Woody Woodpecker</t>
+  </si>
+  <si>
+    <t>Thomas &amp; Friends</t>
+  </si>
+  <si>
+    <t>Thor</t>
+  </si>
+  <si>
+    <t>Those Nights at Rachel's</t>
+  </si>
+  <si>
+    <t>Εκείνες οι νύχτες στης Ρέιτσελ</t>
+  </si>
+  <si>
+    <t>Tinker's Construct</t>
+  </si>
+  <si>
+    <t>Titanfall</t>
+  </si>
+  <si>
+    <t>Tokyo Ghoul</t>
+  </si>
+  <si>
+    <t>Tom and Jerry</t>
+  </si>
+  <si>
+    <t>Τομ και Τζέρι</t>
+  </si>
+  <si>
+    <t>Tomb Raider</t>
+  </si>
+  <si>
+    <t>Tomorrow's Pioneers</t>
+  </si>
+  <si>
+    <t>Οι αυριανοί πρωτοπόροι</t>
+  </si>
+  <si>
+    <t>Tooth Gap</t>
+  </si>
+  <si>
+    <t>Χάσμα δοντιών</t>
+  </si>
+  <si>
+    <t>Toradora</t>
+  </si>
+  <si>
+    <t>Total Drama Island</t>
+  </si>
+  <si>
+    <t>Σύνολο Νησί Δράμας</t>
+  </si>
+  <si>
+    <t>Touhou Project</t>
+  </si>
+  <si>
+    <t>Toy</t>
+  </si>
+  <si>
+    <t>Παιχνίδι</t>
+  </si>
+  <si>
+    <t>Toy Story</t>
+  </si>
+  <si>
+    <t>Traffic</t>
+  </si>
+  <si>
+    <t>Κυκλοφορία</t>
+  </si>
+  <si>
+    <t>Traffic Light</t>
+  </si>
+  <si>
+    <t>Φως κυκλοφορίας</t>
+  </si>
+  <si>
+    <t>Traffic Sign</t>
+  </si>
+  <si>
+    <t>Σήμα κυκλοφορίας</t>
+  </si>
+  <si>
+    <t>Trails and Tales</t>
+  </si>
+  <si>
+    <t>Μονοπάτια και ιστορίες</t>
+  </si>
+  <si>
+    <t>Transformers</t>
+  </si>
+  <si>
+    <t>Μετασχηματιστές</t>
+  </si>
+  <si>
+    <t>Transformice</t>
+  </si>
+  <si>
+    <t>Transparent Head</t>
+  </si>
+  <si>
+    <t>Διαφανές κεφάλι</t>
+  </si>
+  <si>
+    <t>Trash Can</t>
+  </si>
+  <si>
+    <t>Κάδος απορριμμάτων</t>
+  </si>
+  <si>
+    <t>Treasure</t>
+  </si>
+  <si>
+    <t>Θησαυρός</t>
+  </si>
+  <si>
+    <t>Treasure Planet</t>
+  </si>
+  <si>
+    <t>Ο πλανήτης των θησαυρών</t>
+  </si>
+  <si>
+    <t>Tricky Trials Update</t>
+  </si>
+  <si>
+    <t>Επικίνδυνη ενημέρωση δοκιμών</t>
+  </si>
+  <si>
+    <t>Tron</t>
+  </si>
+  <si>
+    <t>Turtle</t>
+  </si>
+  <si>
+    <t>Χελώνα</t>
+  </si>
+  <si>
+    <t>Twilight Forest</t>
+  </si>
+  <si>
+    <t>Δάσος λυκόφωτος</t>
+  </si>
+  <si>
+    <t>Twisted Wonderland</t>
+  </si>
+  <si>
+    <t>Ultrakill</t>
+  </si>
+  <si>
+    <t>Umineko - When They Cry</t>
+  </si>
+  <si>
+    <t>Umineko - Όταν κλαίνε</t>
+  </si>
+  <si>
+    <t>Undertale</t>
+  </si>
+  <si>
+    <t>Undertale AU</t>
+  </si>
+  <si>
+    <t>Undertale Yellow</t>
+  </si>
+  <si>
+    <t>Undertale κίτρινο</t>
+  </si>
+  <si>
+    <t>Universal Symbol</t>
+  </si>
+  <si>
+    <t>Παγκόσμιο σύμβολο</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Urban Wildlife</t>
+  </si>
+  <si>
+    <t>Αστική άγρια ζωή</t>
+  </si>
+  <si>
+    <t>V for Vendetta</t>
+  </si>
+  <si>
+    <t>Valentines</t>
+  </si>
+  <si>
+    <t>Βαλεντίνος</t>
+  </si>
+  <si>
+    <t>Valorant</t>
+  </si>
+  <si>
+    <t>Vanilla (removed)</t>
+  </si>
+  <si>
+    <t>Βανίλια (αφαιρείται)</t>
+  </si>
+  <si>
+    <t>Vanilla Block</t>
+  </si>
+  <si>
+    <t>Μπλοκ βανίλιας</t>
+  </si>
+  <si>
+    <t>Vanilla Food</t>
+  </si>
+  <si>
+    <t>Τρόφιμα βανίλιας</t>
+  </si>
+  <si>
+    <t>Vanilla Helmet</t>
+  </si>
+  <si>
+    <t>Κράνος βανίλιας</t>
+  </si>
+  <si>
+    <t>Vanilla Item</t>
+  </si>
+  <si>
+    <t>Στοιχείο βανίλιας</t>
+  </si>
+  <si>
+    <t>Vanilla Mob</t>
+  </si>
+  <si>
+    <t>Vault Hunters</t>
+  </si>
+  <si>
+    <t>Vegetable</t>
+  </si>
+  <si>
+    <t>Λαχανικά</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t>Όχημα</t>
+  </si>
+  <si>
+    <t>Vikings</t>
+  </si>
+  <si>
+    <t>Βίκινγκς</t>
+  </si>
+  <si>
+    <t>Villager</t>
+  </si>
+  <si>
+    <t>Χωρικός</t>
+  </si>
+  <si>
+    <t>Villager (Desert)</t>
+  </si>
+  <si>
+    <t>Χωρικός (έρημος)</t>
+  </si>
+  <si>
+    <t>Villager (Jungle)</t>
+  </si>
+  <si>
+    <t>Χωρικός (ζούγκλα)</t>
+  </si>
+  <si>
+    <t>Villager (Plains)</t>
+  </si>
+  <si>
+    <t>Χωρικός (πεδιάδες)</t>
+  </si>
+  <si>
+    <t>Villager (Savanna)</t>
+  </si>
+  <si>
+    <t>Χωρικός (Σαβάνα)</t>
+  </si>
+  <si>
+    <t>Villager (Snowy Tundra)</t>
+  </si>
+  <si>
+    <t>Χωρικός (Χιονισμένη Τούνδρα)</t>
+  </si>
+  <si>
+    <t>Villager (Swamp)</t>
+  </si>
+  <si>
+    <t>Χωρικός (Βάλτος)</t>
+  </si>
+  <si>
+    <t>Villager (Taiga)</t>
+  </si>
+  <si>
+    <t>Χωρικός (Taiga)</t>
+  </si>
+  <si>
+    <t>Virtual Youtuber</t>
+  </si>
+  <si>
+    <t>Εικονικός Youtuber</t>
+  </si>
+  <si>
+    <t>Vocaloid</t>
+  </si>
+  <si>
+    <t>Voltron</t>
+  </si>
+  <si>
+    <t>Wakfu</t>
+  </si>
+  <si>
+    <t>Walking Dead</t>
+  </si>
+  <si>
+    <t>Wall-E</t>
+  </si>
+  <si>
+    <t>Wallace and Gromit</t>
+  </si>
+  <si>
+    <t>Wallace και Gromit</t>
+  </si>
+  <si>
+    <t>War of the Worlds</t>
+  </si>
+  <si>
+    <t>Πόλεμος των Κόσμων</t>
+  </si>
+  <si>
+    <t>Warcraft</t>
+  </si>
+  <si>
+    <t>Warframe</t>
+  </si>
+  <si>
+    <t>Warhammer</t>
+  </si>
+  <si>
+    <t>Warrior Cats</t>
+  </si>
+  <si>
+    <t>Γάτες πολεμιστές</t>
+  </si>
+  <si>
+    <t>We Bear Bears</t>
+  </si>
+  <si>
+    <t>Εμείς αρκούδες αρκούδες</t>
+  </si>
+  <si>
+    <t>We Happy Few</t>
+  </si>
+  <si>
+    <t>Εμείς οι λίγοι ευτυχισμένοι</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>Καιρός</t>
+  </si>
+  <si>
+    <t>Welcome Home</t>
+  </si>
+  <si>
+    <t>Καλώς ήρθατε στο σπίτι</t>
+  </si>
+  <si>
+    <t>Who is this?</t>
+  </si>
+  <si>
+    <t>Ποιος είναι αυτός;</t>
+  </si>
+  <si>
+    <t>Wild Update</t>
+  </si>
+  <si>
+    <t>Άγρια ενημέρωση</t>
+  </si>
+  <si>
+    <t>Wings of Fire</t>
+  </si>
+  <si>
+    <t>Φτερά της φωτιάς</t>
+  </si>
+  <si>
+    <t>Winnie the Pooh</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>Χειμώνας</t>
+  </si>
+  <si>
+    <t>Witcher</t>
+  </si>
+  <si>
+    <t>Wonderful Wonder World</t>
+  </si>
+  <si>
+    <t>Υπέροχος κόσμος των θαυμάτων</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Ξύλο</t>
+  </si>
+  <si>
+    <t>Wool</t>
+  </si>
+  <si>
+    <t>Μαλλί</t>
+  </si>
+  <si>
+    <t>Work Safety Helmet</t>
+  </si>
+  <si>
+    <t>Κράνος ασφαλείας εργασίας</t>
+  </si>
+  <si>
+    <t>Wreck It Ralph</t>
+  </si>
+  <si>
+    <t>Wybel</t>
+  </si>
+  <si>
+    <t>Wynncraft</t>
+  </si>
+  <si>
+    <t>X-Men</t>
+  </si>
+  <si>
+    <t>Xenoblade Chronicles</t>
+  </si>
+  <si>
+    <t>Yandere Simulator</t>
+  </si>
+  <si>
+    <t>Προσομοιωτής Yandere</t>
+  </si>
+  <si>
+    <t>Yellow Submarine</t>
+  </si>
+  <si>
+    <t>Κίτρινο υποβρύχιο</t>
+  </si>
+  <si>
+    <t>Yokai</t>
+  </si>
+  <si>
+    <t>Yooka Laylee</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>Νέοι</t>
+  </si>
+  <si>
+    <t>Youtube</t>
+  </si>
+  <si>
+    <t>Yu-Gi-Oh</t>
+  </si>
+  <si>
+    <t>Yume Nikki</t>
+  </si>
+  <si>
+    <t>Zero no Tsukaima</t>
+  </si>
+  <si>
+    <t>Zero Wing</t>
+  </si>
+  <si>
+    <t>Μηδενική πτέρυγα</t>
+  </si>
+  <si>
+    <t>Zodiac Sign</t>
+  </si>
+  <si>
+    <t>Ζώδιο</t>
+  </si>
+  <si>
+    <t>Zombie</t>
+  </si>
+  <si>
+    <t>Ζόμπι</t>
+  </si>
+  <si>
+    <t>Zombie (Vanilla)</t>
+  </si>
+  <si>
+    <t>Ζόμπι (βανίλια)</t>
+  </si>
+  <si>
+    <t>Zootopia</t>
+  </si>
+  <si>
     <t>Hypixel (Mutations) Tag</t>
   </si>
   <si>
     <t>Ετικέτα Hypixel (μεταλλάξεις)</t>
-  </si>
-  <si>
-    <t>Hypixel (NPC)</t>
-  </si>
-  <si>
-    <t>Hypixel (Pets)</t>
-  </si>
-  <si>
-    <t>Hypixel (Κατοικίδια)</t>
-  </si>
-  <si>
-    <t>Hypixel (Reforge Stone)</t>
-  </si>
-  <si>
-    <t>Hypixel (πέτρα επανασφυρηλάτησης)</t>
-  </si>
-  <si>
-    <t>Hypixel (Sacks)</t>
-  </si>
-  <si>
-    <t>Hypixel (Σάκοι)</t>
-  </si>
-  <si>
-    <t>Hypixel (Skins)</t>
-  </si>
-  <si>
-    <t>Hypixel (Talismans)</t>
-  </si>
-  <si>
-    <t>Hypixel (Ταλισμάν)</t>
-  </si>
-  <si>
-    <t>Hypixel (Trophy Fish)</t>
-  </si>
-  <si>
-    <t>Hypixel (Ψάρι τρόπαιο)</t>
-  </si>
-  <si>
-    <t>Hōseki no Kuni (Land of the Lustrous)</t>
-  </si>
-  <si>
-    <t>Hōseki no Kuni (Γη της Λάμψης)</t>
-  </si>
-  <si>
-    <t>Ib</t>
-  </si>
-  <si>
-    <t>Ice Age</t>
-  </si>
-  <si>
-    <t>Εποχή των Παγετώνων</t>
-  </si>
-  <si>
-    <t>Ice Climber</t>
-  </si>
-  <si>
-    <t>Ορειβάτης πάγου</t>
-  </si>
-  <si>
-    <t>Ice Cream</t>
-  </si>
-  <si>
-    <t>Παγωτό</t>
-  </si>
-  <si>
-    <t>Icons (GUI)</t>
-  </si>
-  <si>
-    <t>Εικονίδια (GUI)</t>
-  </si>
-  <si>
-    <t>Icons (Ironblock)</t>
-  </si>
-  <si>
-    <t>Εικόνες (Ironblock)</t>
-  </si>
-  <si>
-    <t>Icons (Other)</t>
-  </si>
-  <si>
-    <t>Εικονίδια (άλλα)</t>
-  </si>
-  <si>
-    <t>Icons (white background)</t>
-  </si>
-  <si>
-    <t>Εικονίδια (λευκό φόντο)</t>
-  </si>
-  <si>
-    <t>Identity V</t>
-  </si>
-  <si>
-    <t>Ταυτότητα V</t>
-  </si>
-  <si>
-    <t>Illager</t>
-  </si>
-  <si>
-    <t>Inazuma Eleven</t>
-  </si>
-  <si>
-    <t>Incredibles</t>
-  </si>
-  <si>
-    <t>Απίθανοι</t>
-  </si>
-  <si>
-    <t>Indiana Jones</t>
-  </si>
-  <si>
-    <t>Ιντιάνα Τζόουνς</t>
-  </si>
-  <si>
-    <t>Indigo Park</t>
-  </si>
-  <si>
-    <t>Πάρκο Indigo</t>
-  </si>
-  <si>
-    <t>Injuries</t>
-  </si>
-  <si>
-    <t>Τραυματισμοί</t>
-  </si>
-  <si>
-    <t>Inner Layer Block</t>
-  </si>
-  <si>
-    <t>Μπλοκ εσωτερικού στρώματος</t>
-  </si>
-  <si>
-    <t>Inscryption</t>
-  </si>
-  <si>
-    <t>Κρυπτογράφηση</t>
-  </si>
-  <si>
-    <t>Insect</t>
-  </si>
-  <si>
-    <t>Έντομο</t>
-  </si>
-  <si>
-    <t>Inside Out</t>
-  </si>
-  <si>
-    <t>Inu Yasha</t>
-  </si>
-  <si>
-    <t>Invader Zim</t>
-  </si>
-  <si>
-    <t>Εισβολέας Zim</t>
-  </si>
-  <si>
-    <t>Invincible</t>
-  </si>
-  <si>
-    <t>Αήττητος</t>
-  </si>
-  <si>
-    <t>Iron Man</t>
-  </si>
-  <si>
-    <t>It</t>
-  </si>
-  <si>
-    <t>Είναι</t>
-  </si>
-  <si>
-    <t>Jak and Daxter</t>
-  </si>
-  <si>
-    <t>Jak και Daxter</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Ιαπωνία</t>
-  </si>
-  <si>
-    <t>Jar</t>
-  </si>
-  <si>
-    <t>Βάζο</t>
-  </si>
-  <si>
-    <t>Jewelry</t>
-  </si>
-  <si>
-    <t>Κοσμήματα</t>
-  </si>
-  <si>
-    <t>JoJo's Bizarre Adventure</t>
-  </si>
-  <si>
-    <t>Η παράξενη περιπέτεια του JoJo</t>
-  </si>
-  <si>
-    <t>JoJo's Bizarre Adventure (Stand)</t>
-  </si>
-  <si>
-    <t>Η παράξενη περιπέτεια του JoJo (Stand)</t>
-  </si>
-  <si>
-    <t>Journey</t>
-  </si>
-  <si>
-    <t>Ταξίδι</t>
-  </si>
-  <si>
-    <t>Jujutsu Kaisen</t>
-  </si>
-  <si>
-    <t>Jump King</t>
-  </si>
-  <si>
-    <t>Jurassic Park</t>
-  </si>
-  <si>
-    <t>Justice League</t>
-  </si>
-  <si>
-    <t>Λεγεώνα της Δικαιοσύνης</t>
-  </si>
-  <si>
-    <t>Kaiju Paradise</t>
-  </si>
-  <si>
-    <t>Παράδεισος Kaiju</t>
-  </si>
-  <si>
-    <t>Kakegurui</t>
-  </si>
-  <si>
-    <t>Karate Kid</t>
-  </si>
-  <si>
-    <t>Katamari Damacy</t>
-  </si>
-  <si>
-    <t>Kid Icarus</t>
-  </si>
-  <si>
-    <t>Kiki's Delivery Service</t>
-  </si>
-  <si>
-    <t>Υπηρεσία παράδοσης της Kiki</t>
-  </si>
-  <si>
-    <t>Kill la Kill</t>
-  </si>
-  <si>
-    <t>Killzone</t>
-  </si>
-  <si>
-    <t>Kim Possible</t>
-  </si>
-  <si>
-    <t>Kimetsu no Yaiba</t>
-  </si>
-  <si>
-    <t>Kingdom Hearts</t>
-  </si>
-  <si>
-    <t>Kirby</t>
-  </si>
-  <si>
-    <t>Kitchen</t>
-  </si>
-  <si>
-    <t>Κουζίνα</t>
-  </si>
-  <si>
-    <t>KonoSuba</t>
-  </si>
-  <si>
-    <t>Koopalings</t>
-  </si>
-  <si>
-    <t>Kung Fu Panda</t>
-  </si>
-  <si>
-    <t>Kuroko no Basuke</t>
-  </si>
-  <si>
-    <t>Lamp Shade</t>
-  </si>
-  <si>
-    <t>Σκέπαστρο λάμπας</t>
-  </si>
-  <si>
-    <t>Landscape</t>
-  </si>
-  <si>
-    <t>Τοπίο</t>
-  </si>
-  <si>
-    <t>Lantern</t>
-  </si>
-  <si>
-    <t>Φανάρι</t>
-  </si>
-  <si>
-    <t>Laputa: Castle in the Sky</t>
-  </si>
-  <si>
-    <t>Laputa: Κάστρο στον ουρανό</t>
-  </si>
-  <si>
-    <t>LazyTown</t>
-  </si>
-  <si>
-    <t>League of Legends</t>
-  </si>
-  <si>
-    <t>Left 4 Dead</t>
-  </si>
-  <si>
-    <t>Legendary Pokemon</t>
-  </si>
-  <si>
-    <t>Θρυλικό Pokemon</t>
-  </si>
-  <si>
-    <t>Lego</t>
-  </si>
-  <si>
-    <t>Lethal League</t>
-  </si>
-  <si>
-    <t>Θανατηφόρος Σύνδεσμος</t>
-  </si>
-  <si>
-    <t>Library of Ruina</t>
-  </si>
-  <si>
-    <t>Βιβλιοθήκη της Ruina</t>
-  </si>
-  <si>
-    <t>Life is Strange</t>
-  </si>
-  <si>
-    <t>Η ζωή είναι παράξενη</t>
-  </si>
-  <si>
-    <t>Lilo &amp; Stitch</t>
-  </si>
-  <si>
-    <t>Limbus Company</t>
-  </si>
-  <si>
-    <t>Εταιρεία Limbus</t>
-  </si>
-  <si>
-    <t>Lion King</t>
-  </si>
-  <si>
-    <t>Βασιλιάς των Λιονταριών</t>
-  </si>
-  <si>
-    <t>Little Big Planet</t>
-  </si>
-  <si>
-    <t>Μικρός μεγάλος πλανήτης</t>
-  </si>
-  <si>
-    <t>Little Mermaid</t>
-  </si>
-  <si>
-    <t>Μικρή γοργόνα</t>
-  </si>
-  <si>
-    <t>Little Nightmares</t>
-  </si>
-  <si>
-    <t>Μικροί εφιάλτες</t>
-  </si>
-  <si>
-    <t>Little Shop of Horrors</t>
-  </si>
-  <si>
-    <t>Μικρό μαγαζί του τρόμου</t>
-  </si>
-  <si>
-    <t>Little Witch Academia</t>
-  </si>
-  <si>
-    <t>Μικρή μάγισσα Academia</t>
-  </si>
-  <si>
-    <t>Llama</t>
-  </si>
-  <si>
-    <t>Λάμα</t>
-  </si>
-  <si>
-    <t>Logo</t>
-  </si>
-  <si>
-    <t>Λογότυπο</t>
-  </si>
-  <si>
-    <t>Looney Tunes</t>
-  </si>
-  <si>
-    <t>Lord of the Rings</t>
-  </si>
-  <si>
-    <t>Ο Άρχοντας των Δαχτυλιδιών</t>
-  </si>
-  <si>
-    <t>Love Live!</t>
-  </si>
-  <si>
-    <t>Lovestruck Creature</t>
-  </si>
-  <si>
-    <t>Ερωτευμένο πλάσμα</t>
-  </si>
-  <si>
-    <t>Lovestruck Person</t>
-  </si>
-  <si>
-    <t>Ερωτευμένο άτομο</t>
-  </si>
-  <si>
-    <t>Lucky Luke</t>
-  </si>
-  <si>
-    <t>Machine Part</t>
-  </si>
-  <si>
-    <t>Μέρος μηχανής</t>
-  </si>
-  <si>
-    <t>Mad Father</t>
-  </si>
-  <si>
-    <t>Mad Max</t>
-  </si>
-  <si>
-    <t>Made in Abyss</t>
-  </si>
-  <si>
-    <t>Κατασκευασμένο στην Άβυσσο</t>
-  </si>
-  <si>
-    <t>Madness Combat</t>
-  </si>
-  <si>
-    <t>Τρέλα Combat</t>
-  </si>
-  <si>
-    <t>Madoka Magica</t>
-  </si>
-  <si>
-    <t>Makeup</t>
-  </si>
-  <si>
-    <t>Μακιγιάζ</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Αρσενικό</t>
-  </si>
-  <si>
-    <t>Mao Mao Heroes of Pure Heart</t>
-  </si>
-  <si>
-    <t>Μάο Μάο Ήρωες της αγνής καρδιάς</t>
-  </si>
-  <si>
-    <t>MapleStory</t>
-  </si>
-  <si>
-    <t>Marvel</t>
-  </si>
-  <si>
-    <t>Mary and the Witch's Flower</t>
-  </si>
-  <si>
-    <t>Η Μαρία και το λουλούδι της μάγισσας</t>
-  </si>
-  <si>
-    <t>Mascot</t>
-  </si>
-  <si>
-    <t>Μασκότ</t>
-  </si>
-  <si>
-    <t>Mask</t>
-  </si>
-  <si>
-    <t>Μάσκα</t>
-  </si>
-  <si>
-    <t>Mask (full)</t>
-  </si>
-  <si>
-    <t>Μάσκα (πλήρης)</t>
-  </si>
-  <si>
-    <t>Mask (functional)</t>
-  </si>
-  <si>
-    <t>Μάσκα (λειτουργική)</t>
-  </si>
-  <si>
-    <t>Mask (health)</t>
-  </si>
-  <si>
-    <t>Μάσκα (υγεία)</t>
-  </si>
-  <si>
-    <t>Mask (Minecraft mob)</t>
-  </si>
-  <si>
-    <t>Μάσκα (Minecraft mob)</t>
-  </si>
-  <si>
-    <t>Mass Effect</t>
-  </si>
-  <si>
-    <t>Masters of the Universe</t>
-  </si>
-  <si>
-    <t>Mathematical Symbol</t>
-  </si>
-  <si>
-    <t>Μαθηματικό σύμβολο</t>
-  </si>
-  <si>
-    <t>Mc Donalds</t>
-  </si>
-  <si>
-    <t>Meal</t>
-  </si>
-  <si>
-    <t>Γεύμα</t>
-  </si>
-  <si>
-    <t>Meat</t>
-  </si>
-  <si>
-    <t>Κρέας</t>
-  </si>
-  <si>
-    <t>Medieval</t>
-  </si>
-  <si>
-    <t>Μεσαιωνικό</t>
-  </si>
-  <si>
-    <t>Medieval Tavern</t>
-  </si>
-  <si>
-    <t>Μεσαιωνική ταβέρνα</t>
-  </si>
-  <si>
-    <t>Medieval Warfare Helmet</t>
-  </si>
-  <si>
-    <t>Μεσαιωνική πολεμική περικεφαλαία</t>
-  </si>
-  <si>
-    <t>MediEvil</t>
-  </si>
-  <si>
-    <t>Mega Evolution</t>
-  </si>
-  <si>
-    <t>Megaman</t>
-  </si>
-  <si>
-    <t>Megami Tensei</t>
-  </si>
-  <si>
-    <t>Mekakucity Actors</t>
-  </si>
-  <si>
-    <t>Mekakucity Ηθοποιοί</t>
-  </si>
-  <si>
-    <t>Meme</t>
-  </si>
-  <si>
-    <t>Meme (Doge)</t>
-  </si>
-  <si>
-    <t>Meme (Pepe)</t>
-  </si>
-  <si>
-    <t>Metal</t>
-  </si>
-  <si>
-    <t>Μέταλλο</t>
-  </si>
-  <si>
-    <t>Metal Gear</t>
-  </si>
-  <si>
-    <t>Metro</t>
-  </si>
-  <si>
-    <t>Μετρό</t>
-  </si>
-  <si>
-    <t>Metroid</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Μεξικό</t>
-  </si>
-  <si>
-    <t>Mickey Mouse</t>
-  </si>
-  <si>
-    <t>Μίκυ Μάους</t>
-  </si>
-  <si>
-    <t>Military Equipment</t>
-  </si>
-  <si>
-    <t>Στρατιωτικός εξοπλισμός</t>
-  </si>
-  <si>
-    <t>Minecraft April Fools</t>
-  </si>
-  <si>
-    <t>Minecraft Πρωταπριλιά</t>
-  </si>
-  <si>
-    <t>Minecraft Bedrock Edition</t>
-  </si>
-  <si>
-    <t>Έκδοση Minecraft Bedrock</t>
-  </si>
-  <si>
-    <t>Minecraft Dungeons</t>
-  </si>
-  <si>
-    <t>Μπουντρούμια Minecraft</t>
-  </si>
-  <si>
-    <t>Minecraft Earth</t>
-  </si>
-  <si>
-    <t>Minecraft Γη</t>
-  </si>
-  <si>
-    <t>Minecraft Education Edition</t>
-  </si>
-  <si>
-    <t>Εκπαιδευτική έκδοση Minecraft</t>
-  </si>
-  <si>
-    <t>Minecraft Legends</t>
-  </si>
-  <si>
-    <t>Θρύλοι του Minecraft</t>
-  </si>
-  <si>
-    <t>Minecraft Live</t>
-  </si>
-  <si>
-    <t>Minecraft Movie</t>
-  </si>
-  <si>
-    <t>Ταινία Minecraft</t>
-  </si>
-  <si>
-    <t>Minecraft Story Mode</t>
-  </si>
-  <si>
-    <t>Λειτουργία ιστορίας Minecraft</t>
-  </si>
-  <si>
-    <t>Miner</t>
-  </si>
-  <si>
-    <t>Μεταλλωρύχος</t>
-  </si>
-  <si>
-    <t>Minesweeper</t>
-  </si>
-  <si>
-    <t>Miraculous: Tales of Ladybug &amp; Cat Noir</t>
-  </si>
-  <si>
-    <t>Θαυματουργό: Cat Noir</t>
-  </si>
-  <si>
-    <t>Mirai Nikki (Future Diary)</t>
-  </si>
-  <si>
-    <t>Mirai Nikki (Μελλοντικό ημερολόγιο)</t>
-  </si>
-  <si>
-    <t>Mirror's Edge</t>
-  </si>
-  <si>
-    <t>Η άκρη του καθρέφτη</t>
-  </si>
-  <si>
-    <t>Miss Kobayashi's Dragon Maid</t>
-  </si>
-  <si>
-    <t>Η υπηρέτρια του δράκου της δεσποινίδας Kobayashi</t>
-  </si>
-  <si>
-    <t>Mizuno's Resource Pack</t>
-  </si>
-  <si>
-    <t>Πακέτο πόρων της Mizuno</t>
-  </si>
-  <si>
-    <t>Moana</t>
-  </si>
-  <si>
-    <t>Modern Warfare Helmet</t>
-  </si>
-  <si>
-    <t>Κράνος Modern Warfare</t>
-  </si>
-  <si>
-    <t>Money</t>
-  </si>
-  <si>
-    <t>Χρήματα</t>
-  </si>
-  <si>
-    <t>Money Heist</t>
-  </si>
-  <si>
-    <t>Ληστεία χρημάτων</t>
-  </si>
-  <si>
-    <t>Monitor</t>
-  </si>
-  <si>
-    <t>Οθόνη</t>
-  </si>
-  <si>
-    <t>Monkey Island</t>
-  </si>
-  <si>
-    <t>Νησί μαϊμού</t>
-  </si>
-  <si>
-    <t>Monocle</t>
-  </si>
-  <si>
-    <t>Monster High</t>
-  </si>
-  <si>
-    <t>Monster Hunter</t>
-  </si>
-  <si>
-    <t>Κυνηγός τεράτων</t>
-  </si>
-  <si>
-    <t>Monsters Inc</t>
-  </si>
-  <si>
-    <t>Moomin</t>
-  </si>
-  <si>
-    <t>Mortal Kombat</t>
-  </si>
-  <si>
-    <t>Mounts of Mayhem</t>
-  </si>
-  <si>
-    <t>Τα βουνά του χάους</t>
-  </si>
-  <si>
-    <t>Mouthwashing</t>
-  </si>
-  <si>
-    <t>Στοματικό διάλυμα</t>
-  </si>
-  <si>
-    <t>Mr. Bean</t>
-  </si>
-  <si>
-    <t>Mulan</t>
-  </si>
-  <si>
-    <t>Mundo Gaturro</t>
-  </si>
-  <si>
-    <t>Muppets</t>
-  </si>
-  <si>
-    <t>Murder Drones</t>
-  </si>
-  <si>
-    <t>Κηφήνες δολοφονίας</t>
-  </si>
-  <si>
-    <t>Mushroom</t>
-  </si>
-  <si>
-    <t>Μανιτάρια</t>
-  </si>
-  <si>
-    <t>Mushroom (Biome)</t>
-  </si>
-  <si>
-    <t>Μανιτάρια (Biome)</t>
-  </si>
-  <si>
-    <t>Mushroom (Headwear)</t>
-  </si>
-  <si>
-    <t>Μανιτάρι (Headwear)</t>
-  </si>
-  <si>
-    <t>Music</t>
-  </si>
-  <si>
-    <t>Μουσική</t>
-  </si>
-  <si>
-    <t>Mustache</t>
-  </si>
-  <si>
-    <t>Μουστάκι</t>
-  </si>
-  <si>
-    <t>My Deer Friend Nokotan</t>
-  </si>
-  <si>
-    <t>Ο φίλος μου το ελάφι Nokotan</t>
-  </si>
-  <si>
-    <t>My Hero Academia</t>
-  </si>
-  <si>
-    <t>My Little Pony</t>
-  </si>
-  <si>
-    <t>My Neighbor Totoro</t>
-  </si>
-  <si>
-    <t>Ο γείτονάς μου ο Τότορο</t>
-  </si>
-  <si>
-    <t>My Singing Monsters</t>
-  </si>
-  <si>
-    <t>Τα τραγουδιστικά μου τέρατα</t>
-  </si>
-  <si>
-    <t>Naruto</t>
-  </si>
-  <si>
-    <t>Nausicaä of the Valley of the Wind</t>
-  </si>
-  <si>
-    <t>Η Nausicaä της Κοιλάδας του Ανέμου</t>
-  </si>
-  <si>
-    <t>Nekopara</t>
-  </si>
-  <si>
-    <t>Neon Genesis Evangelion</t>
-  </si>
-  <si>
-    <t>Nether (inspired)</t>
-  </si>
-  <si>
-    <t>Nether (εμπνευσμένο)</t>
-  </si>
-  <si>
-    <t>Nether (vanilla)</t>
-  </si>
-  <si>
-    <t>Nether (βανίλια)</t>
-  </si>
-  <si>
-    <t>Neutral Creature</t>
-  </si>
-  <si>
-    <t>Ουδέτερο πλάσμα</t>
-  </si>
-  <si>
-    <t>Neutral Person</t>
-  </si>
-  <si>
-    <t>Ουδέτερο πρόσωπο</t>
-  </si>
-  <si>
-    <t>New Year's Eve</t>
-  </si>
-  <si>
-    <t>Παραμονή Πρωτοχρονιάς</t>
-  </si>
-  <si>
-    <t>NieR: Automata</t>
-  </si>
-  <si>
-    <t>Night in the Woods</t>
-  </si>
-  <si>
-    <t>Νύχτα στο δάσος</t>
-  </si>
-  <si>
-    <t>Nightmare Before Christmas</t>
-  </si>
-  <si>
-    <t>Εφιάλτης πριν από τα Χριστούγεννα</t>
-  </si>
-  <si>
-    <t>Ninja Turtles</t>
-  </si>
-  <si>
-    <t>Χελώνες Νίντζα</t>
-  </si>
-  <si>
-    <t>No Game No Life</t>
-  </si>
-  <si>
-    <t>Χωρίς παιχνίδι δεν υπάρχει ζωή</t>
-  </si>
-  <si>
-    <t>No Man's Sky</t>
-  </si>
-  <si>
-    <t>Noel's House Party</t>
-  </si>
-  <si>
-    <t>House Party του Noel</t>
-  </si>
-  <si>
-    <t>Norse Mythology</t>
-  </si>
-  <si>
-    <t>Σκανδιναβική μυθολογία</t>
-  </si>
-  <si>
-    <t>NPC (Education Edition)</t>
-  </si>
-  <si>
-    <t>NPC (Εκπαιδευτική έκδοση)</t>
-  </si>
-  <si>
-    <t>Nuclear Fallout</t>
-  </si>
-  <si>
-    <t>Πυρηνική πτώση</t>
-  </si>
-  <si>
-    <t>Nuclear Throne</t>
-  </si>
-  <si>
-    <t>Πυρηνικός θρόνος</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Αριθμός</t>
-  </si>
-  <si>
-    <t>Nut</t>
-  </si>
-  <si>
-    <t>Παξιμάδι</t>
-  </si>
-  <si>
-    <t>Ocean</t>
-  </si>
-  <si>
-    <t>Ωκεανός</t>
-  </si>
-  <si>
-    <t>Octodad</t>
-  </si>
-  <si>
-    <t>Oddworld</t>
-  </si>
-  <si>
-    <t>OFF</t>
-  </si>
-  <si>
-    <t>Officer Cap</t>
-  </si>
-  <si>
-    <t>Καπέλο αξιωματικού</t>
-  </si>
-  <si>
-    <t>Oggy and the Cockroaches</t>
-  </si>
-  <si>
-    <t>Oggy και οι κατσαρίδες</t>
-  </si>
-  <si>
-    <t>Okegom</t>
-  </si>
-  <si>
-    <t>Old</t>
-  </si>
-  <si>
-    <t>Παλιό</t>
-  </si>
-  <si>
-    <t>Oliver &amp; Co</t>
-  </si>
-  <si>
-    <t>Omori</t>
-  </si>
-  <si>
-    <t>One Piece</t>
-  </si>
-  <si>
-    <t>One Punch Man</t>
-  </si>
-  <si>
-    <t>OneShot</t>
-  </si>
-  <si>
-    <t>Ongezellig</t>
-  </si>
-  <si>
-    <t>Onii-chan wa Oshimai</t>
-  </si>
-  <si>
-    <t>Open Source Objects</t>
-  </si>
-  <si>
-    <t>Αντικείμενα ανοικτού κώδικα</t>
-  </si>
-  <si>
-    <t>Orb</t>
-  </si>
-  <si>
-    <t>Σφαίρα</t>
-  </si>
-  <si>
-    <t>Orc</t>
-  </si>
-  <si>
-    <t>Ore</t>
-  </si>
-  <si>
-    <t>Μεταλλεύματα</t>
-  </si>
-  <si>
-    <t>Organs and Bodyparts</t>
-  </si>
-  <si>
-    <t>Όργανα και μέρη του σώματος</t>
-  </si>
-  <si>
-    <t>Other Headgear</t>
-  </si>
-  <si>
-    <t>Άλλα καλύμματα κεφαλής</t>
-  </si>
-  <si>
-    <t>Other Illumination</t>
-  </si>
-  <si>
-    <t>Άλλος φωτισμός</t>
-  </si>
-  <si>
-    <t>Other Mystic Creature</t>
-  </si>
-  <si>
-    <t>Άλλο μυστικιστικό πλάσμα</t>
-  </si>
-  <si>
-    <t>Outer Layer Block</t>
-  </si>
-  <si>
-    <t>Μπλοκ εξωτερικού στρώματος</t>
-  </si>
-  <si>
-    <t>Overlord</t>
-  </si>
-  <si>
-    <t>Overwatch</t>
-  </si>
-  <si>
-    <t>Pac-Man</t>
-  </si>
-  <si>
-    <t>Pacific Rim</t>
-  </si>
-  <si>
-    <t>Pacifier</t>
-  </si>
-  <si>
-    <t>Πιπίλα</t>
-  </si>
-  <si>
-    <t>Painted Face</t>
-  </si>
-  <si>
-    <t>Ζωγραφισμένο πρόσωπο</t>
-  </si>
-  <si>
-    <t>Pale Garden (inspired)</t>
-  </si>
-  <si>
-    <t>Pale Garden (εμπνευσμένο)</t>
-  </si>
-  <si>
-    <t>Panda Bear</t>
-  </si>
-  <si>
-    <t>Αρκούδα Πάντα</t>
-  </si>
-  <si>
-    <t>Pans Labyrinth</t>
-  </si>
-  <si>
-    <t>Λαβύρινθος Pans</t>
-  </si>
-  <si>
-    <t>Papers Please</t>
-  </si>
-  <si>
-    <t>PaRappa the Rapper</t>
-  </si>
-  <si>
-    <t>Party</t>
-  </si>
-  <si>
-    <t>Κόμμα</t>
-  </si>
-  <si>
-    <t>Pastries and Sweets</t>
-  </si>
-  <si>
-    <t>Ζαχαρωτά και γλυκά</t>
-  </si>
-  <si>
-    <t>Paw Patrol</t>
-  </si>
-  <si>
-    <t>Payday</t>
-  </si>
-  <si>
-    <t>Peanuts (Snoopy)</t>
-  </si>
-  <si>
-    <t>Penguin</t>
-  </si>
-  <si>
-    <t>Peppa Pig</t>
-  </si>
-  <si>
-    <t>Periodic Table of Elements</t>
-  </si>
-  <si>
-    <t>Περιοδικός Πίνακας των Στοιχείων</t>
-  </si>
-  <si>
-    <t>Persona</t>
-  </si>
-  <si>
-    <t>Pet Equipment</t>
-  </si>
-  <si>
-    <t>Εξοπλισμός κατοικίδιων ζώων</t>
-  </si>
-  <si>
-    <t>Peter Pan</t>
-  </si>
-  <si>
-    <t>Πίτερ Παν</t>
-  </si>
-  <si>
-    <t>Phantom</t>
-  </si>
-  <si>
-    <t>Phineas &amp; Ferb</t>
-  </si>
-  <si>
-    <t>Pig</t>
-  </si>
-  <si>
-    <t>Χοίρος</t>
-  </si>
-  <si>
-    <t>Piglin</t>
-  </si>
-  <si>
-    <t>Pigman</t>
-  </si>
-  <si>
-    <t>Pikmin</t>
-  </si>
-  <si>
-    <t>Pingu</t>
-  </si>
-  <si>
-    <t>Pink Panther</t>
-  </si>
-  <si>
-    <t>Ροζ Πάνθηρας</t>
-  </si>
-  <si>
-    <t>Pinky and the Brain</t>
-  </si>
-  <si>
-    <t>Ο Pinky και ο εγκέφαλος</t>
-  </si>
-  <si>
-    <t>Pinocchio</t>
-  </si>
-  <si>
-    <t>Πινόκιο</t>
-  </si>
-  <si>
-    <t>Pirates of the Caribbean</t>
-  </si>
-  <si>
-    <t>Οι Πειρατές της Καραϊβικής</t>
-  </si>
-  <si>
-    <t>Pizza Tower</t>
-  </si>
-  <si>
-    <t>Πύργος πίτσας</t>
-  </si>
-  <si>
-    <t>Planet</t>
-  </si>
-  <si>
-    <t>Πλανήτης</t>
-  </si>
-  <si>
-    <t>Plants vs. Zombies</t>
-  </si>
-  <si>
-    <t>Φυτά εναντίον ζόμπι</t>
-  </si>
-  <si>
-    <t>Playerunknown's Battlegrounds</t>
-  </si>
-  <si>
-    <t>Battlegrounds του Playerunknown</t>
-  </si>
-  <si>
-    <t>Pocahontas</t>
-  </si>
-  <si>
-    <t>Pokeball</t>
-  </si>
-  <si>
-    <t>Pokemon</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 1</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 2</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 3</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 4</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 5</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 6</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 7</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 8</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 9</t>
-  </si>
-  <si>
-    <t>Pokemon Items</t>
-  </si>
-  <si>
-    <t>Αντικείμενα Pokemon</t>
-  </si>
-  <si>
-    <t>Pokemon Trainer</t>
-  </si>
-  <si>
-    <t>Εκπαιδευτής Pokemon</t>
-  </si>
-  <si>
-    <t>Polar Bear</t>
-  </si>
-  <si>
-    <t>Πολική αρκούδα</t>
-  </si>
-  <si>
-    <t>Police</t>
-  </si>
-  <si>
-    <t>Αστυνομία</t>
-  </si>
-  <si>
-    <t>Pom Poko</t>
-  </si>
-  <si>
-    <t>Ponyo</t>
-  </si>
-  <si>
-    <t>Pop Team Epic</t>
-  </si>
-  <si>
-    <t>Pop ομάδα Epic</t>
-  </si>
-  <si>
-    <t>POPGOES</t>
-  </si>
-  <si>
-    <t>Poppy Playtime</t>
-  </si>
-  <si>
-    <t>Porco Rosso</t>
-  </si>
-  <si>
-    <t>Portal</t>
-  </si>
-  <si>
-    <t>Πύλη</t>
-  </si>
-  <si>
-    <t>Postman Pat</t>
-  </si>
-  <si>
-    <t>Ο ταχυδρόμος Pat</t>
-  </si>
-  <si>
-    <t>Power Rangers</t>
-  </si>
-  <si>
-    <t>Powerpuff Girls</t>
-  </si>
-  <si>
-    <t>Predator</t>
-  </si>
-  <si>
-    <t>Present</t>
-  </si>
-  <si>
-    <t>Παρόν</t>
-  </si>
-  <si>
-    <t>Pride</t>
-  </si>
-  <si>
-    <t>Υπερηφάνεια</t>
-  </si>
-  <si>
-    <t>Primate</t>
-  </si>
-  <si>
-    <t>Πρωτεύοντες</t>
-  </si>
-  <si>
-    <t>Princess Mononoke</t>
-  </si>
-  <si>
-    <t>Πριγκίπισσα Mononoke</t>
-  </si>
-  <si>
-    <t>Prof Layton</t>
-  </si>
-  <si>
-    <t>Καθηγητής Layton</t>
-  </si>
-  <si>
-    <t>Pumpkin</t>
-  </si>
-  <si>
-    <t>Κολοκύθα</t>
-  </si>
-  <si>
-    <t>Pumpkin (Lit)</t>
-  </si>
-  <si>
-    <t>Κολοκύθα (Lit)</t>
-  </si>
-  <si>
-    <t>Punctuation Mark</t>
-  </si>
-  <si>
-    <t>Σημείο στίξης</t>
-  </si>
-  <si>
-    <t>Quake</t>
-  </si>
-  <si>
-    <t>Σεισμός</t>
-  </si>
-  <si>
-    <t>R.E.P.O.</t>
-  </si>
-  <si>
-    <t>Rabbit</t>
-  </si>
-  <si>
-    <t>Κουνέλι</t>
-  </si>
-  <si>
-    <t>Railway</t>
-  </si>
-  <si>
-    <t>Σιδηροδρομικός</t>
-  </si>
-  <si>
-    <t>Rain World</t>
-  </si>
-  <si>
-    <t>Κόσμος της βροχής</t>
-  </si>
-  <si>
-    <t>Ratatouille</t>
-  </si>
-  <si>
-    <t>Ratchet &amp; Clank</t>
-  </si>
-  <si>
-    <t>Re:Creators</t>
-  </si>
-  <si>
-    <t>Re:Δημιουργοί</t>
-  </si>
-  <si>
-    <t>Re:Zero</t>
-  </si>
-  <si>
-    <t>Realm of the Mad God</t>
-  </si>
-  <si>
-    <t>Red Dead Redemption</t>
-  </si>
-  <si>
-    <t>Red Riding Hood</t>
-  </si>
-  <si>
-    <t>Κοκκινοσκουφίτσα</t>
-  </si>
-  <si>
-    <t>Redstone</t>
-  </si>
-  <si>
-    <t>Regional Form Pokemon</t>
-  </si>
-  <si>
-    <t>Pokemon περιφερειακής μορφής</t>
-  </si>
-  <si>
-    <t>Regretavator</t>
-  </si>
-  <si>
-    <t>Regular Show</t>
-  </si>
-  <si>
-    <t>Κανονική εκπομπή</t>
-  </si>
-  <si>
-    <t>Religion</t>
-  </si>
-  <si>
-    <t>Θρησκεία</t>
-  </si>
-  <si>
-    <t>Reptile</t>
-  </si>
-  <si>
-    <t>Ερπετά</t>
-  </si>
-  <si>
-    <t>Rescue Rangers</t>
-  </si>
-  <si>
-    <t>Resident Evil</t>
-  </si>
-  <si>
-    <t>Rhythm Heaven</t>
-  </si>
-  <si>
-    <t>Ρυθμός Heaven</t>
-  </si>
-  <si>
-    <t>Ribbon</t>
-  </si>
-  <si>
-    <t>Κορδέλα</t>
-  </si>
-  <si>
-    <t>Rick and Morty</t>
-  </si>
-  <si>
-    <t>Risk of Rain</t>
-  </si>
-  <si>
-    <t>Κίνδυνος βροχής</t>
-  </si>
-  <si>
-    <t>Rival of Aether</t>
-  </si>
-  <si>
-    <t>Αντίπαλος του Αιθέρα</t>
-  </si>
-  <si>
-    <t>River</t>
-  </si>
-  <si>
-    <t>Ποταμός</t>
-  </si>
-  <si>
-    <t>Riverdale</t>
-  </si>
-  <si>
-    <t>Robin Hood</t>
-  </si>
-  <si>
-    <t>Ρομπέν των Δασών</t>
-  </si>
-  <si>
-    <t>Roblox</t>
-  </si>
-  <si>
-    <t>RoboCop</t>
-  </si>
-  <si>
-    <t>Robot</t>
-  </si>
-  <si>
-    <t>Ρομπότ</t>
-  </si>
-  <si>
-    <t>Rocky</t>
-  </si>
-  <si>
-    <t>Rocky Horror Picture Show</t>
-  </si>
-  <si>
-    <t>Rodent</t>
-  </si>
-  <si>
-    <t>Τρωκτικά</t>
-  </si>
-  <si>
-    <t>Rotated Entity</t>
-  </si>
-  <si>
-    <t>Περιστρεφόμενη οντότητα</t>
-  </si>
-  <si>
-    <t>Royal Headgear</t>
-  </si>
-  <si>
-    <t>Βασιλικό κάλυμμα κεφαλής</t>
-  </si>
-  <si>
-    <t>Rune</t>
-  </si>
-  <si>
-    <t>Runescape</t>
-  </si>
-  <si>
-    <t>RWBY</t>
-  </si>
-  <si>
-    <t>Sackboy: A Big Adventure</t>
-  </si>
-  <si>
-    <t>Sackboy: Sackboy: Μια μεγάλη περιπέτεια</t>
-  </si>
-  <si>
-    <t>Sad Creature</t>
-  </si>
-  <si>
-    <t>Θλιβερό πλάσμα</t>
-  </si>
-  <si>
-    <t>Sad Person</t>
-  </si>
-  <si>
-    <t>Safari (Other)</t>
-  </si>
-  <si>
-    <t>Σαφάρι (άλλο)</t>
-  </si>
-  <si>
-    <t>Saga of Tanya the Evil</t>
-  </si>
-  <si>
-    <t>Το έπος της Τάνιας της Κακιάς</t>
-  </si>
-  <si>
-    <t>Sailor Moon</t>
-  </si>
-  <si>
-    <t>Sakurasou no Pet na Kanojo</t>
-  </si>
-  <si>
-    <t>Samurai Helmet</t>
-  </si>
-  <si>
-    <t>Κράνος σαμουράι</t>
-  </si>
-  <si>
-    <t>Satisfactory</t>
-  </si>
-  <si>
-    <t>Ικανοποιητικό</t>
-  </si>
-  <si>
-    <t>Saw</t>
-  </si>
-  <si>
-    <t>Πριόνι</t>
-  </si>
-  <si>
-    <t>Scarf</t>
-  </si>
-  <si>
-    <t>Φουλάρι</t>
-  </si>
-  <si>
-    <t>Scooby-Doo</t>
-  </si>
-  <si>
-    <t>SCP Containment Breach</t>
-  </si>
-  <si>
-    <t>Παραβίαση περιορισμού SCP</t>
-  </si>
-  <si>
-    <t>Scream</t>
-  </si>
-  <si>
-    <t>Scribblenauts</t>
-  </si>
-  <si>
-    <t>Sea of Thieves</t>
-  </si>
-  <si>
-    <t>Seafarer</t>
-  </si>
-  <si>
-    <t>Ναυτικός</t>
-  </si>
-  <si>
-    <t>Seraph of the End</t>
-  </si>
-  <si>
-    <t>Σεραφείμ του τέλους</t>
-  </si>
-  <si>
-    <t>Serial Experiments Lain</t>
-  </si>
-  <si>
-    <t>Σειριακά πειράματα Lain</t>
-  </si>
-  <si>
-    <t>Sesame Street</t>
-  </si>
-  <si>
-    <t>Seven Deadly Sins</t>
-  </si>
-  <si>
-    <t>Επτά θανάσιμα αμαρτήματα</t>
-  </si>
-  <si>
-    <t>Shadow of the Colossus</t>
-  </si>
-  <si>
-    <t>Η σκιά του Κολοσσού</t>
-  </si>
-  <si>
-    <t>Shadows of Mordor</t>
-  </si>
-  <si>
-    <t>Σκιές της Μόρντορ</t>
-  </si>
-  <si>
-    <t>Sheep</t>
-  </si>
-  <si>
-    <t>Πρόβατα</t>
-  </si>
-  <si>
-    <t>Sherlock Holmes</t>
-  </si>
-  <si>
-    <t>Σέρλοκ Χολμς</t>
-  </si>
-  <si>
-    <t>Shigatsu wa Kimi no Uso</t>
-  </si>
-  <si>
-    <t>Shimoneta</t>
-  </si>
-  <si>
-    <t>Shiny Pokemon</t>
-  </si>
-  <si>
-    <t>Λαμπερό Pokemon</t>
-  </si>
-  <si>
-    <t>Shipping</t>
-  </si>
-  <si>
-    <t>Αποστολή</t>
-  </si>
-  <si>
-    <t>Shovel Knight</t>
-  </si>
-  <si>
-    <t>Shrek</t>
-  </si>
-  <si>
-    <t>Σρεκ</t>
-  </si>
-  <si>
-    <t>Shulker</t>
-  </si>
-  <si>
-    <t>Silent Hill</t>
-  </si>
-  <si>
-    <t>SilvaGunner</t>
-  </si>
-  <si>
-    <t>Simpsons</t>
-  </si>
-  <si>
-    <t>Skeleton</t>
-  </si>
-  <si>
-    <t>Σκελετός</t>
-  </si>
-  <si>
-    <t>Skeleton (Vanilla)</t>
-  </si>
-  <si>
-    <t>Σκελετός (βανίλια)</t>
-  </si>
-  <si>
-    <t>Skeptical Creature</t>
-  </si>
-  <si>
-    <t>Σκεπτικό πλάσμα</t>
-  </si>
-  <si>
-    <t>Skeptical Person</t>
-  </si>
-  <si>
-    <t>Σκεπτικιστής</t>
-  </si>
-  <si>
-    <t>Skullgirls</t>
-  </si>
-  <si>
-    <t>Skyrim</t>
-  </si>
-  <si>
-    <t>Sleeping Beauty</t>
-  </si>
-  <si>
-    <t>Ωραία Κοιμωμένη</t>
-  </si>
-  <si>
-    <t>Sleeping Creature</t>
-  </si>
-  <si>
-    <t>Κοιμώμενο πλάσμα</t>
-  </si>
-  <si>
-    <t>Sleeping Person</t>
-  </si>
-  <si>
-    <t>Κοιμώμενο άτομο</t>
-  </si>
-  <si>
-    <t>Sliced</t>
-  </si>
-  <si>
-    <t>Φέτες</t>
-  </si>
-  <si>
-    <t>Slime</t>
-  </si>
-  <si>
-    <t>Slime (Vanilla)</t>
-  </si>
-  <si>
-    <t>Slime (βανίλια)</t>
-  </si>
-  <si>
-    <t>Slime Rancher</t>
-  </si>
-  <si>
-    <t>Slimefun</t>
-  </si>
-  <si>
-    <t>Sly Cooper</t>
-  </si>
-  <si>
-    <t>Smite Gods</t>
-  </si>
-  <si>
-    <t>Smite Θεοί</t>
-  </si>
-  <si>
-    <t>Smoking</t>
-  </si>
-  <si>
-    <t>Κάπνισμα</t>
-  </si>
-  <si>
-    <t>Smurfs</t>
-  </si>
-  <si>
-    <t>Στρουμφάκια</t>
-  </si>
-  <si>
-    <t>Snow Fight</t>
-  </si>
-  <si>
-    <t>Καταπολέμηση χιονιού</t>
-  </si>
-  <si>
-    <t>Snow Sculpture</t>
-  </si>
-  <si>
-    <t>Γλυπτό χιονιού</t>
-  </si>
-  <si>
-    <t>Snow White and the Seven Dwarfs</t>
-  </si>
-  <si>
-    <t>Η Χιονάτη και οι Επτά Νάνοι</t>
-  </si>
-  <si>
-    <t>Songs of War</t>
-  </si>
-  <si>
-    <t>Τραγούδια του πολέμου</t>
-  </si>
-  <si>
-    <t>Sonic the Hedgehog</t>
-  </si>
-  <si>
-    <t>Soul Knight</t>
-  </si>
-  <si>
-    <t>Ιππότης ψυχής</t>
-  </si>
-  <si>
-    <t>South Park</t>
-  </si>
-  <si>
-    <t>Space Travel</t>
-  </si>
-  <si>
-    <t>Διαστημικά ταξίδια</t>
-  </si>
-  <si>
-    <t>Spawn Egg</t>
-  </si>
-  <si>
-    <t>Αυγό αναπαραγωγής</t>
-  </si>
-  <si>
-    <t>Spawner</t>
-  </si>
-  <si>
-    <t>Spelunky</t>
-  </si>
-  <si>
-    <t>Spider</t>
-  </si>
-  <si>
-    <t>Αράχνη</t>
-  </si>
-  <si>
-    <t>Spider (Vanilla)</t>
-  </si>
-  <si>
-    <t>Αράχνη (βανίλια)</t>
-  </si>
-  <si>
-    <t>Spiderman</t>
-  </si>
-  <si>
-    <t>Spirited Away</t>
-  </si>
-  <si>
-    <t>Splatoon</t>
-  </si>
-  <si>
-    <t>Spongebob Squarepants</t>
-  </si>
-  <si>
-    <t>Μπομπ Σφουγγαράκης</t>
-  </si>
-  <si>
-    <t>Spooky's Jump Scare Mansion</t>
-  </si>
-  <si>
-    <t>Έπαυλη τρόμου άλματος του Spooky</t>
-  </si>
-  <si>
-    <t>Spore</t>
-  </si>
-  <si>
-    <t>Σπόροι</t>
-  </si>
-  <si>
-    <t>Sport</t>
-  </si>
-  <si>
-    <t>Αθλητισμός</t>
-  </si>
-  <si>
-    <t>Spreads</t>
-  </si>
-  <si>
-    <t>Διασπάσματα</t>
-  </si>
-  <si>
-    <t>Spring to Life</t>
-  </si>
-  <si>
-    <t>Άνοιξη στη ζωή</t>
-  </si>
-  <si>
-    <t>Spy x Family</t>
-  </si>
-  <si>
-    <t>Κατάσκοπος x Οικογένεια</t>
-  </si>
-  <si>
-    <t>Spyro</t>
-  </si>
-  <si>
-    <t>Squid Game</t>
-  </si>
-  <si>
-    <t>Παιχνίδι καλαμάρι</t>
-  </si>
-  <si>
-    <t>St. Patrick's Day</t>
-  </si>
-  <si>
-    <t>Ημέρα του Αγίου Πατρικίου</t>
-  </si>
-  <si>
-    <t>StackUp</t>
-  </si>
-  <si>
-    <t>Star Fox</t>
-  </si>
-  <si>
-    <t>Star Trek</t>
-  </si>
-  <si>
-    <t>Star vs the Forces of Evil</t>
-  </si>
-  <si>
-    <t>Το αστέρι εναντίον των δυνάμεων του κακού</t>
-  </si>
-  <si>
-    <t>Star Wars</t>
-  </si>
-  <si>
-    <t>Πόλεμος των Άστρων</t>
-  </si>
-  <si>
-    <t>Star Wars Helmet</t>
-  </si>
-  <si>
-    <t>Κράνος Star Wars</t>
-  </si>
-  <si>
-    <t>Star Wars Trooper Helmet</t>
-  </si>
-  <si>
-    <t>Κράνος στρατιώτη Star Wars</t>
-  </si>
-  <si>
-    <t>Starbucks</t>
-  </si>
-  <si>
-    <t>StarCraft</t>
-  </si>
-  <si>
-    <t>Stardew Valley</t>
-  </si>
-  <si>
-    <t>Starter Pokemon</t>
-  </si>
-  <si>
-    <t>Stationery</t>
-  </si>
-  <si>
-    <t>Χαρτικά</t>
-  </si>
-  <si>
-    <t>Steampunk</t>
-  </si>
-  <si>
-    <t>Steins;Gate</t>
-  </si>
-  <si>
-    <t>Steve</t>
-  </si>
-  <si>
-    <t>Steven Universe</t>
-  </si>
-  <si>
-    <t>Stone</t>
-  </si>
-  <si>
-    <t>Πέτρα</t>
-  </si>
-  <si>
-    <t>Storage (other)</t>
-  </si>
-  <si>
-    <t>Αποθήκευση (άλλο)</t>
-  </si>
-  <si>
-    <t>Stranger Things</t>
-  </si>
-  <si>
-    <t>Street Fighter</t>
-  </si>
-  <si>
-    <t>Μαχητής του δρόμου</t>
-  </si>
-  <si>
-    <t>Strider</t>
-  </si>
-  <si>
-    <t>Subnautica</t>
-  </si>
-  <si>
-    <t>Summer</t>
-  </si>
-  <si>
-    <t>Καλοκαίρι</t>
-  </si>
-  <si>
-    <t>Sunglasses</t>
-  </si>
-  <si>
-    <t>Γυαλιά ηλίου</t>
-  </si>
-  <si>
-    <t>Super Mario</t>
-  </si>
-  <si>
-    <t>Supernatural</t>
-  </si>
-  <si>
-    <t>Υπερφυσικό</t>
-  </si>
-  <si>
-    <t>Surprised Creature</t>
-  </si>
-  <si>
-    <t>Έκπληκτο πλάσμα</t>
-  </si>
-  <si>
-    <t>Surprised Person</t>
-  </si>
-  <si>
-    <t>Έκπληκτος άνθρωπος</t>
-  </si>
-  <si>
-    <t>Sushi</t>
-  </si>
-  <si>
-    <t>Swamp</t>
-  </si>
-  <si>
-    <t>Βάλτος</t>
-  </si>
-  <si>
-    <t>Sword Art Online</t>
-  </si>
-  <si>
-    <t>TaleSpin</t>
-  </si>
-  <si>
-    <t>Tangled</t>
-  </si>
-  <si>
-    <t>Tattletail</t>
-  </si>
-  <si>
-    <t>Team Fortress 2</t>
-  </si>
-  <si>
-    <t>Ομάδα Fortress 2</t>
-  </si>
-  <si>
-    <t>Teletubbies</t>
-  </si>
-  <si>
-    <t>Terraria</t>
-  </si>
-  <si>
-    <t>Terraria (Calamity)</t>
-  </si>
-  <si>
-    <t>Tetris</t>
-  </si>
-  <si>
-    <t>Thanksgiving</t>
-  </si>
-  <si>
-    <t>Ημέρα των Ευχαριστιών</t>
-  </si>
-  <si>
-    <t>That Time I Got Reincarnated as a Slime</t>
-  </si>
-  <si>
-    <t>Εκείνη τη φορά που μετενσαρκώθηκα ως γλίτσα</t>
-  </si>
-  <si>
-    <t>Thaumcraft</t>
-  </si>
-  <si>
-    <t>The Adventures of Tintin</t>
-  </si>
-  <si>
-    <t>Οι περιπέτειες του Τεντέν</t>
-  </si>
-  <si>
-    <t>The Amazing Digital Circus</t>
-  </si>
-  <si>
-    <t>Το καταπληκτικό ψηφιακό τσίρκο</t>
-  </si>
-  <si>
-    <t>The Amazing World of Gumball</t>
-  </si>
-  <si>
-    <t>Ο καταπληκτικός κόσμος του Gumball</t>
-  </si>
-  <si>
-    <t>The Binding of Isaac</t>
-  </si>
-  <si>
-    <t>Το Binding of Isaac</t>
-  </si>
-  <si>
-    <t>The Boys</t>
-  </si>
-  <si>
-    <t>Τα αγόρια</t>
-  </si>
-  <si>
-    <t>The Cat Returns</t>
-  </si>
-  <si>
-    <t>Η γάτα επιστρέφει</t>
-  </si>
-  <si>
-    <t>The Conjuring</t>
-  </si>
-  <si>
-    <t>Το Conjuring</t>
-  </si>
-  <si>
-    <t>The Copper Age</t>
-  </si>
-  <si>
-    <t>Η εποχή του χαλκού</t>
-  </si>
-  <si>
-    <t>The Emperor's New Groove</t>
-  </si>
-  <si>
-    <t>Το νέο αυλάκι του αυτοκράτορα</t>
-  </si>
-  <si>
-    <t>The English Ensemble Stars</t>
-  </si>
-  <si>
-    <t>Οι πρωταγωνιστές του αγγλικού Ensemble</t>
-  </si>
-  <si>
-    <t>The Fairly OddParents</t>
-  </si>
-  <si>
-    <t>The Finals</t>
-  </si>
-  <si>
-    <t>Οι τελικοί</t>
-  </si>
-  <si>
-    <t>The Flash</t>
-  </si>
-  <si>
-    <t>The Flintstones</t>
-  </si>
-  <si>
-    <t>Οι Flintstones</t>
-  </si>
-  <si>
-    <t>The Fly</t>
-  </si>
-  <si>
-    <t>Η μύγα</t>
-  </si>
-  <si>
-    <t>The Garden Awakens</t>
-  </si>
-  <si>
-    <t>Ο κήπος ξυπνάει</t>
-  </si>
-  <si>
-    <t>The Good Dinosaur</t>
-  </si>
-  <si>
-    <t>Ο καλός δεινόσαυρος</t>
-  </si>
-  <si>
-    <t>The Great Mouse Detective</t>
-  </si>
-  <si>
-    <t>Ο μεγάλος ντετέκτιβ ποντικιών</t>
-  </si>
-  <si>
-    <t>The Grim Adventures of Billy &amp; Mandy</t>
-  </si>
-  <si>
-    <t>Οι ζοφερές περιπέτειες του Billy &amp; Mandy</t>
-  </si>
-  <si>
-    <t>The Hunchback of Notre Dame</t>
-  </si>
-  <si>
-    <t>Ο καμπούρης της Παναγίας των Παρισίων</t>
-  </si>
-  <si>
-    <t>The Iron Giant</t>
-  </si>
-  <si>
-    <t>Ο σιδερένιος γίγαντας</t>
-  </si>
-  <si>
-    <t>The Last Guardian</t>
-  </si>
-  <si>
-    <t>Ο Τελευταίος Φύλακας</t>
-  </si>
-  <si>
-    <t>The Last of Us</t>
-  </si>
-  <si>
-    <t>The Legend of Zelda</t>
-  </si>
-  <si>
-    <t>Ο θρύλος του Zelda</t>
-  </si>
-  <si>
-    <t>The Lorax</t>
-  </si>
-  <si>
-    <t>Ο Λόραξ</t>
-  </si>
-  <si>
-    <t>The Neverhood</t>
-  </si>
-  <si>
-    <t>Το Neverhood</t>
-  </si>
-  <si>
-    <t>The Owl House</t>
-  </si>
-  <si>
-    <t>Το σπίτι της κουκουβάγιας</t>
-  </si>
-  <si>
-    <t>The Princess and the Frog</t>
-  </si>
-  <si>
-    <t>Η πριγκίπισσα και ο βάτραχος</t>
-  </si>
-  <si>
-    <t>The Ren &amp; Stimpy Show</t>
-  </si>
-  <si>
-    <t>Η εκπομπή Ren &amp; Stimpy Show</t>
-  </si>
-  <si>
-    <t>The Road to El Dorado</t>
-  </si>
-  <si>
-    <t>Ο δρόμος προς το El Dorado</t>
-  </si>
-  <si>
-    <t>The Texas Chainsaw Massacre</t>
-  </si>
-  <si>
-    <t>Η σφαγή με το αλυσοπρίονο του Τέξας</t>
-  </si>
-  <si>
-    <t>The Three Caballeros</t>
-  </si>
-  <si>
-    <t>Οι τρεις καμπαλέρος</t>
-  </si>
-  <si>
-    <t>The Walten Files</t>
-  </si>
-  <si>
-    <t>Τα αρχεία Walten</t>
-  </si>
-  <si>
-    <t>The Woody Woodpecker Show</t>
-  </si>
-  <si>
-    <t>Το σόου του Woody Woodpecker</t>
-  </si>
-  <si>
-    <t>Thomas &amp; Friends</t>
-  </si>
-  <si>
-    <t>Thor</t>
-  </si>
-  <si>
-    <t>Those Nights at Rachel's</t>
-  </si>
-  <si>
-    <t>Εκείνες οι νύχτες στης Ρέιτσελ</t>
-  </si>
-  <si>
-    <t>Tinker's Construct</t>
-  </si>
-  <si>
-    <t>Titanfall</t>
-  </si>
-  <si>
-    <t>Tokyo Ghoul</t>
-  </si>
-  <si>
-    <t>Tom and Jerry</t>
-  </si>
-  <si>
-    <t>Τομ και Τζέρι</t>
-  </si>
-  <si>
-    <t>Tomb Raider</t>
-  </si>
-  <si>
-    <t>Tomorrow's Pioneers</t>
-  </si>
-  <si>
-    <t>Οι αυριανοί πρωτοπόροι</t>
-  </si>
-  <si>
-    <t>Tooth Gap</t>
-  </si>
-  <si>
-    <t>Χάσμα δοντιών</t>
-  </si>
-  <si>
-    <t>Toradora</t>
-  </si>
-  <si>
-    <t>Total Drama Island</t>
-  </si>
-  <si>
-    <t>Σύνολο Νησί Δράμας</t>
-  </si>
-  <si>
-    <t>Touhou Project</t>
-  </si>
-  <si>
-    <t>Toy</t>
-  </si>
-  <si>
-    <t>Παιχνίδι</t>
-  </si>
-  <si>
-    <t>Toy Story</t>
-  </si>
-  <si>
-    <t>Traffic</t>
-  </si>
-  <si>
-    <t>Κυκλοφορία</t>
-  </si>
-  <si>
-    <t>Traffic Light</t>
-  </si>
-  <si>
-    <t>Φως κυκλοφορίας</t>
-  </si>
-  <si>
-    <t>Traffic Sign</t>
-  </si>
-  <si>
-    <t>Σήμα κυκλοφορίας</t>
-  </si>
-  <si>
-    <t>Trails and Tales</t>
-  </si>
-  <si>
-    <t>Μονοπάτια και ιστορίες</t>
-  </si>
-  <si>
-    <t>Transformers</t>
-  </si>
-  <si>
-    <t>Μετασχηματιστές</t>
-  </si>
-  <si>
-    <t>Transformice</t>
-  </si>
-  <si>
-    <t>Transparent Head</t>
-  </si>
-  <si>
-    <t>Διαφανές κεφάλι</t>
-  </si>
-  <si>
-    <t>Trash Can</t>
-  </si>
-  <si>
-    <t>Κάδος απορριμμάτων</t>
-  </si>
-  <si>
-    <t>Treasure</t>
-  </si>
-  <si>
-    <t>Θησαυρός</t>
-  </si>
-  <si>
-    <t>Treasure Planet</t>
-  </si>
-  <si>
-    <t>Ο πλανήτης των θησαυρών</t>
-  </si>
-  <si>
-    <t>Tricky Trials Update</t>
-  </si>
-  <si>
-    <t>Επικίνδυνη ενημέρωση δοκιμών</t>
-  </si>
-  <si>
-    <t>Tron</t>
-  </si>
-  <si>
-    <t>Turtle</t>
-  </si>
-  <si>
-    <t>Χελώνα</t>
-  </si>
-  <si>
-    <t>Twilight Forest</t>
-  </si>
-  <si>
-    <t>Δάσος λυκόφωτος</t>
-  </si>
-  <si>
-    <t>Twisted Wonderland</t>
-  </si>
-  <si>
-    <t>Ultrakill</t>
-  </si>
-  <si>
-    <t>Umineko - When They Cry</t>
-  </si>
-  <si>
-    <t>Umineko - Όταν κλαίνε</t>
-  </si>
-  <si>
-    <t>Undertale</t>
-  </si>
-  <si>
-    <t>Undertale AU</t>
-  </si>
-  <si>
-    <t>Undertale Yellow</t>
-  </si>
-  <si>
-    <t>Undertale κίτρινο</t>
-  </si>
-  <si>
-    <t>Universal Symbol</t>
-  </si>
-  <si>
-    <t>Παγκόσμιο σύμβολο</t>
-  </si>
-  <si>
-    <t>Up</t>
-  </si>
-  <si>
-    <t>Urban Wildlife</t>
-  </si>
-  <si>
-    <t>Αστική άγρια ζωή</t>
-  </si>
-  <si>
-    <t>V for Vendetta</t>
-  </si>
-  <si>
-    <t>Valentines</t>
-  </si>
-  <si>
-    <t>Βαλεντίνος</t>
-  </si>
-  <si>
-    <t>Valorant</t>
-  </si>
-  <si>
-    <t>Vanilla (removed)</t>
-  </si>
-  <si>
-    <t>Βανίλια (αφαιρείται)</t>
-  </si>
-  <si>
-    <t>Vanilla Block</t>
-  </si>
-  <si>
-    <t>Μπλοκ βανίλιας</t>
-  </si>
-  <si>
-    <t>Vanilla Food</t>
-  </si>
-  <si>
-    <t>Τρόφιμα βανίλιας</t>
-  </si>
-  <si>
-    <t>Vanilla Helmet</t>
-  </si>
-  <si>
-    <t>Κράνος βανίλιας</t>
-  </si>
-  <si>
-    <t>Vanilla Item</t>
-  </si>
-  <si>
-    <t>Στοιχείο βανίλιας</t>
-  </si>
-  <si>
-    <t>Vanilla Mob</t>
-  </si>
-  <si>
-    <t>Vault Hunters</t>
-  </si>
-  <si>
-    <t>Vegetable</t>
-  </si>
-  <si>
-    <t>Λαχανικά</t>
-  </si>
-  <si>
-    <t>Vehicle</t>
-  </si>
-  <si>
-    <t>Όχημα</t>
-  </si>
-  <si>
-    <t>Vikings</t>
-  </si>
-  <si>
-    <t>Βίκινγκς</t>
-  </si>
-  <si>
-    <t>Villager</t>
-  </si>
-  <si>
-    <t>Χωρικός</t>
-  </si>
-  <si>
-    <t>Villager (Desert)</t>
-  </si>
-  <si>
-    <t>Χωρικός (έρημος)</t>
-  </si>
-  <si>
-    <t>Villager (Jungle)</t>
-  </si>
-  <si>
-    <t>Χωρικός (ζούγκλα)</t>
-  </si>
-  <si>
-    <t>Villager (Plains)</t>
-  </si>
-  <si>
-    <t>Χωρικός (πεδιάδες)</t>
-  </si>
-  <si>
-    <t>Villager (Savanna)</t>
-  </si>
-  <si>
-    <t>Χωρικός (Σαβάνα)</t>
-  </si>
-  <si>
-    <t>Villager (Snowy Tundra)</t>
-  </si>
-  <si>
-    <t>Χωρικός (Χιονισμένη Τούνδρα)</t>
-  </si>
-  <si>
-    <t>Villager (Swamp)</t>
-  </si>
-  <si>
-    <t>Χωρικός (Βάλτος)</t>
-  </si>
-  <si>
-    <t>Villager (Taiga)</t>
-  </si>
-  <si>
-    <t>Χωρικός (Taiga)</t>
-  </si>
-  <si>
-    <t>Virtual Youtuber</t>
-  </si>
-  <si>
-    <t>Εικονικός Youtuber</t>
-  </si>
-  <si>
-    <t>Vocaloid</t>
-  </si>
-  <si>
-    <t>Voltron</t>
-  </si>
-  <si>
-    <t>Wakfu</t>
-  </si>
-  <si>
-    <t>Walking Dead</t>
-  </si>
-  <si>
-    <t>Wall-E</t>
-  </si>
-  <si>
-    <t>Wallace and Gromit</t>
-  </si>
-  <si>
-    <t>Wallace και Gromit</t>
-  </si>
-  <si>
-    <t>War of the Worlds</t>
-  </si>
-  <si>
-    <t>Πόλεμος των Κόσμων</t>
-  </si>
-  <si>
-    <t>Warcraft</t>
-  </si>
-  <si>
-    <t>Warframe</t>
-  </si>
-  <si>
-    <t>Warhammer</t>
-  </si>
-  <si>
-    <t>Warrior Cats</t>
-  </si>
-  <si>
-    <t>Γάτες πολεμιστές</t>
-  </si>
-  <si>
-    <t>We Bear Bears</t>
-  </si>
-  <si>
-    <t>Εμείς αρκούδες αρκούδες</t>
-  </si>
-  <si>
-    <t>We Happy Few</t>
-  </si>
-  <si>
-    <t>Εμείς οι λίγοι ευτυχισμένοι</t>
-  </si>
-  <si>
-    <t>Weather</t>
-  </si>
-  <si>
-    <t>Καιρός</t>
-  </si>
-  <si>
-    <t>Welcome Home</t>
-  </si>
-  <si>
-    <t>Καλώς ήρθατε στο σπίτι</t>
-  </si>
-  <si>
-    <t>Who is this?</t>
-  </si>
-  <si>
-    <t>Ποιος είναι αυτός;</t>
-  </si>
-  <si>
-    <t>Wild Update</t>
-  </si>
-  <si>
-    <t>Άγρια ενημέρωση</t>
-  </si>
-  <si>
-    <t>Wings of Fire</t>
-  </si>
-  <si>
-    <t>Φτερά της φωτιάς</t>
-  </si>
-  <si>
-    <t>Winnie the Pooh</t>
-  </si>
-  <si>
-    <t>Winter</t>
-  </si>
-  <si>
-    <t>Χειμώνας</t>
-  </si>
-  <si>
-    <t>Witcher</t>
-  </si>
-  <si>
-    <t>Wonderful Wonder World</t>
-  </si>
-  <si>
-    <t>Υπέροχος κόσμος των θαυμάτων</t>
-  </si>
-  <si>
-    <t>Wood</t>
-  </si>
-  <si>
-    <t>Ξύλο</t>
-  </si>
-  <si>
-    <t>Wool</t>
-  </si>
-  <si>
-    <t>Μαλλί</t>
-  </si>
-  <si>
-    <t>Work Safety Helmet</t>
-  </si>
-  <si>
-    <t>Κράνος ασφαλείας εργασίας</t>
-  </si>
-  <si>
-    <t>Wreck It Ralph</t>
-  </si>
-  <si>
-    <t>Wybel</t>
-  </si>
-  <si>
-    <t>Wynncraft</t>
-  </si>
-  <si>
-    <t>X-Men</t>
-  </si>
-  <si>
-    <t>Xenoblade Chronicles</t>
-  </si>
-  <si>
-    <t>Yandere Simulator</t>
-  </si>
-  <si>
-    <t>Προσομοιωτής Yandere</t>
-  </si>
-  <si>
-    <t>Yellow Submarine</t>
-  </si>
-  <si>
-    <t>Κίτρινο υποβρύχιο</t>
-  </si>
-  <si>
-    <t>Yokai</t>
-  </si>
-  <si>
-    <t>Yooka Laylee</t>
-  </si>
-  <si>
-    <t>Young</t>
-  </si>
-  <si>
-    <t>Νέοι</t>
-  </si>
-  <si>
-    <t>Youtube</t>
-  </si>
-  <si>
-    <t>Yu-Gi-Oh</t>
-  </si>
-  <si>
-    <t>Yume Nikki</t>
-  </si>
-  <si>
-    <t>Zero no Tsukaima</t>
-  </si>
-  <si>
-    <t>Zero Wing</t>
-  </si>
-  <si>
-    <t>Μηδενική πτέρυγα</t>
-  </si>
-  <si>
-    <t>Zodiac Sign</t>
-  </si>
-  <si>
-    <t>Ζώδιο</t>
-  </si>
-  <si>
-    <t>Zombie</t>
-  </si>
-  <si>
-    <t>Ζόμπι</t>
-  </si>
-  <si>
-    <t>Zombie (Vanilla)</t>
-  </si>
-  <si>
-    <t>Ζόμπι (βανίλια)</t>
-  </si>
-  <si>
-    <t>Zootopia</t>
   </si>
   <si>
     <t>Fall Drop</t>
@@ -5988,7 +5994,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1176"/>
+  <dimension ref="A1:B1177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -15406,11 +15412,19 @@
         <v>1874</v>
       </c>
       <c r="B1176" t="s">
-        <v>1874</v>
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:2">
+      <c r="A1177" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>1876</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1176"/>
+  <autoFilter ref="A1:B1177"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
